--- a/SS-OBS-DB.xlsx
+++ b/SS-OBS-DB.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Astronomy\Projects\GeneralDocumentation\ObservingReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947258EE-799E-42D9-AE32-7E13CC6A3882}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="910" yWindow="4320" windowWidth="19110" windowHeight="4370" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="2770" yWindow="4320" windowWidth="19110" windowHeight="4370" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="8" r:id="rId1"/>
@@ -129,12 +130,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="8">Uranus!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">Venus!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="832">
   <si>
     <r>
       <t>Imaging</t>
@@ -8051,7 +8052,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -13265,15 +13266,18 @@
                 <c:pt idx="6">
                   <c:v>186</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Mars!$G$93:$G$100</c:f>
+              <c:f>Mars!$G$93:$G$99</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>14.8</c:v>
                 </c:pt>
@@ -13300,10 +13304,10 @@
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>Mars!$Y$93:$Y$100</c:f>
+              <c:f>Mars!$Y$93:$Y$99</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.60014585309362722</c:v>
                 </c:pt>
@@ -13332,6 +13336,72 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-7A86-41A2-B03C-AE777C81B9D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:v>2018</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mars!$F$100:$F$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>212</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mars!$G$100:$G$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Mars!$Y$100:$Y$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.47134922778098259</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43178726398063955</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AEB2-4DA9-AD31-C5009A4A3395}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13480,8 +13550,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.90099009099633487"/>
           <c:y val="8.338156516474958E-2"/>
-          <c:w val="6.1593160459048231E-2"/>
-          <c:h val="0.44617630409683584"/>
+          <c:w val="6.1573445371090448E-2"/>
+          <c:h val="0.4783679312813171"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -13534,10 +13604,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13591,7 +13661,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6290733"/>
+    <xdr:ext cx="8667750" cy="6294438"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -14932,7 +15002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16839,7 +16909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -21479,7 +21549,7 @@
       <c r="Q147" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S116">
+  <autoFilter ref="A1:S116" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="3">
       <filters>
         <filter val="8P/Tuttle"/>
@@ -21498,7 +21568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -28538,7 +28608,7 @@
       <c r="Z166" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB128">
+  <autoFilter ref="A1:AB128" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="4">
       <filters>
         <filter val="Crater"/>
@@ -28562,7 +28632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -31462,7 +31532,7 @@
       <c r="M133" s="88"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O82">
+  <autoFilter ref="A1:O82" xr:uid="{00000000-0009-0000-0000-000003000000}">
     <filterColumn colId="1">
       <filters>
         <dateGroupItem year="2015" dateTimeGrouping="year"/>
@@ -31483,17 +31553,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AA125"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D81" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="S90" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A105" sqref="A105"/>
-      <selection pane="bottomRight" activeCell="D99" sqref="D99"/>
+      <selection pane="bottomRight" activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -38668,51 +38738,147 @@
     </row>
     <row r="100" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="22"/>
-      <c r="C100" s="36"/>
-      <c r="D100" s="123"/>
-      <c r="E100" s="126"/>
-      <c r="F100" s="114"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
-      <c r="J100" s="121"/>
+      <c r="C100" s="36">
+        <v>43277.409722222219</v>
+      </c>
+      <c r="D100" s="123">
+        <v>0.04</v>
+      </c>
+      <c r="E100" s="126">
+        <v>100</v>
+      </c>
+      <c r="F100" s="114">
+        <v>200</v>
+      </c>
+      <c r="G100" s="13">
+        <v>20</v>
+      </c>
+      <c r="H100" s="13">
+        <v>-2</v>
+      </c>
+      <c r="I100" s="13">
+        <f t="shared" ref="I100:I101" si="91">-LOG((1/(G100^2))*(2.511^(-H100)))/LOG(2.511)</f>
+        <v>4.5076438259882883</v>
+      </c>
+      <c r="J100" s="121" t="s">
+        <v>435</v>
+      </c>
       <c r="K100" s="121"/>
       <c r="L100" s="121"/>
-      <c r="M100" s="13"/>
-      <c r="N100" s="143"/>
+      <c r="M100" s="13">
+        <v>28</v>
+      </c>
+      <c r="N100" s="143">
+        <v>0.6</v>
+      </c>
+      <c r="O100" s="5">
+        <v>0</v>
+      </c>
+      <c r="P100" s="5">
+        <v>1</v>
+      </c>
       <c r="Q100" s="22"/>
-      <c r="R100" s="6"/>
-      <c r="S100" s="62"/>
-      <c r="T100" s="6"/>
-      <c r="U100" s="114"/>
-      <c r="V100" s="114"/>
-      <c r="W100" s="26"/>
-      <c r="X100" s="26"/>
-      <c r="Y100" s="26"/>
+      <c r="R100" s="6">
+        <v>43280</v>
+      </c>
+      <c r="S100" s="256">
+        <v>0.6</v>
+      </c>
+      <c r="T100" s="256">
+        <f t="shared" ref="T100:T101" si="92">1/SIN(RADIANS(M100+244/(165+47*M100^1.1)))</f>
+        <v>2.1215691912932564</v>
+      </c>
+      <c r="U100" s="114">
+        <f t="shared" ref="U100:U101" si="93">DEGREES(ASIN(SIN(RADIANS(F100))*SIN(RADIANS(25.19))))</f>
+        <v>-8.3703505328799661</v>
+      </c>
+      <c r="V100" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W100" s="26">
+        <f t="shared" ref="W100" si="94">668.5921*MOD((C100-Z$1),686.9726)/686.9726</f>
+        <v>405.70322628178309</v>
+      </c>
+      <c r="X100" s="147">
+        <f t="shared" ref="X100" si="95">(S100/(G100/2))*T100/(IF(ISBLANK(N100),0.5,N100))</f>
+        <v>0.21215691912932563</v>
+      </c>
+      <c r="Y100" s="147">
+        <f t="shared" ref="Y100" si="96">0.1/X100</f>
+        <v>0.47134922778098259</v>
+      </c>
     </row>
     <row r="101" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="22"/>
-      <c r="C101" s="36"/>
-      <c r="D101" s="123"/>
-      <c r="E101" s="126"/>
-      <c r="F101" s="114"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
-      <c r="J101" s="121"/>
+      <c r="C101" s="36">
+        <v>43296.23333333333</v>
+      </c>
+      <c r="D101" s="123">
+        <v>0.01</v>
+      </c>
+      <c r="E101" s="126">
+        <v>257.5</v>
+      </c>
+      <c r="F101" s="114">
+        <v>212</v>
+      </c>
+      <c r="G101" s="13">
+        <v>23.2</v>
+      </c>
+      <c r="H101" s="13">
+        <v>-2.6</v>
+      </c>
+      <c r="I101" s="13">
+        <f t="shared" si="91"/>
+        <v>4.2300573268500408</v>
+      </c>
+      <c r="J101" s="121" t="s">
+        <v>435</v>
+      </c>
       <c r="K101" s="121"/>
       <c r="L101" s="121"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="143"/>
+      <c r="M101" s="13">
+        <v>16</v>
+      </c>
+      <c r="N101" s="143">
+        <v>0.8</v>
+      </c>
+      <c r="O101" s="5">
+        <v>0</v>
+      </c>
+      <c r="P101" s="5">
+        <v>1</v>
+      </c>
       <c r="Q101" s="22"/>
-      <c r="R101" s="6"/>
-      <c r="S101" s="62"/>
-      <c r="T101" s="6"/>
-      <c r="U101" s="114"/>
-      <c r="V101" s="114"/>
-      <c r="W101" s="26"/>
-      <c r="X101" s="26"/>
-      <c r="Y101" s="26"/>
+      <c r="R101" s="6">
+        <v>43296</v>
+      </c>
+      <c r="S101" s="256">
+        <v>0.6</v>
+      </c>
+      <c r="T101" s="256">
+        <f t="shared" si="92"/>
+        <v>3.5820108550863048</v>
+      </c>
+      <c r="U101" s="114">
+        <f t="shared" si="93"/>
+        <v>-13.034925801958996</v>
+      </c>
+      <c r="V101" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W101" s="26">
+        <f t="shared" ref="W101" si="97">668.5921*MOD((C101-Z$1),686.9726)/686.9726</f>
+        <v>424.02319665958419</v>
+      </c>
+      <c r="X101" s="147">
+        <f t="shared" ref="X101" si="98">(S101/(G101/2))*T101/(IF(ISBLANK(N101),0.5,N101))</f>
+        <v>0.2315955294236835</v>
+      </c>
+      <c r="Y101" s="147">
+        <f t="shared" ref="Y101" si="99">0.1/X101</f>
+        <v>0.43178726398063955</v>
+      </c>
     </row>
     <row r="102" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="22"/>
@@ -39291,7 +39457,7 @@
       <c r="Y125" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA92"/>
+  <autoFilter ref="A1:AA92" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="10" orientation="landscape" r:id="rId1"/>
@@ -39303,7 +39469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -45513,7 +45679,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X144">
+  <autoFilter ref="A1:X144" xr:uid="{00000000-0009-0000-0000-000006000000}">
     <filterColumn colId="2">
       <filters>
         <dateGroupItem year="2014" dateTimeGrouping="year"/>
@@ -45534,13 +45700,13 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:T75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A105" sqref="A105"/>
@@ -47601,7 +47767,7 @@
       <c r="R75" s="178"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T30"/>
+  <autoFilter ref="A1:T30" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="88" orientation="landscape" r:id="rId1"/>
@@ -47613,7 +47779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -48993,7 +49159,7 @@
       <c r="P74" s="178"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R24">
+  <autoFilter ref="A1:R24" xr:uid="{00000000-0009-0000-0000-000008000000}">
     <sortState ref="A2:R22">
       <sortCondition ref="B1:B22"/>
     </sortState>
@@ -49009,7 +49175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -50011,7 +50177,7 @@
       <c r="Q42" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S14"/>
+  <autoFilter ref="A1:S14" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="47" orientation="landscape" r:id="rId1"/>

--- a/SS-OBS-DB.xlsx
+++ b/SS-OBS-DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Astronomy\Projects\GeneralDocumentation\ObservingReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947258EE-799E-42D9-AE32-7E13CC6A3882}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1907E34B-E3A4-4CA6-8B03-9AA284C82325}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2770" yWindow="4320" windowWidth="19110" windowHeight="4370" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14860" yWindow="4320" windowWidth="19110" windowHeight="4370" tabRatio="700" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="8" r:id="rId1"/>
@@ -19,123 +19,134 @@
     <sheet name="Venus" sheetId="19" r:id="rId4"/>
     <sheet name="Mars" sheetId="20" r:id="rId5"/>
     <sheet name="Mars Seasonal Coverage Chart" sheetId="22" r:id="rId6"/>
-    <sheet name="Jupiter" sheetId="17" r:id="rId7"/>
-    <sheet name="Saturn" sheetId="18" r:id="rId8"/>
-    <sheet name="Uranus" sheetId="23" r:id="rId9"/>
-    <sheet name="Neptune" sheetId="24" r:id="rId10"/>
+    <sheet name="Mars Longitude Coverage Chart" sheetId="25" r:id="rId7"/>
+    <sheet name="Mars Mapping Coverage" sheetId="26" r:id="rId8"/>
+    <sheet name="Jupiter" sheetId="17" r:id="rId9"/>
+    <sheet name="Saturn" sheetId="18" r:id="rId10"/>
+    <sheet name="Uranus" sheetId="23" r:id="rId11"/>
+    <sheet name="Neptune" sheetId="24" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'All Planets'!$A$1:$S$116</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Jupiter!$A$1:$X$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Jupiter!$A$1:$X$144</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Mars!$A$1:$AA$92</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Moon!$A$1:$AB$128</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Neptune!$A$1:$S$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Saturn!$A$1:$T$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Uranus!$A$1:$R$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Neptune!$A$1:$S$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Saturn!$A$1:$T$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Uranus!$A$1:$R$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Venus!$A$1:$O$82</definedName>
     <definedName name="_Toc170879297" localSheetId="1">'All Planets'!#REF!</definedName>
-    <definedName name="_Toc170879297" localSheetId="6">Jupiter!#REF!</definedName>
+    <definedName name="_Toc170879297" localSheetId="8">Jupiter!#REF!</definedName>
     <definedName name="_Toc170879297" localSheetId="4">Mars!#REF!</definedName>
     <definedName name="_Toc170879297" localSheetId="2">Moon!#REF!</definedName>
-    <definedName name="_Toc170879297" localSheetId="9">Neptune!#REF!</definedName>
-    <definedName name="_Toc170879297" localSheetId="7">Saturn!#REF!</definedName>
-    <definedName name="_Toc170879297" localSheetId="8">Uranus!#REF!</definedName>
+    <definedName name="_Toc170879297" localSheetId="11">Neptune!#REF!</definedName>
+    <definedName name="_Toc170879297" localSheetId="9">Saturn!#REF!</definedName>
+    <definedName name="_Toc170879297" localSheetId="10">Uranus!#REF!</definedName>
     <definedName name="_Toc170879297" localSheetId="3">Venus!#REF!</definedName>
     <definedName name="_Toc170879298" localSheetId="1">'All Planets'!#REF!</definedName>
-    <definedName name="_Toc170879298" localSheetId="6">Jupiter!#REF!</definedName>
+    <definedName name="_Toc170879298" localSheetId="8">Jupiter!#REF!</definedName>
     <definedName name="_Toc170879298" localSheetId="4">Mars!#REF!</definedName>
     <definedName name="_Toc170879298" localSheetId="2">Moon!#REF!</definedName>
-    <definedName name="_Toc170879298" localSheetId="9">Neptune!#REF!</definedName>
-    <definedName name="_Toc170879298" localSheetId="7">Saturn!#REF!</definedName>
-    <definedName name="_Toc170879298" localSheetId="8">Uranus!#REF!</definedName>
+    <definedName name="_Toc170879298" localSheetId="11">Neptune!#REF!</definedName>
+    <definedName name="_Toc170879298" localSheetId="9">Saturn!#REF!</definedName>
+    <definedName name="_Toc170879298" localSheetId="10">Uranus!#REF!</definedName>
     <definedName name="_Toc170879298" localSheetId="3">Venus!#REF!</definedName>
     <definedName name="_Toc170879299" localSheetId="1">'All Planets'!#REF!</definedName>
-    <definedName name="_Toc170879299" localSheetId="6">Jupiter!#REF!</definedName>
+    <definedName name="_Toc170879299" localSheetId="8">Jupiter!#REF!</definedName>
     <definedName name="_Toc170879299" localSheetId="4">Mars!#REF!</definedName>
     <definedName name="_Toc170879299" localSheetId="2">Moon!#REF!</definedName>
-    <definedName name="_Toc170879299" localSheetId="9">Neptune!#REF!</definedName>
-    <definedName name="_Toc170879299" localSheetId="7">Saturn!#REF!</definedName>
-    <definedName name="_Toc170879299" localSheetId="8">Uranus!#REF!</definedName>
+    <definedName name="_Toc170879299" localSheetId="11">Neptune!#REF!</definedName>
+    <definedName name="_Toc170879299" localSheetId="9">Saturn!#REF!</definedName>
+    <definedName name="_Toc170879299" localSheetId="10">Uranus!#REF!</definedName>
     <definedName name="_Toc170879299" localSheetId="3">Venus!#REF!</definedName>
     <definedName name="_Toc170879300" localSheetId="1">'All Planets'!#REF!</definedName>
-    <definedName name="_Toc170879300" localSheetId="6">Jupiter!#REF!</definedName>
+    <definedName name="_Toc170879300" localSheetId="8">Jupiter!#REF!</definedName>
     <definedName name="_Toc170879300" localSheetId="4">Mars!#REF!</definedName>
     <definedName name="_Toc170879300" localSheetId="2">Moon!#REF!</definedName>
-    <definedName name="_Toc170879300" localSheetId="9">Neptune!#REF!</definedName>
-    <definedName name="_Toc170879300" localSheetId="7">Saturn!#REF!</definedName>
-    <definedName name="_Toc170879300" localSheetId="8">Uranus!#REF!</definedName>
+    <definedName name="_Toc170879300" localSheetId="11">Neptune!#REF!</definedName>
+    <definedName name="_Toc170879300" localSheetId="9">Saturn!#REF!</definedName>
+    <definedName name="_Toc170879300" localSheetId="10">Uranus!#REF!</definedName>
     <definedName name="_Toc170879300" localSheetId="3">Venus!#REF!</definedName>
     <definedName name="_Toc170879301" localSheetId="1">'All Planets'!#REF!</definedName>
-    <definedName name="_Toc170879301" localSheetId="6">Jupiter!#REF!</definedName>
+    <definedName name="_Toc170879301" localSheetId="8">Jupiter!#REF!</definedName>
     <definedName name="_Toc170879301" localSheetId="4">Mars!#REF!</definedName>
     <definedName name="_Toc170879301" localSheetId="2">Moon!#REF!</definedName>
-    <definedName name="_Toc170879301" localSheetId="9">Neptune!#REF!</definedName>
-    <definedName name="_Toc170879301" localSheetId="7">Saturn!#REF!</definedName>
-    <definedName name="_Toc170879301" localSheetId="8">Uranus!#REF!</definedName>
+    <definedName name="_Toc170879301" localSheetId="11">Neptune!#REF!</definedName>
+    <definedName name="_Toc170879301" localSheetId="9">Saturn!#REF!</definedName>
+    <definedName name="_Toc170879301" localSheetId="10">Uranus!#REF!</definedName>
     <definedName name="_Toc170879301" localSheetId="3">Venus!#REF!</definedName>
     <definedName name="_Toc170879302" localSheetId="1">'All Planets'!#REF!</definedName>
-    <definedName name="_Toc170879302" localSheetId="6">Jupiter!#REF!</definedName>
+    <definedName name="_Toc170879302" localSheetId="8">Jupiter!#REF!</definedName>
     <definedName name="_Toc170879302" localSheetId="4">Mars!#REF!</definedName>
     <definedName name="_Toc170879302" localSheetId="2">Moon!#REF!</definedName>
-    <definedName name="_Toc170879302" localSheetId="9">Neptune!#REF!</definedName>
-    <definedName name="_Toc170879302" localSheetId="7">Saturn!#REF!</definedName>
-    <definedName name="_Toc170879302" localSheetId="8">Uranus!#REF!</definedName>
+    <definedName name="_Toc170879302" localSheetId="11">Neptune!#REF!</definedName>
+    <definedName name="_Toc170879302" localSheetId="9">Saturn!#REF!</definedName>
+    <definedName name="_Toc170879302" localSheetId="10">Uranus!#REF!</definedName>
     <definedName name="_Toc170879302" localSheetId="3">Venus!#REF!</definedName>
     <definedName name="_Toc170879303" localSheetId="1">'All Planets'!#REF!</definedName>
-    <definedName name="_Toc170879303" localSheetId="6">Jupiter!#REF!</definedName>
+    <definedName name="_Toc170879303" localSheetId="8">Jupiter!#REF!</definedName>
     <definedName name="_Toc170879303" localSheetId="4">Mars!#REF!</definedName>
     <definedName name="_Toc170879303" localSheetId="2">Moon!#REF!</definedName>
-    <definedName name="_Toc170879303" localSheetId="9">Neptune!#REF!</definedName>
-    <definedName name="_Toc170879303" localSheetId="7">Saturn!#REF!</definedName>
-    <definedName name="_Toc170879303" localSheetId="8">Uranus!#REF!</definedName>
+    <definedName name="_Toc170879303" localSheetId="11">Neptune!#REF!</definedName>
+    <definedName name="_Toc170879303" localSheetId="9">Saturn!#REF!</definedName>
+    <definedName name="_Toc170879303" localSheetId="10">Uranus!#REF!</definedName>
     <definedName name="_Toc170879303" localSheetId="3">Venus!#REF!</definedName>
     <definedName name="_Toc170879304" localSheetId="1">'All Planets'!#REF!</definedName>
-    <definedName name="_Toc170879304" localSheetId="6">Jupiter!#REF!</definedName>
+    <definedName name="_Toc170879304" localSheetId="8">Jupiter!#REF!</definedName>
     <definedName name="_Toc170879304" localSheetId="4">Mars!#REF!</definedName>
     <definedName name="_Toc170879304" localSheetId="2">Moon!#REF!</definedName>
-    <definedName name="_Toc170879304" localSheetId="9">Neptune!#REF!</definedName>
-    <definedName name="_Toc170879304" localSheetId="7">Saturn!#REF!</definedName>
-    <definedName name="_Toc170879304" localSheetId="8">Uranus!#REF!</definedName>
+    <definedName name="_Toc170879304" localSheetId="11">Neptune!#REF!</definedName>
+    <definedName name="_Toc170879304" localSheetId="9">Saturn!#REF!</definedName>
+    <definedName name="_Toc170879304" localSheetId="10">Uranus!#REF!</definedName>
     <definedName name="_Toc170879304" localSheetId="3">Venus!#REF!</definedName>
     <definedName name="_Toc170879305" localSheetId="1">'All Planets'!#REF!</definedName>
-    <definedName name="_Toc170879305" localSheetId="6">Jupiter!#REF!</definedName>
+    <definedName name="_Toc170879305" localSheetId="8">Jupiter!#REF!</definedName>
     <definedName name="_Toc170879305" localSheetId="4">Mars!#REF!</definedName>
     <definedName name="_Toc170879305" localSheetId="2">Moon!#REF!</definedName>
-    <definedName name="_Toc170879305" localSheetId="9">Neptune!#REF!</definedName>
-    <definedName name="_Toc170879305" localSheetId="7">Saturn!#REF!</definedName>
-    <definedName name="_Toc170879305" localSheetId="8">Uranus!#REF!</definedName>
+    <definedName name="_Toc170879305" localSheetId="11">Neptune!#REF!</definedName>
+    <definedName name="_Toc170879305" localSheetId="9">Saturn!#REF!</definedName>
+    <definedName name="_Toc170879305" localSheetId="10">Uranus!#REF!</definedName>
     <definedName name="_Toc170879305" localSheetId="3">Venus!#REF!</definedName>
     <definedName name="_Toc170879306" localSheetId="1">'All Planets'!#REF!</definedName>
-    <definedName name="_Toc170879306" localSheetId="6">Jupiter!#REF!</definedName>
+    <definedName name="_Toc170879306" localSheetId="8">Jupiter!#REF!</definedName>
     <definedName name="_Toc170879306" localSheetId="4">Mars!#REF!</definedName>
     <definedName name="_Toc170879306" localSheetId="2">Moon!#REF!</definedName>
-    <definedName name="_Toc170879306" localSheetId="9">Neptune!#REF!</definedName>
-    <definedName name="_Toc170879306" localSheetId="7">Saturn!#REF!</definedName>
-    <definedName name="_Toc170879306" localSheetId="8">Uranus!#REF!</definedName>
+    <definedName name="_Toc170879306" localSheetId="11">Neptune!#REF!</definedName>
+    <definedName name="_Toc170879306" localSheetId="9">Saturn!#REF!</definedName>
+    <definedName name="_Toc170879306" localSheetId="10">Uranus!#REF!</definedName>
     <definedName name="_Toc170879306" localSheetId="3">Venus!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'All Planets'!$B:$Q</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">Jupiter!$B:$V</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">Jupiter!$B:$V</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Mars!$B:$R</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Moon!$B:$Z</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">Neptune!$A:$Q</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">Saturn!$A:$R</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">Uranus!$A:$P</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">Neptune!$A:$Q</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">Saturn!$A:$R</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">Uranus!$A:$P</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Venus!$A:$M</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'All Planets'!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">Jupiter!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="8">Jupiter!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">Mars!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Moon!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="9">Neptune!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">Saturn!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="8">Uranus!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="11">Neptune!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="9">Saturn!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="10">Uranus!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">Venus!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="832">
   <si>
     <r>
       <t>Imaging</t>
@@ -13355,45 +13366,153 @@
           <c:invertIfNegative val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Mars!$F$100:$F$101</c:f>
+              <c:f>Mars!$F$100:$F$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Mars!$G$100:$G$101</c:f>
+              <c:f>Mars!$G$100:$G$113</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>Mars!$Y$100:$Y$101</c:f>
+              <c:f>Mars!$Y$100:$Y$113</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.47134922778098259</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.43178726398063955</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58483825236972842</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23162582999789846</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39716730954546492</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62394312874592683</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5686130728804778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4477912211469039</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41238164409060246</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36773978526895734</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51407326306528878</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3870563693364793</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33853496836157887</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30962646600111149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13603,11 +13722,2346 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mars Seasonal Coverage</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3608360836085874E-2"/>
+          <c:y val="8.7878787878787459E-2"/>
+          <c:w val="0.80748074807480752"/>
+          <c:h val="0.78787878787878785"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bubbleChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2003</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000">
+                <a:alpha val="67000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mars!$F$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mars!$E$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>42.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Mars!$Y$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.46061683916243434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D858-4547-A652-ACED73EB588D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2005</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000">
+                <a:alpha val="67000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mars!$F$59:$F$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>355</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mars!$E$59:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>343.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>278.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>224.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>352.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Mars!$Y$59:$Y$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.58970313546571707</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70635166675423489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88057387961569</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71830110522047241</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84569252922847116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66187798463079006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35157240715999555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D858-4547-A652-ACED73EB588D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2007-08</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050">
+                <a:alpha val="67000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mars!$F$66:$F$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mars!$E$66:$E$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>187.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>332.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>313.39999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Mars!$Y$66:$Y$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.49112611645683107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64156974574067294</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3430317378053489</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48523852953483748</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48038614423948911</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25664169188345465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-D858-4547-A652-ACED73EB588D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>2010</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050">
+                <a:alpha val="67000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mars!$F$72:$F$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mars!$E$72:$E$79</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>266.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>188.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>305.60000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Mars!$Y$72:$Y$79</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.38123505811710678</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38503447814051717</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55603451568100659</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61062426700646688</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57392014806589764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65543342787860781</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33253008233673259</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16700991142869448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-D858-4547-A652-ACED73EB588D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>2012</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mars!$F$80:$F$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0.0">
+                  <c:v>80.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mars!$E$80:$E$85</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>251.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>287.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>312.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Mars!$Y$80:$Y$85</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.27217313857477998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60558278646085917</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76293684927425354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56331356507951269</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53690824171641049</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40488162490089974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-D858-4547-A652-ACED73EB588D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>2014</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mars!$F$86:$F$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mars!$E$86:$E$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>122.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>358.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>298.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>108.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Mars!$Y$86:$Y$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.31484793249012105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54060636311614918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55095297626668371</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0222045964395852E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44226799032922026</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.369185567551969E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2032252816372223E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-D858-4547-A652-ACED73EB588D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>2016</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mars!$F$93:$F$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mars!$E$93:$E$99</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>227.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>268.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>302.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>141.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Mars!$Y$93:$Y$99</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.60014585309362722</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58068166326356363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54499731524178041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45808432849013336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36765239766916635</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35822541311354672</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34644168241902212</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-D858-4547-A652-ACED73EB588D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>2018</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mars!$F$100:$F$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>324</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mars!$E$100:$E$113</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>257.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>320.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>314.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>146.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>108.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>164.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>274.10000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Mars!$Y$100:$Y$113</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.47134922778098259</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43178726398063955</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58483825236972842</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23162582999789846</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39716730954546492</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62394312874592683</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5686130728804778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4477912211469039</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41238164409060246</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36773978526895734</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51407326306528878</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3870563693364793</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33853496836157887</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30962646600111149</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-D858-4547-A652-ACED73EB588D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:bubbleScale val="15"/>
+        <c:showNegBubbles val="0"/>
+        <c:axId val="140654464"/>
+        <c:axId val="140700672"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="140654464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="360"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                    <a:ea typeface="Calibri"/>
+                    <a:cs typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Solar Longitude of Mars (Ls, degrees)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="140700672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="30"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="140700672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="390"/>
+          <c:min val="-30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                    <a:ea typeface="Calibri"/>
+                    <a:cs typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Central</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Meridian of Mars (degrees)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="140654464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="30"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.90099009099633487"/>
+          <c:y val="8.338156516474958E-2"/>
+          <c:w val="6.1573445371090448E-2"/>
+          <c:h val="0.4783679312813171"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="810" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Calibri"/>
+          <a:ea typeface="Calibri"/>
+          <a:cs typeface="Calibri"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mars Mapping Coverage</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3608360836085874E-2"/>
+          <c:y val="8.7878787878787459E-2"/>
+          <c:w val="0.80748074807480752"/>
+          <c:h val="0.78787878787878785"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bubbleChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2003</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000">
+                <a:alpha val="67000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mars!$F$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mars!$E$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>42.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Mars!$Y$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.46061683916243434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-54A3-4FB3-A8B9-F950B9B7E44D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2005</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000">
+                <a:alpha val="67000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mars!$F$59:$F$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>355</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mars!$E$59:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>343.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>278.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>224.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>352.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Mars!$Y$59:$Y$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.58970313546571707</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70635166675423489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88057387961569</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71830110522047241</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84569252922847116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66187798463079006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35157240715999555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-54A3-4FB3-A8B9-F950B9B7E44D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2007-08</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050">
+                <a:alpha val="67000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mars!$F$66:$F$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mars!$E$66:$E$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>187.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>332.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>313.39999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Mars!$Y$66:$Y$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.49112611645683107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64156974574067294</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3430317378053489</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48523852953483748</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48038614423948911</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25664169188345465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-54A3-4FB3-A8B9-F950B9B7E44D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>2010</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050">
+                <a:alpha val="67000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mars!$F$72:$F$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mars!$E$72:$E$79</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>266.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>188.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>305.60000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Mars!$Y$72:$Y$79</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.38123505811710678</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38503447814051717</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55603451568100659</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61062426700646688</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57392014806589764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65543342787860781</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33253008233673259</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16700991142869448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-54A3-4FB3-A8B9-F950B9B7E44D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>2012</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mars!$F$80:$F$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0.0">
+                  <c:v>80.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mars!$E$80:$E$85</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>251.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>287.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>312.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Mars!$Y$80:$Y$85</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.27217313857477998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60558278646085917</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76293684927425354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56331356507951269</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53690824171641049</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40488162490089974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-54A3-4FB3-A8B9-F950B9B7E44D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>2014</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mars!$F$86:$F$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mars!$E$86:$E$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>122.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>358.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>298.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>108.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Mars!$Y$86:$Y$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.31484793249012105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54060636311614918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55095297626668371</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0222045964395852E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44226799032922026</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.369185567551969E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2032252816372223E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-54A3-4FB3-A8B9-F950B9B7E44D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>2016</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mars!$F$93:$F$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mars!$E$93:$E$99</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>227.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>268.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>302.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>141.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Mars!$Y$93:$Y$99</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.60014585309362722</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58068166326356363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54499731524178041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45808432849013336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36765239766916635</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35822541311354672</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34644168241902212</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-54A3-4FB3-A8B9-F950B9B7E44D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>2018</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mars!$F$100:$F$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>324</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mars!$E$100:$E$113</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>257.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>320.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>314.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>146.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>108.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>164.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>274.10000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Mars!$Y$100:$Y$113</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.47134922778098259</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43178726398063955</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58483825236972842</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23162582999789846</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39716730954546492</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62394312874592683</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5686130728804778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4477912211469039</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41238164409060246</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36773978526895734</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51407326306528878</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3870563693364793</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33853496836157887</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30962646600111149</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-54A3-4FB3-A8B9-F950B9B7E44D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:bubbleScale val="15"/>
+        <c:showNegBubbles val="0"/>
+        <c:axId val="140654464"/>
+        <c:axId val="140700672"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="140654464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="360"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Solar Longitude of Mars (Ls, degrees)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="140700672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="45"/>
+        <c:minorUnit val="45"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="140700672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="360"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Central Meridian of Mars (degrees)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="140654464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="60"/>
+        <c:minorUnit val="30"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.90099009099633487"/>
+          <c:y val="8.338156516474958E-2"/>
+          <c:w val="8.7988492910274302E-2"/>
+          <c:h val="0.4783679312813171"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Calibri"/>
+          <a:ea typeface="Calibri"/>
+          <a:cs typeface="Calibri"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0"/>
+    <sheetView zoomScale="70" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{96D3341E-001A-47AD-BC1D-B2979895F5D6}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="70" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1F688366-B527-4DD6-B3B0-8163E942E288}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13661,7 +16115,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6294438"/>
+    <xdr:ext cx="8654143" cy="6277429"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -14655,6 +17109,1408 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8654143" cy="6277429"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7573042-1A55-4C90-AD81-745BD07D6CB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.48736</cdr:x>
+      <cdr:y>0.83489</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.68908</cdr:x>
+      <cdr:y>0.87742</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4215062" y="5240606"/>
+          <a:ext cx="1744579" cy="266960"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FFFF99">
+            <a:alpha val="58824"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Southern </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Spring</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.68908</cdr:x>
+      <cdr:y>0.83474</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.8908</cdr:x>
+      <cdr:y>0.87703</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5959641" y="5239621"/>
+          <a:ext cx="1744579" cy="265454"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="92D050">
+            <a:alpha val="59000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Southern </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Summer</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.08347</cdr:x>
+      <cdr:y>0.83489</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.28518</cdr:x>
+      <cdr:y>0.87742</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="721894" y="5240606"/>
+          <a:ext cx="1744579" cy="266960"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="F79646">
+            <a:lumMod val="75000"/>
+            <a:alpha val="59000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Southern Autumn</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.28472</cdr:x>
+      <cdr:y>0.83489</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.4869</cdr:x>
+      <cdr:y>0.87742</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 4"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2462463" y="5240606"/>
+          <a:ext cx="1748590" cy="266960"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="4F81BD">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="59000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Southern </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Winter</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.08347</cdr:x>
+      <cdr:y>0.08812</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.28472</cdr:x>
+      <cdr:y>0.13115</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 5"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="721894" y="553129"/>
+          <a:ext cx="1740569" cy="270099"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FFFF99">
+            <a:alpha val="58824"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Norther</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>n </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Spring</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.28565</cdr:x>
+      <cdr:y>0.08682</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48736</cdr:x>
+      <cdr:y>0.1306</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="TextBox 6"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2470484" y="544947"/>
+          <a:ext cx="1744579" cy="274806"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="92D050">
+            <a:alpha val="59000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Norther</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>n </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Summer</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.48736</cdr:x>
+      <cdr:y>0.08682</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.68908</cdr:x>
+      <cdr:y>0.1306</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="TextBox 7"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4215063" y="544947"/>
+          <a:ext cx="1744579" cy="274806"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="F79646">
+            <a:lumMod val="75000"/>
+            <a:alpha val="59000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Norther</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>n </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Autumn</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.68943</cdr:x>
+      <cdr:y>0.08682</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.89184</cdr:x>
+      <cdr:y>0.1306</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="TextBox 8"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5962651" y="544947"/>
+          <a:ext cx="1750634" cy="274806"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="4F81BD">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="59000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Norther</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>n </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Winter</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8654143" cy="6277429"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24A183F8-DE18-49E0-B608-FCE7C0E476E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.79036</cdr:x>
+      <cdr:y>0.08671</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.89203</cdr:x>
+      <cdr:y>0.87572</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDB2B87B-9196-4D17-9D82-8F421EEEBB5C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6839888" y="544316"/>
+          <a:ext cx="879867" cy="4952954"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FFFF99">
+            <a:alpha val="25000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Equinox</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>60S to 60N</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.5888</cdr:x>
+      <cdr:y>0.08538</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.79121</cdr:x>
+      <cdr:y>0.87428</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="TextBox 8"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5095559" y="535951"/>
+          <a:ext cx="1751685" cy="4952263"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="4F81BD">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="25000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Southern Solstice</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>90S to 30N</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.38679</cdr:x>
+      <cdr:y>0.08671</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.58805</cdr:x>
+      <cdr:y>0.87717</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB38FFD-1EC1-45A4-BF0B-6EFBD14B22A9}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3347357" y="544286"/>
+          <a:ext cx="1741714" cy="4962071"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FFFF99">
+            <a:alpha val="25000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Equinox</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>60S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> to 60N</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.08281</cdr:x>
+      <cdr:y>0.08671</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.18449</cdr:x>
+      <cdr:y>0.87572</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 5"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="716643" y="544286"/>
+          <a:ext cx="879930" cy="4953000"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FFFF99">
+            <a:alpha val="25000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Equinox</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>60S to 60N</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.18397</cdr:x>
+      <cdr:y>0.08682</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.38568</cdr:x>
+      <cdr:y>0.87717</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="TextBox 6"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1592127" y="545005"/>
+          <a:ext cx="1745627" cy="4961351"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="92D050">
+            <a:alpha val="25000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Norther</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>n </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Solstice</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>30S to 90N</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -23506,7 +27362,7 @@
       <c r="AA40" s="53"/>
       <c r="AB40" s="53"/>
     </row>
-    <row r="41" spans="1:28" s="12" customFormat="1" ht="50" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" s="12" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A41" s="204"/>
       <c r="B41" s="23"/>
       <c r="C41" s="36">
@@ -31538,7 +35394,7 @@
         <dateGroupItem year="2015" dateTimeGrouping="year"/>
       </filters>
     </filterColumn>
-    <sortState ref="A2:Q72">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q72">
       <sortCondition ref="B1:B72"/>
     </sortState>
   </autoFilter>
@@ -31559,11 +35415,11 @@
   </sheetPr>
   <dimension ref="A1:AA125"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="S90" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D108" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A105" sqref="A105"/>
-      <selection pane="bottomRight" activeCell="Y1" sqref="Y1"/>
+      <selection pane="bottomRight" activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -38745,7 +42601,7 @@
         <v>0.04</v>
       </c>
       <c r="E100" s="126">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="F100" s="114">
         <v>200</v>
@@ -38882,291 +42738,867 @@
     </row>
     <row r="102" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="22"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="123"/>
-      <c r="E102" s="126"/>
-      <c r="F102" s="114"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
-      <c r="J102" s="121"/>
+      <c r="C102" s="36">
+        <v>43312.245138888888</v>
+      </c>
+      <c r="D102" s="123">
+        <v>0</v>
+      </c>
+      <c r="E102" s="126">
+        <v>120</v>
+      </c>
+      <c r="F102" s="114">
+        <v>221</v>
+      </c>
+      <c r="G102" s="13">
+        <v>24.3</v>
+      </c>
+      <c r="H102" s="13">
+        <v>-2.8</v>
+      </c>
+      <c r="I102" s="13">
+        <f t="shared" ref="I102:I105" si="100">-LOG((1/(G102^2))*(2.511^(-H102)))/LOG(2.511)</f>
+        <v>4.1306873336389511</v>
+      </c>
+      <c r="J102" s="121" t="s">
+        <v>435</v>
+      </c>
       <c r="K102" s="121"/>
       <c r="L102" s="121"/>
-      <c r="M102" s="13"/>
-      <c r="N102" s="143"/>
+      <c r="M102" s="13">
+        <v>21</v>
+      </c>
+      <c r="N102" s="143">
+        <v>0.8</v>
+      </c>
+      <c r="O102" s="5">
+        <v>0</v>
+      </c>
+      <c r="P102" s="5">
+        <v>1</v>
+      </c>
       <c r="Q102" s="22"/>
-      <c r="R102" s="6"/>
-      <c r="S102" s="62"/>
-      <c r="T102" s="6"/>
-      <c r="U102" s="114"/>
-      <c r="V102" s="114"/>
-      <c r="W102" s="26"/>
-      <c r="X102" s="26"/>
-      <c r="Y102" s="26"/>
+      <c r="R102" s="6">
+        <v>43296</v>
+      </c>
+      <c r="S102" s="256">
+        <v>0.6</v>
+      </c>
+      <c r="T102" s="256">
+        <f t="shared" ref="T102:T105" si="101">1/SIN(RADIANS(M102+244/(165+47*M102^1.1)))</f>
+        <v>2.7699966502462186</v>
+      </c>
+      <c r="U102" s="114">
+        <f t="shared" ref="U102:U105" si="102">DEGREES(ASIN(SIN(RADIANS(F102))*SIN(RADIANS(25.19))))</f>
+        <v>-16.214417468422315</v>
+      </c>
+      <c r="V102" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W102" s="26">
+        <f t="shared" ref="W102:W104" si="103">668.5921*MOD((C102-Z$1),686.9726)/686.9726</f>
+        <v>439.60659358281225</v>
+      </c>
+      <c r="X102" s="147">
+        <f t="shared" ref="X102:X104" si="104">(S102/(G102/2))*T102/(IF(ISBLANK(N102),0.5,N102))</f>
+        <v>0.17098744754606285</v>
+      </c>
+      <c r="Y102" s="147">
+        <f t="shared" ref="Y102:Y104" si="105">0.1/X102</f>
+        <v>0.58483825236972842</v>
+      </c>
     </row>
     <row r="103" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="22"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="123"/>
-      <c r="E103" s="126"/>
-      <c r="F103" s="114"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
-      <c r="J103" s="121"/>
+      <c r="C103" s="36">
+        <v>43326.145138888889</v>
+      </c>
+      <c r="D103" s="123">
+        <v>0.02</v>
+      </c>
+      <c r="E103" s="126">
+        <v>320.10000000000002</v>
+      </c>
+      <c r="F103" s="114">
+        <v>230</v>
+      </c>
+      <c r="G103" s="13">
+        <v>23.5</v>
+      </c>
+      <c r="H103" s="13">
+        <v>-2.5</v>
+      </c>
+      <c r="I103" s="13">
+        <f t="shared" si="100"/>
+        <v>4.3579674094063163</v>
+      </c>
+      <c r="J103" s="121" t="s">
+        <v>435</v>
+      </c>
       <c r="K103" s="121"/>
       <c r="L103" s="121"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="143"/>
+      <c r="M103" s="13">
+        <v>17</v>
+      </c>
+      <c r="N103" s="143">
+        <v>0.4</v>
+      </c>
+      <c r="O103" s="5">
+        <v>0</v>
+      </c>
+      <c r="P103" s="5">
+        <v>1</v>
+      </c>
       <c r="Q103" s="22"/>
-      <c r="R103" s="6"/>
-      <c r="S103" s="62"/>
-      <c r="T103" s="6"/>
-      <c r="U103" s="114"/>
-      <c r="V103" s="114"/>
-      <c r="W103" s="26"/>
-      <c r="X103" s="26"/>
-      <c r="Y103" s="26"/>
+      <c r="R103" s="6">
+        <v>43296</v>
+      </c>
+      <c r="S103" s="256">
+        <v>0.6</v>
+      </c>
+      <c r="T103" s="256">
+        <f t="shared" si="101"/>
+        <v>3.381891101439078</v>
+      </c>
+      <c r="U103" s="114">
+        <f t="shared" si="102"/>
+        <v>-19.028890741463766</v>
+      </c>
+      <c r="V103" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W103" s="26">
+        <f t="shared" si="103"/>
+        <v>453.13468799298374</v>
+      </c>
+      <c r="X103" s="147">
+        <f t="shared" si="104"/>
+        <v>0.43173077890711631</v>
+      </c>
+      <c r="Y103" s="147">
+        <f t="shared" si="105"/>
+        <v>0.23162582999789846</v>
+      </c>
     </row>
     <row r="104" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="22"/>
-      <c r="C104" s="36"/>
-      <c r="D104" s="123"/>
-      <c r="E104" s="126"/>
-      <c r="F104" s="114"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
-      <c r="J104" s="121"/>
+      <c r="C104" s="36">
+        <v>43356.162499999999</v>
+      </c>
+      <c r="D104" s="123">
+        <v>0.09</v>
+      </c>
+      <c r="E104" s="126">
+        <v>52.8</v>
+      </c>
+      <c r="F104" s="114">
+        <v>249</v>
+      </c>
+      <c r="G104" s="13">
+        <v>18.7</v>
+      </c>
+      <c r="H104" s="13">
+        <v>-1.8</v>
+      </c>
+      <c r="I104" s="13">
+        <f t="shared" si="100"/>
+        <v>4.5616459312978863</v>
+      </c>
+      <c r="J104" s="121" t="s">
+        <v>435</v>
+      </c>
       <c r="K104" s="121"/>
       <c r="L104" s="121"/>
-      <c r="M104" s="13"/>
-      <c r="N104" s="143"/>
+      <c r="M104" s="13">
+        <v>25</v>
+      </c>
+      <c r="N104" s="143">
+        <v>0.6</v>
+      </c>
+      <c r="O104" s="5">
+        <v>0</v>
+      </c>
+      <c r="P104" s="5">
+        <v>1</v>
+      </c>
       <c r="Q104" s="22"/>
-      <c r="R104" s="6"/>
-      <c r="S104" s="62"/>
-      <c r="T104" s="6"/>
-      <c r="U104" s="114"/>
-      <c r="V104" s="114"/>
-      <c r="W104" s="26"/>
-      <c r="X104" s="26"/>
-      <c r="Y104" s="26"/>
+      <c r="R104" s="6">
+        <v>43296</v>
+      </c>
+      <c r="S104" s="256">
+        <v>0.6</v>
+      </c>
+      <c r="T104" s="256">
+        <f t="shared" si="101"/>
+        <v>2.3541715985387959</v>
+      </c>
+      <c r="U104" s="114">
+        <f t="shared" si="102"/>
+        <v>-23.412729103001883</v>
+      </c>
+      <c r="V104" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W104" s="26">
+        <f t="shared" si="103"/>
+        <v>482.34891065882954</v>
+      </c>
+      <c r="X104" s="147">
+        <f t="shared" si="104"/>
+        <v>0.25178305866725093</v>
+      </c>
+      <c r="Y104" s="147">
+        <f t="shared" si="105"/>
+        <v>0.39716730954546492</v>
+      </c>
     </row>
     <row r="105" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="22"/>
-      <c r="C105" s="36"/>
-      <c r="D105" s="123"/>
-      <c r="E105" s="126"/>
-      <c r="F105" s="114"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
-      <c r="J105" s="121"/>
+      <c r="C105" s="36">
+        <v>43366.149305555555</v>
+      </c>
+      <c r="D105" s="123">
+        <v>0.1</v>
+      </c>
+      <c r="E105" s="126">
+        <v>314.60000000000002</v>
+      </c>
+      <c r="F105" s="114">
+        <v>256</v>
+      </c>
+      <c r="G105" s="13">
+        <v>17</v>
+      </c>
+      <c r="H105" s="13">
+        <v>-1.5</v>
+      </c>
+      <c r="I105" s="13">
+        <f t="shared" si="100"/>
+        <v>4.6546031629460867</v>
+      </c>
+      <c r="J105" s="120" t="s">
+        <v>435</v>
+      </c>
       <c r="K105" s="121"/>
       <c r="L105" s="121"/>
-      <c r="M105" s="13"/>
-      <c r="N105" s="143"/>
+      <c r="M105" s="13">
+        <v>26</v>
+      </c>
+      <c r="N105" s="143">
+        <v>1</v>
+      </c>
+      <c r="O105" s="5">
+        <v>0</v>
+      </c>
+      <c r="P105" s="5">
+        <v>1</v>
+      </c>
       <c r="Q105" s="22"/>
-      <c r="R105" s="6"/>
-      <c r="S105" s="62"/>
-      <c r="T105" s="6"/>
-      <c r="U105" s="114"/>
-      <c r="V105" s="114"/>
-      <c r="W105" s="26"/>
-      <c r="X105" s="26"/>
-      <c r="Y105" s="26"/>
+      <c r="R105" s="6">
+        <v>43382</v>
+      </c>
+      <c r="S105" s="256">
+        <v>0.6</v>
+      </c>
+      <c r="T105" s="256">
+        <f t="shared" si="101"/>
+        <v>2.2705060788377418</v>
+      </c>
+      <c r="U105" s="114">
+        <f t="shared" si="102"/>
+        <v>-24.392082987923679</v>
+      </c>
+      <c r="V105" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W105" s="26">
+        <f t="shared" ref="W105" si="106">668.5921*MOD((C105-Z$1),686.9726)/686.9726</f>
+        <v>492.06851126397879</v>
+      </c>
+      <c r="X105" s="147">
+        <f t="shared" ref="X105" si="107">(S105/(G105/2))*T105/(IF(ISBLANK(N105),0.5,N105))</f>
+        <v>0.16027101732972296</v>
+      </c>
+      <c r="Y105" s="147">
+        <f t="shared" ref="Y105" si="108">0.1/X105</f>
+        <v>0.62394312874592683</v>
+      </c>
     </row>
     <row r="106" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="22"/>
-      <c r="C106" s="36"/>
-      <c r="D106" s="123"/>
-      <c r="E106" s="126"/>
-      <c r="F106" s="114"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13"/>
-      <c r="J106" s="121"/>
+      <c r="C106" s="36">
+        <v>43390.087500000001</v>
+      </c>
+      <c r="D106" s="123">
+        <v>0.13</v>
+      </c>
+      <c r="E106" s="126">
+        <v>64.7</v>
+      </c>
+      <c r="F106" s="114">
+        <v>271</v>
+      </c>
+      <c r="G106" s="13">
+        <v>13.6</v>
+      </c>
+      <c r="H106" s="13">
+        <v>-0.9</v>
+      </c>
+      <c r="I106" s="13">
+        <f t="shared" ref="I106" si="109">-LOG((1/(G106^2))*(2.511^(-H106)))/LOG(2.511)</f>
+        <v>4.7698673383070345</v>
+      </c>
+      <c r="J106" s="120" t="s">
+        <v>435</v>
+      </c>
       <c r="K106" s="121"/>
       <c r="L106" s="121"/>
-      <c r="M106" s="13"/>
-      <c r="N106" s="143"/>
+      <c r="M106" s="13">
+        <v>30</v>
+      </c>
+      <c r="N106" s="143">
+        <v>1</v>
+      </c>
+      <c r="O106" s="5">
+        <v>0</v>
+      </c>
+      <c r="P106" s="5">
+        <v>1</v>
+      </c>
       <c r="Q106" s="22"/>
-      <c r="R106" s="6"/>
-      <c r="S106" s="62"/>
-      <c r="T106" s="6"/>
-      <c r="U106" s="114"/>
-      <c r="V106" s="114"/>
-      <c r="W106" s="26"/>
-      <c r="X106" s="26"/>
-      <c r="Y106" s="26"/>
+      <c r="R106" s="6">
+        <v>43392</v>
+      </c>
+      <c r="S106" s="256">
+        <v>0.6</v>
+      </c>
+      <c r="T106" s="256">
+        <f t="shared" ref="T106" si="110">1/SIN(RADIANS(M106+244/(165+47*M106^1.1)))</f>
+        <v>1.9931538464145713</v>
+      </c>
+      <c r="U106" s="114">
+        <f t="shared" ref="U106" si="111">DEGREES(ASIN(SIN(RADIANS(F106))*SIN(RADIANS(25.19))))</f>
+        <v>-25.185895585504227</v>
+      </c>
+      <c r="V106" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W106" s="26">
+        <f t="shared" ref="W106" si="112">668.5921*MOD((C106-Z$1),686.9726)/686.9726</f>
+        <v>515.36622021746689</v>
+      </c>
+      <c r="X106" s="147">
+        <f t="shared" ref="X106" si="113">(S106/(G106/2))*T106/(IF(ISBLANK(N106),0.5,N106))</f>
+        <v>0.17586651586010923</v>
+      </c>
+      <c r="Y106" s="147">
+        <f t="shared" ref="Y106" si="114">0.1/X106</f>
+        <v>0.5686130728804778</v>
+      </c>
     </row>
     <row r="107" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B107" s="22"/>
-      <c r="C107" s="36"/>
-      <c r="D107" s="123"/>
-      <c r="E107" s="126"/>
-      <c r="F107" s="114"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="121"/>
+      <c r="C107" s="36">
+        <v>43395.082638888889</v>
+      </c>
+      <c r="D107" s="123">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E107" s="126">
+        <v>15</v>
+      </c>
+      <c r="F107" s="114">
+        <v>274</v>
+      </c>
+      <c r="G107" s="13">
+        <v>13</v>
+      </c>
+      <c r="H107" s="13">
+        <v>-0.8</v>
+      </c>
+      <c r="I107" s="13">
+        <f t="shared" ref="I107" si="115">-LOG((1/(G107^2))*(2.511^(-H107)))/LOG(2.511)</f>
+        <v>4.7718519967256228</v>
+      </c>
+      <c r="J107" s="120" t="s">
+        <v>435</v>
+      </c>
       <c r="K107" s="121"/>
       <c r="L107" s="121"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="143"/>
+      <c r="M107" s="13">
+        <v>31</v>
+      </c>
+      <c r="N107" s="143">
+        <v>0.8</v>
+      </c>
+      <c r="O107" s="5">
+        <v>0</v>
+      </c>
+      <c r="P107" s="5">
+        <v>1</v>
+      </c>
       <c r="Q107" s="22"/>
-      <c r="R107" s="6"/>
-      <c r="S107" s="62"/>
-      <c r="T107" s="6"/>
-      <c r="U107" s="114"/>
-      <c r="V107" s="114"/>
-      <c r="W107" s="26"/>
-      <c r="X107" s="26"/>
-      <c r="Y107" s="26"/>
+      <c r="R107" s="6">
+        <v>43398</v>
+      </c>
+      <c r="S107" s="256">
+        <v>0.6</v>
+      </c>
+      <c r="T107" s="256">
+        <f t="shared" ref="T107" si="116">1/SIN(RADIANS(M107+244/(165+47*M107^1.1)))</f>
+        <v>1.9354257648171831</v>
+      </c>
+      <c r="U107" s="114">
+        <f t="shared" ref="U107" si="117">DEGREES(ASIN(SIN(RADIANS(F107))*SIN(RADIANS(25.19))))</f>
+        <v>-25.124370928862934</v>
+      </c>
+      <c r="V107" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W107" s="26">
+        <f t="shared" ref="W107" si="118">668.5921*MOD((C107-Z$1),686.9726)/686.9726</f>
+        <v>520.22771018011315</v>
+      </c>
+      <c r="X107" s="147">
+        <f t="shared" ref="X107" si="119">(S107/(G107/2))*T107/(IF(ISBLANK(N107),0.5,N107))</f>
+        <v>0.22331835747890572</v>
+      </c>
+      <c r="Y107" s="147">
+        <f t="shared" ref="Y107" si="120">0.1/X107</f>
+        <v>0.4477912211469039</v>
+      </c>
     </row>
     <row r="108" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B108" s="22"/>
-      <c r="C108" s="36"/>
-      <c r="D108" s="123"/>
-      <c r="E108" s="126"/>
-      <c r="F108" s="114"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
-      <c r="J108" s="121"/>
+      <c r="C108" s="36">
+        <v>43419.087569444448</v>
+      </c>
+      <c r="D108" s="123">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E108" s="126">
+        <v>146.19999999999999</v>
+      </c>
+      <c r="F108" s="114">
+        <v>289</v>
+      </c>
+      <c r="G108" s="13">
+        <v>10.5</v>
+      </c>
+      <c r="H108" s="13">
+        <v>-0.3</v>
+      </c>
+      <c r="I108" s="13">
+        <f t="shared" ref="I108:I109" si="121">-LOG((1/(G108^2))*(2.511^(-H108)))/LOG(2.511)</f>
+        <v>4.8079039371926529</v>
+      </c>
+      <c r="J108" s="120" t="s">
+        <v>435</v>
+      </c>
       <c r="K108" s="121"/>
       <c r="L108" s="121"/>
-      <c r="M108" s="13"/>
-      <c r="N108" s="143"/>
+      <c r="M108" s="13">
+        <v>36</v>
+      </c>
+      <c r="N108" s="143">
+        <v>0.8</v>
+      </c>
+      <c r="O108" s="5">
+        <v>0</v>
+      </c>
+      <c r="P108" s="5">
+        <v>1</v>
+      </c>
       <c r="Q108" s="22"/>
-      <c r="R108" s="6"/>
-      <c r="S108" s="62"/>
-      <c r="T108" s="6"/>
-      <c r="U108" s="114"/>
-      <c r="V108" s="114"/>
-      <c r="W108" s="26"/>
-      <c r="X108" s="26"/>
-      <c r="Y108" s="26"/>
+      <c r="R108" s="6">
+        <v>43398</v>
+      </c>
+      <c r="S108" s="256">
+        <v>0.6</v>
+      </c>
+      <c r="T108" s="256">
+        <f t="shared" ref="T108:T109" si="122">1/SIN(RADIANS(M108+244/(165+47*M108^1.1)))</f>
+        <v>1.69745673705643</v>
+      </c>
+      <c r="U108" s="114">
+        <f t="shared" ref="U108" si="123">DEGREES(ASIN(SIN(RADIANS(F108))*SIN(RADIANS(25.19))))</f>
+        <v>-23.730359471973948</v>
+      </c>
+      <c r="V108" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W108" s="26">
+        <f t="shared" ref="W108" si="124">668.5921*MOD((C108-Z$1),686.9726)/686.9726</f>
+        <v>543.59036966681617</v>
+      </c>
+      <c r="X108" s="147">
+        <f t="shared" ref="X108" si="125">(S108/(G108/2))*T108/(IF(ISBLANK(N108),0.5,N108))</f>
+        <v>0.24249381957948998</v>
+      </c>
+      <c r="Y108" s="147">
+        <f t="shared" ref="Y108" si="126">0.1/X108</f>
+        <v>0.41238164409060246</v>
+      </c>
     </row>
     <row r="109" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B109" s="22"/>
-      <c r="C109" s="36"/>
-      <c r="D109" s="123"/>
-      <c r="E109" s="126"/>
-      <c r="F109" s="114"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="13"/>
-      <c r="J109" s="121"/>
+      <c r="C109" s="36">
+        <v>43424.127083333333</v>
+      </c>
+      <c r="D109" s="123">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E109" s="126">
+        <v>108.7</v>
+      </c>
+      <c r="F109" s="114">
+        <v>292</v>
+      </c>
+      <c r="G109" s="13">
+        <v>10.1</v>
+      </c>
+      <c r="H109" s="13">
+        <v>-0.2</v>
+      </c>
+      <c r="I109" s="13">
+        <f t="shared" si="121"/>
+        <v>4.823531977884306</v>
+      </c>
+      <c r="J109" s="121" t="s">
+        <v>435</v>
+      </c>
       <c r="K109" s="121"/>
       <c r="L109" s="121"/>
-      <c r="M109" s="13"/>
-      <c r="N109" s="143"/>
+      <c r="M109" s="13">
+        <v>33</v>
+      </c>
+      <c r="N109" s="143">
+        <v>0.8</v>
+      </c>
+      <c r="O109" s="5">
+        <v>0</v>
+      </c>
+      <c r="P109" s="5">
+        <v>1</v>
+      </c>
       <c r="Q109" s="22"/>
-      <c r="R109" s="6"/>
-      <c r="S109" s="62"/>
-      <c r="T109" s="6"/>
-      <c r="U109" s="114"/>
-      <c r="V109" s="114"/>
-      <c r="W109" s="26"/>
-      <c r="X109" s="26"/>
-      <c r="Y109" s="26"/>
+      <c r="R109" s="6">
+        <v>43424</v>
+      </c>
+      <c r="S109" s="256">
+        <v>0.6</v>
+      </c>
+      <c r="T109" s="256">
+        <f t="shared" si="122"/>
+        <v>1.8310048580706904</v>
+      </c>
+      <c r="U109" s="114">
+        <f t="shared" ref="U109" si="127">DEGREES(ASIN(SIN(RADIANS(F109))*SIN(RADIANS(25.19))))</f>
+        <v>-23.242853710488841</v>
+      </c>
+      <c r="V109" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W109" s="26">
+        <f t="shared" ref="W109" si="128">668.5921*MOD((C109-Z$1),686.9726)/686.9726</f>
+        <v>548.49504734093148</v>
+      </c>
+      <c r="X109" s="147">
+        <f t="shared" ref="X109" si="129">(S109/(G109/2))*T109/(IF(ISBLANK(N109),0.5,N109))</f>
+        <v>0.27193141456495401</v>
+      </c>
+      <c r="Y109" s="147">
+        <f t="shared" ref="Y109" si="130">0.1/X109</f>
+        <v>0.36773978526895734</v>
+      </c>
     </row>
     <row r="110" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B110" s="22"/>
-      <c r="C110" s="36"/>
-      <c r="D110" s="123"/>
-      <c r="E110" s="126"/>
-      <c r="F110" s="114"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="13"/>
-      <c r="J110" s="121"/>
+      <c r="C110" s="36">
+        <v>43425.03402777778</v>
+      </c>
+      <c r="D110" s="123">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E110" s="126">
+        <v>66.3</v>
+      </c>
+      <c r="F110" s="114">
+        <v>292</v>
+      </c>
+      <c r="G110" s="13">
+        <v>10</v>
+      </c>
+      <c r="H110" s="13">
+        <v>-0.2</v>
+      </c>
+      <c r="I110" s="13">
+        <f t="shared" ref="I110" si="131">-LOG((1/(G110^2))*(2.511^(-H110)))/LOG(2.511)</f>
+        <v>4.801916825650979</v>
+      </c>
+      <c r="J110" s="121" t="s">
+        <v>435</v>
+      </c>
       <c r="K110" s="121"/>
       <c r="L110" s="121"/>
-      <c r="M110" s="13"/>
-      <c r="N110" s="143"/>
+      <c r="M110" s="13">
+        <v>38</v>
+      </c>
+      <c r="N110" s="143">
+        <v>1</v>
+      </c>
+      <c r="O110" s="5">
+        <v>0</v>
+      </c>
+      <c r="P110" s="5">
+        <v>1</v>
+      </c>
       <c r="Q110" s="22"/>
-      <c r="R110" s="6"/>
-      <c r="S110" s="62"/>
-      <c r="T110" s="6"/>
-      <c r="U110" s="114"/>
-      <c r="V110" s="114"/>
-      <c r="W110" s="26"/>
-      <c r="X110" s="26"/>
-      <c r="Y110" s="26"/>
+      <c r="R110" s="6">
+        <v>43425</v>
+      </c>
+      <c r="S110" s="256">
+        <v>0.6</v>
+      </c>
+      <c r="T110" s="256">
+        <f t="shared" ref="T110" si="132">1/SIN(RADIANS(M110+244/(165+47*M110^1.1)))</f>
+        <v>1.6210400213471086</v>
+      </c>
+      <c r="U110" s="114">
+        <f t="shared" ref="U110" si="133">DEGREES(ASIN(SIN(RADIANS(F110))*SIN(RADIANS(25.19))))</f>
+        <v>-23.242853710488841</v>
+      </c>
+      <c r="V110" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W110" s="26">
+        <f t="shared" ref="W110" si="134">668.5921*MOD((C110-Z$1),686.9726)/686.9726</f>
+        <v>549.37772576318002</v>
+      </c>
+      <c r="X110" s="147">
+        <f t="shared" ref="X110" si="135">(S110/(G110/2))*T110/(IF(ISBLANK(N110),0.5,N110))</f>
+        <v>0.19452480256165303</v>
+      </c>
+      <c r="Y110" s="147">
+        <f t="shared" ref="Y110" si="136">0.1/X110</f>
+        <v>0.51407326306528878</v>
+      </c>
     </row>
     <row r="111" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B111" s="22"/>
-      <c r="C111" s="36"/>
-      <c r="D111" s="123"/>
-      <c r="E111" s="126"/>
-      <c r="F111" s="114"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="13"/>
-      <c r="J111" s="121"/>
+      <c r="C111" s="36">
+        <v>43451.015694444446</v>
+      </c>
+      <c r="D111" s="123">
+        <v>0.13</v>
+      </c>
+      <c r="E111" s="126">
+        <v>164.4</v>
+      </c>
+      <c r="F111" s="114">
+        <v>308</v>
+      </c>
+      <c r="G111" s="13">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H111" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="I111" s="13">
+        <f t="shared" ref="I111:I112" si="137">-LOG((1/(G111^2))*(2.511^(-H111)))/LOG(2.511)</f>
+        <v>4.7708208837510524</v>
+      </c>
+      <c r="J111" s="121" t="s">
+        <v>435</v>
+      </c>
       <c r="K111" s="121"/>
       <c r="L111" s="121"/>
-      <c r="M111" s="13"/>
-      <c r="N111" s="143"/>
+      <c r="M111" s="13">
+        <v>45</v>
+      </c>
+      <c r="N111" s="143">
+        <v>0.8</v>
+      </c>
+      <c r="O111" s="5">
+        <v>0</v>
+      </c>
+      <c r="P111" s="5">
+        <v>1</v>
+      </c>
       <c r="Q111" s="22"/>
-      <c r="R111" s="6"/>
-      <c r="S111" s="62"/>
-      <c r="T111" s="6"/>
-      <c r="U111" s="114"/>
-      <c r="V111" s="114"/>
-      <c r="W111" s="26"/>
-      <c r="X111" s="26"/>
-      <c r="Y111" s="26"/>
+      <c r="R111" s="6">
+        <v>43452</v>
+      </c>
+      <c r="S111" s="256">
+        <v>0.6</v>
+      </c>
+      <c r="T111" s="256">
+        <f t="shared" ref="T111:T112" si="138">1/SIN(RADIANS(M111+244/(165+47*M111^1.1)))</f>
+        <v>1.4123696442557017</v>
+      </c>
+      <c r="U111" s="114">
+        <f t="shared" ref="U111:U112" si="139">DEGREES(ASIN(SIN(RADIANS(F111))*SIN(RADIANS(25.19))))</f>
+        <v>-19.596511487075084</v>
+      </c>
+      <c r="V111" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W111" s="26">
+        <f t="shared" ref="W111" si="140">668.5921*MOD((C111-Z$1),686.9726)/686.9726</f>
+        <v>574.66423220924003</v>
+      </c>
+      <c r="X111" s="147">
+        <f t="shared" ref="X111" si="141">(S111/(G111/2))*T111/(IF(ISBLANK(N111),0.5,N111))</f>
+        <v>0.25836030077848199</v>
+      </c>
+      <c r="Y111" s="147">
+        <f t="shared" ref="Y111" si="142">0.1/X111</f>
+        <v>0.3870563693364793</v>
+      </c>
     </row>
     <row r="112" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B112" s="22"/>
-      <c r="C112" s="36"/>
-      <c r="D112" s="123"/>
-      <c r="E112" s="126"/>
-      <c r="F112" s="114"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="13"/>
-      <c r="J112" s="121"/>
+      <c r="C112" s="36">
+        <v>43469.081944444442</v>
+      </c>
+      <c r="D112" s="123">
+        <v>0.13</v>
+      </c>
+      <c r="E112" s="126">
+        <v>9.9</v>
+      </c>
+      <c r="F112" s="114">
+        <v>318</v>
+      </c>
+      <c r="G112" s="13">
+        <v>7.3</v>
+      </c>
+      <c r="H112" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I112" s="13">
+        <f t="shared" si="137"/>
+        <v>4.8182691400056354</v>
+      </c>
+      <c r="J112" s="120" t="s">
+        <v>435</v>
+      </c>
       <c r="K112" s="121"/>
       <c r="L112" s="121"/>
-      <c r="M112" s="13"/>
-      <c r="N112" s="143"/>
+      <c r="M112" s="13">
+        <v>44</v>
+      </c>
+      <c r="N112" s="143">
+        <v>0.8</v>
+      </c>
+      <c r="O112" s="5">
+        <v>0</v>
+      </c>
+      <c r="P112" s="5">
+        <v>1</v>
+      </c>
       <c r="Q112" s="22"/>
-      <c r="R112" s="6"/>
-      <c r="S112" s="62"/>
-      <c r="T112" s="6"/>
-      <c r="U112" s="114"/>
-      <c r="V112" s="114"/>
-      <c r="W112" s="26"/>
-      <c r="X112" s="26"/>
-      <c r="Y112" s="26"/>
+      <c r="R112" s="6">
+        <v>43475</v>
+      </c>
+      <c r="S112" s="256">
+        <v>0.6</v>
+      </c>
+      <c r="T112" s="256">
+        <f t="shared" si="138"/>
+        <v>1.4375669048961375</v>
+      </c>
+      <c r="U112" s="114">
+        <f t="shared" si="139"/>
+        <v>-16.54667169202936</v>
+      </c>
+      <c r="V112" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W112" s="26">
+        <f t="shared" ref="W112" si="143">668.5921*MOD((C112-Z$1),686.9726)/686.9726</f>
+        <v>592.24710527669924</v>
+      </c>
+      <c r="X112" s="147">
+        <f t="shared" ref="X112" si="144">(S112/(G112/2))*T112/(IF(ISBLANK(N112),0.5,N112))</f>
+        <v>0.29539045991016522</v>
+      </c>
+      <c r="Y112" s="147">
+        <f t="shared" ref="Y112" si="145">0.1/X112</f>
+        <v>0.33853496836157887</v>
+      </c>
     </row>
     <row r="113" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B113" s="22"/>
-      <c r="C113" s="36"/>
-      <c r="D113" s="123"/>
-      <c r="E113" s="126"/>
-      <c r="F113" s="114"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="13"/>
-      <c r="J113" s="121"/>
+      <c r="C113" s="36">
+        <v>43479.090277777781</v>
+      </c>
+      <c r="D113" s="123">
+        <v>0.12</v>
+      </c>
+      <c r="E113" s="126">
+        <v>274.10000000000002</v>
+      </c>
+      <c r="F113" s="114">
+        <v>324</v>
+      </c>
+      <c r="G113" s="13">
+        <v>6.8</v>
+      </c>
+      <c r="H113" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="I113" s="13">
+        <f t="shared" ref="I113" si="146">-LOG((1/(G113^2))*(2.511^(-H113)))/LOG(2.511)</f>
+        <v>4.7641403379697254</v>
+      </c>
+      <c r="J113" s="120" t="s">
+        <v>435</v>
+      </c>
       <c r="K113" s="121"/>
       <c r="L113" s="121"/>
-      <c r="M113" s="13"/>
-      <c r="N113" s="143"/>
+      <c r="M113" s="13">
+        <v>43</v>
+      </c>
+      <c r="N113" s="143">
+        <v>0.8</v>
+      </c>
+      <c r="O113" s="5">
+        <v>0</v>
+      </c>
+      <c r="P113" s="5">
+        <v>1</v>
+      </c>
       <c r="Q113" s="22"/>
-      <c r="R113" s="6"/>
-      <c r="S113" s="62"/>
-      <c r="T113" s="6"/>
-      <c r="U113" s="114"/>
-      <c r="V113" s="114"/>
-      <c r="W113" s="26"/>
-      <c r="X113" s="26"/>
-      <c r="Y113" s="26"/>
+      <c r="R113" s="6">
+        <v>43475</v>
+      </c>
+      <c r="S113" s="256">
+        <v>0.6</v>
+      </c>
+      <c r="T113" s="256">
+        <f t="shared" ref="T113" si="147">1/SIN(RADIANS(M113+244/(165+47*M113^1.1)))</f>
+        <v>1.4641297922242409</v>
+      </c>
+      <c r="U113" s="114">
+        <f t="shared" ref="U113" si="148">DEGREES(ASIN(SIN(RADIANS(F113))*SIN(RADIANS(25.19))))</f>
+        <v>-14.487806490242948</v>
+      </c>
+      <c r="V113" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W113" s="26">
+        <f t="shared" ref="W113" si="149">668.5921*MOD((C113-Z$1),686.9726)/686.9726</f>
+        <v>601.98765766676092</v>
+      </c>
+      <c r="X113" s="147">
+        <f t="shared" ref="X113" si="150">(S113/(G113/2))*T113/(IF(ISBLANK(N113),0.5,N113))</f>
+        <v>0.32296980710828843</v>
+      </c>
+      <c r="Y113" s="147">
+        <f t="shared" ref="Y113" si="151">0.1/X113</f>
+        <v>0.30962646600111149</v>
+      </c>
     </row>
     <row r="114" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="22"/>
@@ -39470,16 +43902,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X144"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D123" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D57" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A105" sqref="A105"/>
-      <selection pane="bottomRight" activeCell="U111" sqref="U111"/>
+      <selection pane="bottomRight" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -39576,7 +44008,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="156" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="156" customFormat="1" ht="50" x14ac:dyDescent="0.3">
       <c r="B2" s="165"/>
       <c r="C2" s="258">
         <v>28080</v>
@@ -39624,7 +44056,7 @@
       <c r="W2" s="167"/>
       <c r="X2" s="167"/>
     </row>
-    <row r="3" spans="1:24" s="156" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="156" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="B3" s="165"/>
       <c r="C3" s="258">
         <v>28082</v>
@@ -39672,7 +44104,7 @@
       <c r="W3" s="167"/>
       <c r="X3" s="167"/>
     </row>
-    <row r="4" spans="1:24" s="156" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" s="156" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B4" s="165"/>
       <c r="C4" s="106">
         <v>28109.85185185185</v>
@@ -39718,7 +44150,7 @@
       <c r="W4" s="167"/>
       <c r="X4" s="167"/>
     </row>
-    <row r="5" spans="1:24" s="156" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" s="156" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="B5" s="165"/>
       <c r="C5" s="106">
         <v>28117.892361111109</v>
@@ -39764,7 +44196,7 @@
       <c r="W5" s="167"/>
       <c r="X5" s="167"/>
     </row>
-    <row r="6" spans="1:24" s="156" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" s="156" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="B6" s="165"/>
       <c r="C6" s="106">
         <v>28124.899305555555</v>
@@ -39810,7 +44242,7 @@
       <c r="W6" s="167"/>
       <c r="X6" s="167"/>
     </row>
-    <row r="7" spans="1:24" s="156" customFormat="1" ht="100" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" s="156" customFormat="1" ht="100" x14ac:dyDescent="0.3">
       <c r="B7" s="165"/>
       <c r="C7" s="106">
         <v>28137.804861111112</v>
@@ -39856,7 +44288,7 @@
       <c r="W7" s="167"/>
       <c r="X7" s="167"/>
     </row>
-    <row r="8" spans="1:24" s="156" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" s="156" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="B8" s="165"/>
       <c r="C8" s="106">
         <v>28137.826388888891</v>
@@ -39902,7 +44334,7 @@
       <c r="W8" s="167"/>
       <c r="X8" s="167"/>
     </row>
-    <row r="9" spans="1:24" s="156" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" s="156" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="B9" s="165"/>
       <c r="C9" s="258">
         <v>28146.864583333332</v>
@@ -39944,7 +44376,7 @@
       <c r="W9" s="167"/>
       <c r="X9" s="167"/>
     </row>
-    <row r="10" spans="1:24" s="156" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" s="156" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B10" s="165"/>
       <c r="C10" s="257">
         <v>28178.806250000001</v>
@@ -39992,7 +44424,7 @@
       <c r="W10" s="167"/>
       <c r="X10" s="167"/>
     </row>
-    <row r="11" spans="1:24" s="156" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" s="156" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="B11" s="165"/>
       <c r="C11" s="258">
         <v>28185.836805555555</v>
@@ -40040,7 +44472,7 @@
       <c r="W11" s="167"/>
       <c r="X11" s="167"/>
     </row>
-    <row r="12" spans="1:24" s="156" customFormat="1" ht="87.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" s="156" customFormat="1" ht="87.5" x14ac:dyDescent="0.3">
       <c r="B12" s="165"/>
       <c r="C12" s="106">
         <v>28194.858333333334</v>
@@ -40086,7 +44518,7 @@
       <c r="W12" s="167"/>
       <c r="X12" s="167"/>
     </row>
-    <row r="13" spans="1:24" s="188" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" s="188" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="189"/>
       <c r="C13" s="190">
         <v>28209.844444444443</v>
@@ -40132,7 +44564,7 @@
       <c r="W13" s="192"/>
       <c r="X13" s="192"/>
     </row>
-    <row r="14" spans="1:24" s="156" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" s="156" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="B14" s="165"/>
       <c r="C14" s="106">
         <v>28209.845833333333</v>
@@ -40178,7 +44610,7 @@
       <c r="W14" s="167"/>
       <c r="X14" s="167"/>
     </row>
-    <row r="15" spans="1:24" s="156" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" s="156" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B15" s="165"/>
       <c r="C15" s="106">
         <v>28209.847222222223</v>
@@ -40224,7 +44656,7 @@
       <c r="W15" s="167"/>
       <c r="X15" s="167"/>
     </row>
-    <row r="16" spans="1:24" s="156" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" s="156" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B16" s="165"/>
       <c r="C16" s="106">
         <v>28412</v>
@@ -40266,7 +44698,7 @@
       <c r="W16" s="167"/>
       <c r="X16" s="167"/>
     </row>
-    <row r="17" spans="2:24" s="156" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:24" s="156" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="165"/>
       <c r="C17" s="106">
         <v>28455</v>
@@ -40308,7 +44740,7 @@
       <c r="W17" s="167"/>
       <c r="X17" s="167"/>
     </row>
-    <row r="18" spans="2:24" s="156" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:24" s="156" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" s="165"/>
       <c r="C18" s="106">
         <v>28490</v>
@@ -40350,7 +44782,7 @@
       <c r="W18" s="167"/>
       <c r="X18" s="167"/>
     </row>
-    <row r="19" spans="2:24" s="156" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:24" s="156" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B19" s="165"/>
       <c r="C19" s="106">
         <v>28512</v>
@@ -40392,7 +44824,7 @@
       <c r="W19" s="167"/>
       <c r="X19" s="167"/>
     </row>
-    <row r="20" spans="2:24" s="156" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:24" s="156" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
       <c r="B20" s="165"/>
       <c r="C20" s="106">
         <v>30137</v>
@@ -40432,7 +44864,7 @@
       <c r="W20" s="167"/>
       <c r="X20" s="167"/>
     </row>
-    <row r="21" spans="2:24" s="156" customFormat="1" ht="212.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:24" s="156" customFormat="1" ht="212.5" x14ac:dyDescent="0.3">
       <c r="B21" s="165"/>
       <c r="C21" s="258">
         <v>30538</v>
@@ -40474,7 +44906,7 @@
       <c r="W21" s="167"/>
       <c r="X21" s="167"/>
     </row>
-    <row r="22" spans="2:24" s="156" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:24" s="156" customFormat="1" ht="50" x14ac:dyDescent="0.3">
       <c r="B22" s="165"/>
       <c r="C22" s="106">
         <v>31767</v>
@@ -40514,7 +44946,7 @@
       <c r="W22" s="167"/>
       <c r="X22" s="167"/>
     </row>
-    <row r="23" spans="2:24" s="156" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:24" s="156" customFormat="1" ht="50" x14ac:dyDescent="0.3">
       <c r="B23" s="165"/>
       <c r="C23" s="106">
         <v>33251</v>
@@ -40554,7 +44986,7 @@
       <c r="W23" s="167"/>
       <c r="X23" s="167"/>
     </row>
-    <row r="24" spans="2:24" s="156" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:24" s="156" customFormat="1" ht="50" x14ac:dyDescent="0.3">
       <c r="B24" s="165"/>
       <c r="C24" s="106">
         <v>33251</v>
@@ -40594,7 +45026,7 @@
       <c r="W24" s="167"/>
       <c r="X24" s="167"/>
     </row>
-    <row r="25" spans="2:24" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" ht="25" x14ac:dyDescent="0.25">
       <c r="B25" s="165"/>
       <c r="C25" s="106">
         <v>33275</v>
@@ -40634,7 +45066,7 @@
       <c r="W25" s="167"/>
       <c r="X25" s="167"/>
     </row>
-    <row r="26" spans="2:24" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" ht="25" x14ac:dyDescent="0.25">
       <c r="C26" s="106">
         <v>33357</v>
       </c>
@@ -40671,7 +45103,7 @@
         <v>39471</v>
       </c>
     </row>
-    <row r="27" spans="2:24" ht="62.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" ht="62.5" x14ac:dyDescent="0.25">
       <c r="C27" s="106">
         <v>34510</v>
       </c>
@@ -40708,7 +45140,7 @@
         <v>39476</v>
       </c>
     </row>
-    <row r="28" spans="2:24" ht="50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" ht="50" x14ac:dyDescent="0.25">
       <c r="C28" s="106">
         <v>34512</v>
       </c>
@@ -40745,7 +45177,7 @@
         <v>39476</v>
       </c>
     </row>
-    <row r="29" spans="2:24" s="156" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:24" s="156" customFormat="1" ht="50" x14ac:dyDescent="0.3">
       <c r="B29" s="105"/>
       <c r="C29" s="257">
         <v>34525</v>
@@ -40787,7 +45219,7 @@
       <c r="W29" s="109"/>
       <c r="X29" s="109"/>
     </row>
-    <row r="30" spans="2:24" s="156" customFormat="1" ht="112.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:24" s="156" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="B30" s="165"/>
       <c r="C30" s="106">
         <v>34526</v>
@@ -40827,7 +45259,7 @@
       <c r="W30" s="167"/>
       <c r="X30" s="167"/>
     </row>
-    <row r="31" spans="2:24" s="156" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:24" s="156" customFormat="1" ht="50" x14ac:dyDescent="0.3">
       <c r="B31" s="165"/>
       <c r="C31" s="106">
         <v>34526</v>
@@ -40867,7 +45299,7 @@
       <c r="W31" s="167"/>
       <c r="X31" s="167"/>
     </row>
-    <row r="32" spans="2:24" s="156" customFormat="1" ht="87.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:24" s="156" customFormat="1" ht="87.5" x14ac:dyDescent="0.3">
       <c r="B32" s="165"/>
       <c r="C32" s="106">
         <v>34529</v>
@@ -40907,7 +45339,7 @@
       <c r="W32" s="167"/>
       <c r="X32" s="167"/>
     </row>
-    <row r="33" spans="2:24" s="156" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:24" s="156" customFormat="1" ht="50" x14ac:dyDescent="0.3">
       <c r="B33" s="165"/>
       <c r="C33" s="106">
         <v>34529</v>
@@ -40943,7 +45375,7 @@
       <c r="W33" s="167"/>
       <c r="X33" s="167"/>
     </row>
-    <row r="34" spans="2:24" s="156" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:24" s="156" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="B34" s="165"/>
       <c r="C34" s="106">
         <v>34531</v>
@@ -40983,7 +45415,7 @@
       <c r="W34" s="167"/>
       <c r="X34" s="167"/>
     </row>
-    <row r="35" spans="2:24" s="156" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:24" s="156" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="B35" s="165"/>
       <c r="C35" s="106">
         <v>34531</v>
@@ -41023,7 +45455,7 @@
       <c r="W35" s="167"/>
       <c r="X35" s="167"/>
     </row>
-    <row r="36" spans="2:24" s="156" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:24" s="156" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="B36" s="165"/>
       <c r="C36" s="106">
         <v>34533</v>
@@ -41063,7 +45495,7 @@
       <c r="W36" s="167"/>
       <c r="X36" s="167"/>
     </row>
-    <row r="37" spans="2:24" s="156" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:24" s="156" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="B37" s="165"/>
       <c r="C37" s="106">
         <v>34533</v>
@@ -41103,7 +45535,7 @@
       <c r="W37" s="167"/>
       <c r="X37" s="167"/>
     </row>
-    <row r="38" spans="2:24" s="156" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:24" s="156" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
       <c r="B38" s="165"/>
       <c r="C38" s="106">
         <v>34535</v>
@@ -41143,7 +45575,7 @@
       <c r="W38" s="167"/>
       <c r="X38" s="167"/>
     </row>
-    <row r="39" spans="2:24" s="156" customFormat="1" ht="112.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:24" s="156" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="B39" s="165"/>
       <c r="C39" s="106">
         <v>34536</v>
@@ -41183,7 +45615,7 @@
       <c r="W39" s="167"/>
       <c r="X39" s="167"/>
     </row>
-    <row r="40" spans="2:24" s="156" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:24" s="156" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
       <c r="B40" s="165"/>
       <c r="C40" s="106">
         <v>34536</v>
@@ -41223,7 +45655,7 @@
       <c r="W40" s="167"/>
       <c r="X40" s="167"/>
     </row>
-    <row r="41" spans="2:24" s="156" customFormat="1" ht="100" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:24" s="156" customFormat="1" ht="100" x14ac:dyDescent="0.3">
       <c r="B41" s="165"/>
       <c r="C41" s="106">
         <v>34543</v>
@@ -41263,7 +45695,7 @@
       <c r="W41" s="167"/>
       <c r="X41" s="167"/>
     </row>
-    <row r="42" spans="2:24" s="156" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:24" s="156" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="B42" s="165"/>
       <c r="C42" s="106">
         <v>34543</v>
@@ -41303,7 +45735,7 @@
       <c r="W42" s="167"/>
       <c r="X42" s="167"/>
     </row>
-    <row r="43" spans="2:24" s="156" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:24" s="156" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
       <c r="B43" s="165"/>
       <c r="C43" s="106">
         <v>34546</v>
@@ -41343,7 +45775,7 @@
       <c r="W43" s="167"/>
       <c r="X43" s="167"/>
     </row>
-    <row r="44" spans="2:24" s="156" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:24" s="156" customFormat="1" ht="50" x14ac:dyDescent="0.3">
       <c r="B44" s="165"/>
       <c r="C44" s="106">
         <v>34546</v>
@@ -41383,7 +45815,7 @@
       <c r="W44" s="167"/>
       <c r="X44" s="167"/>
     </row>
-    <row r="45" spans="2:24" s="156" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:24" s="156" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
       <c r="B45" s="165"/>
       <c r="C45" s="106">
         <v>34573</v>
@@ -41423,7 +45855,7 @@
       <c r="W45" s="167"/>
       <c r="X45" s="167"/>
     </row>
-    <row r="46" spans="2:24" s="156" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:24" s="156" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
       <c r="B46" s="165"/>
       <c r="C46" s="106">
         <v>34840</v>
@@ -41463,7 +45895,7 @@
       <c r="W46" s="167"/>
       <c r="X46" s="167"/>
     </row>
-    <row r="47" spans="2:24" s="156" customFormat="1" ht="100" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:24" s="156" customFormat="1" ht="100" x14ac:dyDescent="0.3">
       <c r="B47" s="165"/>
       <c r="C47" s="106">
         <v>34840</v>
@@ -41503,7 +45935,7 @@
       <c r="W47" s="167"/>
       <c r="X47" s="167"/>
     </row>
-    <row r="48" spans="2:24" s="156" customFormat="1" ht="137.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:24" s="156" customFormat="1" ht="137.5" x14ac:dyDescent="0.3">
       <c r="B48" s="165"/>
       <c r="C48" s="258">
         <v>34898</v>
@@ -41545,7 +45977,7 @@
       <c r="W48" s="167"/>
       <c r="X48" s="167"/>
     </row>
-    <row r="49" spans="2:24" s="156" customFormat="1" ht="112.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:24" s="156" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="B49" s="165"/>
       <c r="C49" s="106">
         <v>34899</v>
@@ -41585,7 +46017,7 @@
       <c r="W49" s="167"/>
       <c r="X49" s="167"/>
     </row>
-    <row r="50" spans="2:24" s="156" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:24" s="156" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
       <c r="B50" s="165"/>
       <c r="C50" s="106">
         <v>35284</v>
@@ -41625,7 +46057,7 @@
       <c r="W50" s="167"/>
       <c r="X50" s="167"/>
     </row>
-    <row r="51" spans="2:24" s="156" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:24" s="156" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
       <c r="B51" s="165"/>
       <c r="C51" s="106">
         <v>36086</v>
@@ -41665,7 +46097,7 @@
       <c r="W51" s="167"/>
       <c r="X51" s="167"/>
     </row>
-    <row r="52" spans="2:24" s="156" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:24" s="156" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
       <c r="B52" s="165"/>
       <c r="C52" s="106">
         <v>36467</v>
@@ -41705,7 +46137,7 @@
       <c r="W52" s="167"/>
       <c r="X52" s="167"/>
     </row>
-    <row r="53" spans="2:24" s="156" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:24" s="156" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
       <c r="B53" s="165"/>
       <c r="C53" s="106">
         <v>36470</v>
@@ -41745,7 +46177,7 @@
       <c r="W53" s="167"/>
       <c r="X53" s="167"/>
     </row>
-    <row r="54" spans="2:24" s="156" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:24" s="156" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="B54" s="165"/>
       <c r="C54" s="106">
         <v>37575</v>
@@ -41785,7 +46217,7 @@
       <c r="W54" s="167"/>
       <c r="X54" s="167"/>
     </row>
-    <row r="55" spans="2:24" s="156" customFormat="1" ht="110.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:24" s="156" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="157"/>
       <c r="C55" s="106">
         <v>38408.25</v>
@@ -41837,7 +46269,7 @@
       <c r="W55" s="161"/>
       <c r="X55" s="162"/>
     </row>
-    <row r="56" spans="2:24" s="194" customFormat="1" ht="100" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:24" s="194" customFormat="1" ht="100" x14ac:dyDescent="0.3">
       <c r="B56" s="157"/>
       <c r="C56" s="106">
         <v>38496.180555555555</v>
@@ -41889,7 +46321,7 @@
       <c r="W56" s="161"/>
       <c r="X56" s="162"/>
     </row>
-    <row r="57" spans="2:24" s="194" customFormat="1" ht="87.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:24" s="194" customFormat="1" ht="87.5" x14ac:dyDescent="0.3">
       <c r="B57" s="157"/>
       <c r="C57" s="257">
         <v>38522.138888888891</v>
@@ -41947,7 +46379,7 @@
       <c r="W57" s="161"/>
       <c r="X57" s="162"/>
     </row>
-    <row r="58" spans="2:24" s="194" customFormat="1" ht="87.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:24" s="194" customFormat="1" ht="87.5" x14ac:dyDescent="0.3">
       <c r="B58" s="157"/>
       <c r="C58" s="106">
         <v>38522.154861111114</v>
@@ -42005,7 +46437,7 @@
       <c r="W58" s="161"/>
       <c r="X58" s="162"/>
     </row>
-    <row r="59" spans="2:24" s="194" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:24" s="194" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B59" s="51"/>
       <c r="C59" s="106">
         <v>38839.193055555559</v>
@@ -42053,7 +46485,7 @@
       <c r="W59" s="42"/>
       <c r="X59" s="42"/>
     </row>
-    <row r="60" spans="2:24" s="194" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:24" s="194" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B60" s="51"/>
       <c r="C60" s="259">
         <v>38848.186111111114</v>
@@ -42105,7 +46537,7 @@
       <c r="W60" s="42"/>
       <c r="X60" s="42"/>
     </row>
-    <row r="61" spans="2:24" s="194" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:24" s="194" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="51"/>
       <c r="C61" s="106">
         <v>38905.157638888886</v>
@@ -42155,7 +46587,7 @@
       <c r="W61" s="42"/>
       <c r="X61" s="42"/>
     </row>
-    <row r="62" spans="2:24" s="194" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:24" s="194" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B62" s="51"/>
       <c r="C62" s="106">
         <v>39249.323611111111</v>
@@ -42207,7 +46639,7 @@
       <c r="W62" s="42"/>
       <c r="X62" s="42"/>
     </row>
-    <row r="63" spans="2:24" s="194" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:24" s="194" customFormat="1" ht="62.5" x14ac:dyDescent="0.25">
       <c r="B63" s="51"/>
       <c r="C63" s="106">
         <v>39249.345138888886</v>
@@ -42259,7 +46691,7 @@
       <c r="W63" s="42"/>
       <c r="X63" s="42"/>
     </row>
-    <row r="64" spans="2:24" s="194" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:24" s="194" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="51"/>
       <c r="C64" s="106">
         <v>39263.190972222219</v>
@@ -42309,7 +46741,7 @@
       <c r="W64" s="42"/>
       <c r="X64" s="42"/>
     </row>
-    <row r="65" spans="1:24" s="194" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" s="194" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="51"/>
       <c r="C65" s="106">
         <v>39263.231944444444</v>
@@ -42359,7 +46791,7 @@
       <c r="W65" s="42"/>
       <c r="X65" s="42"/>
     </row>
-    <row r="66" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B66" s="51"/>
       <c r="C66" s="106">
         <v>39266.18472222222</v>
@@ -42407,7 +46839,7 @@
       <c r="W66" s="42"/>
       <c r="X66" s="42"/>
     </row>
-    <row r="67" spans="1:24" s="194" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" s="194" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="51"/>
       <c r="C67" s="106">
         <v>39266.236805555556</v>
@@ -42455,7 +46887,7 @@
       <c r="W67" s="42"/>
       <c r="X67" s="42"/>
     </row>
-    <row r="68" spans="1:24" s="194" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" s="194" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B68" s="51"/>
       <c r="C68" s="259">
         <v>39672.257638888892</v>
@@ -42505,7 +46937,7 @@
       <c r="W68" s="42"/>
       <c r="X68" s="42"/>
     </row>
-    <row r="69" spans="1:24" s="194" customFormat="1" ht="87.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" s="194" customFormat="1" ht="87.5" x14ac:dyDescent="0.25">
       <c r="B69" s="51"/>
       <c r="C69" s="259">
         <v>39679.227777777778</v>
@@ -42555,7 +46987,7 @@
       <c r="W69" s="42"/>
       <c r="X69" s="42"/>
     </row>
-    <row r="70" spans="1:24" s="194" customFormat="1" ht="87.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" s="194" customFormat="1" ht="87.5" x14ac:dyDescent="0.25">
       <c r="B70" s="51"/>
       <c r="C70" s="259">
         <v>39679.24722222222</v>
@@ -42605,7 +47037,7 @@
       <c r="W70" s="42"/>
       <c r="X70" s="42"/>
     </row>
-    <row r="71" spans="1:24" s="194" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" s="194" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="51"/>
       <c r="C71" s="106">
         <v>39707.166666666664</v>
@@ -42655,7 +47087,7 @@
       <c r="W71" s="42"/>
       <c r="X71" s="42"/>
     </row>
-    <row r="72" spans="1:24" s="194" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" s="194" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="51"/>
       <c r="C72" s="106">
         <v>39708.155555555553</v>
@@ -42705,7 +47137,7 @@
       <c r="W72" s="42"/>
       <c r="X72" s="42"/>
     </row>
-    <row r="73" spans="1:24" s="194" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" s="194" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="44"/>
       <c r="C73" s="259">
         <v>40060.261805555558</v>
@@ -42742,7 +47174,7 @@
         <v>40528</v>
       </c>
     </row>
-    <row r="74" spans="1:24" s="194" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" s="194" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="44"/>
       <c r="C74" s="259">
         <v>40060.28125</v>
@@ -42779,7 +47211,7 @@
         <v>40528</v>
       </c>
     </row>
-    <row r="75" spans="1:24" s="42" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="42" t="s">
         <v>446</v>
       </c>
@@ -42811,7 +47243,7 @@
         <v>40060</v>
       </c>
     </row>
-    <row r="76" spans="1:24" s="42" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" s="42" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A76" s="42" t="s">
         <v>446</v>
       </c>
@@ -42845,7 +47277,7 @@
         <v>40060</v>
       </c>
     </row>
-    <row r="77" spans="1:24" s="42" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="42" t="s">
         <v>446</v>
       </c>
@@ -42877,7 +47309,7 @@
         <v>40060</v>
       </c>
     </row>
-    <row r="78" spans="1:24" s="167" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" s="167" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A78" s="42" t="s">
         <v>488</v>
       </c>
@@ -42936,7 +47368,7 @@
         <v>40528</v>
       </c>
     </row>
-    <row r="79" spans="1:24" s="167" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" s="167" customFormat="1" ht="50" x14ac:dyDescent="0.25">
       <c r="A79" s="42" t="s">
         <v>488</v>
       </c>
@@ -42978,7 +47410,7 @@
         <v>40528</v>
       </c>
     </row>
-    <row r="80" spans="1:24" s="167" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" s="167" customFormat="1" ht="50" x14ac:dyDescent="0.25">
       <c r="A80" s="42" t="s">
         <v>488</v>
       </c>
@@ -43020,7 +47452,7 @@
         <v>40528</v>
       </c>
     </row>
-    <row r="81" spans="1:22" s="167" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" s="167" customFormat="1" ht="50" x14ac:dyDescent="0.25">
       <c r="A81" s="42" t="s">
         <v>488</v>
       </c>
@@ -43062,7 +47494,7 @@
         <v>40528</v>
       </c>
     </row>
-    <row r="82" spans="1:22" s="167" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" s="167" customFormat="1" ht="50" x14ac:dyDescent="0.25">
       <c r="A82" s="42" t="s">
         <v>488</v>
       </c>
@@ -43104,7 +47536,7 @@
         <v>40528</v>
       </c>
     </row>
-    <row r="83" spans="1:22" s="167" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" s="167" customFormat="1" ht="50" x14ac:dyDescent="0.25">
       <c r="A83" s="42" t="s">
         <v>488</v>
       </c>
@@ -43146,7 +47578,7 @@
         <v>40528</v>
       </c>
     </row>
-    <row r="84" spans="1:22" s="167" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" s="167" customFormat="1" ht="50" x14ac:dyDescent="0.25">
       <c r="A84" s="42" t="s">
         <v>488</v>
       </c>
@@ -43188,7 +47620,7 @@
         <v>40528</v>
       </c>
     </row>
-    <row r="85" spans="1:22" s="167" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" s="167" customFormat="1" ht="50" x14ac:dyDescent="0.25">
       <c r="A85" s="42" t="s">
         <v>488</v>
       </c>
@@ -43230,7 +47662,7 @@
         <v>40528</v>
       </c>
     </row>
-    <row r="86" spans="1:22" s="167" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" s="167" customFormat="1" ht="50" x14ac:dyDescent="0.25">
       <c r="A86" s="42" t="s">
         <v>488</v>
       </c>
@@ -43272,7 +47704,7 @@
         <v>40528</v>
       </c>
     </row>
-    <row r="87" spans="1:22" s="167" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="42" t="s">
         <v>446</v>
       </c>
@@ -43304,7 +47736,7 @@
         <v>40528</v>
       </c>
     </row>
-    <row r="88" spans="1:22" s="167" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" s="167" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A88" s="42" t="s">
         <v>488</v>
       </c>
@@ -43351,7 +47783,7 @@
         <v>40448</v>
       </c>
     </row>
-    <row r="89" spans="1:22" s="167" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" s="167" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="B89" s="165"/>
       <c r="C89" s="106">
         <v>40441.204861111109</v>
@@ -43381,7 +47813,7 @@
         <v>40448</v>
       </c>
     </row>
-    <row r="90" spans="1:22" s="167" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" s="167" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A90" s="42" t="s">
         <v>488</v>
       </c>
@@ -43428,7 +47860,7 @@
         <v>40448</v>
       </c>
     </row>
-    <row r="91" spans="1:22" s="167" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" s="167" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A91" s="42" t="s">
         <v>488</v>
       </c>
@@ -43480,7 +47912,7 @@
         <v>40463</v>
       </c>
     </row>
-    <row r="92" spans="1:22" s="167" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" s="167" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="B92" s="165"/>
       <c r="C92" s="106">
         <v>40447.182638888888</v>
@@ -43519,7 +47951,7 @@
         <v>40463</v>
       </c>
     </row>
-    <row r="93" spans="1:22" s="167" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" s="167" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A93" s="42" t="s">
         <v>488</v>
       </c>
@@ -43574,7 +48006,7 @@
         <v>40463</v>
       </c>
     </row>
-    <row r="94" spans="1:22" s="167" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" s="167" customFormat="1" ht="50" x14ac:dyDescent="0.25">
       <c r="A94" s="42" t="s">
         <v>488</v>
       </c>
@@ -43610,7 +48042,7 @@
         <v>40452</v>
       </c>
     </row>
-    <row r="95" spans="1:22" s="167" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" s="167" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B95" s="165"/>
       <c r="C95" s="106">
         <v>40448.1875</v>
@@ -43643,7 +48075,7 @@
         <v>40452</v>
       </c>
     </row>
-    <row r="96" spans="1:22" s="167" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" s="167" customFormat="1" ht="50" x14ac:dyDescent="0.25">
       <c r="A96" s="42" t="s">
         <v>488</v>
       </c>
@@ -43679,7 +48111,7 @@
         <v>40452</v>
       </c>
     </row>
-    <row r="97" spans="1:22" s="167" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" s="167" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A97" s="42" t="s">
         <v>595</v>
       </c>
@@ -43736,7 +48168,7 @@
         <v>40528</v>
       </c>
     </row>
-    <row r="98" spans="1:22" s="167" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" s="167" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A98" s="42" t="s">
         <v>595</v>
       </c>
@@ -43789,7 +48221,7 @@
         <v>40528</v>
       </c>
     </row>
-    <row r="99" spans="1:22" s="167" customFormat="1" ht="87.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" s="167" customFormat="1" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A99" s="42" t="s">
         <v>488</v>
       </c>
@@ -43850,7 +48282,7 @@
         <v>40538</v>
       </c>
     </row>
-    <row r="100" spans="1:22" s="167" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" s="167" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A100" s="167" t="s">
         <v>488</v>
       </c>
@@ -43900,7 +48332,7 @@
         <v>40904</v>
       </c>
     </row>
-    <row r="101" spans="1:22" s="167" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" s="167" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A101" s="167" t="s">
         <v>488</v>
       </c>
@@ -43942,7 +48374,7 @@
         <v>40904</v>
       </c>
     </row>
-    <row r="102" spans="1:22" s="167" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" s="167" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A102" s="167" t="s">
         <v>488</v>
       </c>
@@ -43986,7 +48418,7 @@
         <v>40904</v>
       </c>
     </row>
-    <row r="103" spans="1:22" s="167" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" s="167" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A103" s="167" t="s">
         <v>488</v>
       </c>
@@ -44028,7 +48460,7 @@
         <v>40904</v>
       </c>
     </row>
-    <row r="104" spans="1:22" s="167" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" s="167" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A104" s="167" t="s">
         <v>488</v>
       </c>
@@ -44070,7 +48502,7 @@
         <v>40904</v>
       </c>
     </row>
-    <row r="105" spans="1:22" s="167" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" s="167" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A105" s="167" t="s">
         <v>488</v>
       </c>
@@ -44116,7 +48548,7 @@
         <v>40904</v>
       </c>
     </row>
-    <row r="106" spans="1:22" s="167" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" s="167" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A106" s="167" t="s">
         <v>488</v>
       </c>
@@ -44156,7 +48588,7 @@
         <v>41747</v>
       </c>
     </row>
-    <row r="107" spans="1:22" s="167" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" s="167" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A107" s="42" t="s">
         <v>488</v>
       </c>
@@ -44196,7 +48628,7 @@
         <v>41747</v>
       </c>
     </row>
-    <row r="108" spans="1:22" s="167" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" s="167" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A108" s="167" t="s">
         <v>488</v>
       </c>
@@ -44236,7 +48668,7 @@
         <v>41747</v>
       </c>
     </row>
-    <row r="109" spans="1:22" s="167" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="167" t="s">
         <v>488</v>
       </c>
@@ -44274,7 +48706,7 @@
         <v>41747</v>
       </c>
     </row>
-    <row r="110" spans="1:22" s="167" customFormat="1" ht="87.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" s="167" customFormat="1" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A110" s="167" t="s">
         <v>488</v>
       </c>
@@ -44337,7 +48769,7 @@
         <v>41747</v>
       </c>
     </row>
-    <row r="111" spans="1:22" s="167" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" s="167" customFormat="1" ht="62.5" x14ac:dyDescent="0.25">
       <c r="B111" s="165"/>
       <c r="C111" s="258">
         <v>41265.247916666667</v>
@@ -44380,7 +48812,7 @@
         <v>41747</v>
       </c>
     </row>
-    <row r="112" spans="1:22" s="167" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" s="167" customFormat="1" ht="62.5" x14ac:dyDescent="0.25">
       <c r="B112" s="165"/>
       <c r="C112" s="258">
         <v>41265.256249999999</v>
@@ -44423,7 +48855,7 @@
         <v>41747</v>
       </c>
     </row>
-    <row r="113" spans="2:22" s="167" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:22" s="167" customFormat="1" ht="62.5" x14ac:dyDescent="0.25">
       <c r="B113" s="165"/>
       <c r="C113" s="258">
         <v>41265.265277777777</v>
@@ -44466,7 +48898,7 @@
         <v>41747</v>
       </c>
     </row>
-    <row r="114" spans="2:22" s="167" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:22" s="167" customFormat="1" ht="62.5" x14ac:dyDescent="0.25">
       <c r="B114" s="165"/>
       <c r="C114" s="258">
         <v>41265.273611111108</v>
@@ -44509,7 +48941,7 @@
         <v>41747</v>
       </c>
     </row>
-    <row r="115" spans="2:22" s="167" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:22" s="167" customFormat="1" ht="62.5" x14ac:dyDescent="0.25">
       <c r="B115" s="165"/>
       <c r="C115" s="258">
         <v>41265.281944444447</v>
@@ -44552,7 +48984,7 @@
         <v>41747</v>
       </c>
     </row>
-    <row r="116" spans="2:22" s="167" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:22" s="167" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B116" s="165"/>
       <c r="C116" s="258">
         <v>41265.301944444444</v>
@@ -44593,7 +49025,7 @@
         <v>41747</v>
       </c>
     </row>
-    <row r="117" spans="2:22" s="167" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:22" s="167" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B117" s="165"/>
       <c r="C117" s="257">
         <v>41266.301944444444</v>
@@ -44636,7 +49068,7 @@
         <v>41747</v>
       </c>
     </row>
-    <row r="118" spans="2:22" s="167" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:22" s="167" customFormat="1" ht="62.5" x14ac:dyDescent="0.25">
       <c r="B118" s="165"/>
       <c r="C118" s="257">
         <v>41266.326388888891</v>
@@ -44681,7 +49113,7 @@
         <v>41747</v>
       </c>
     </row>
-    <row r="119" spans="2:22" s="167" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:22" s="167" customFormat="1" ht="50" x14ac:dyDescent="0.25">
       <c r="B119" s="165"/>
       <c r="C119" s="257">
         <v>41266.331250000003</v>
@@ -44726,7 +49158,7 @@
         <v>41747</v>
       </c>
     </row>
-    <row r="120" spans="2:22" s="167" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:22" s="167" customFormat="1" ht="62.5" x14ac:dyDescent="0.25">
       <c r="B120" s="165"/>
       <c r="C120" s="257">
         <v>41266.335416666669</v>
@@ -44771,7 +49203,7 @@
         <v>41747</v>
       </c>
     </row>
-    <row r="121" spans="2:22" s="167" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:22" s="167" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="B121" s="165"/>
       <c r="C121" s="106">
         <v>41280.177083333336</v>
@@ -44806,7 +49238,7 @@
         <v>41754</v>
       </c>
     </row>
-    <row r="122" spans="2:22" s="167" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:22" s="167" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="B122" s="165"/>
       <c r="C122" s="106">
         <v>41280.177083333336</v>
@@ -44841,7 +49273,7 @@
         <v>41754</v>
       </c>
     </row>
-    <row r="123" spans="2:22" s="167" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:22" s="167" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B123" s="165"/>
       <c r="C123" s="106">
         <v>41280.213888888888</v>
@@ -44876,7 +49308,7 @@
         <v>41754</v>
       </c>
     </row>
-    <row r="124" spans="2:22" s="167" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:22" s="167" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B124" s="165"/>
       <c r="C124" s="106">
         <v>41280.218055555553</v>
@@ -44911,7 +49343,7 @@
         <v>41754</v>
       </c>
     </row>
-    <row r="125" spans="2:22" s="167" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:22" s="167" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B125" s="165"/>
       <c r="C125" s="106">
         <v>41280.21875</v>
@@ -44946,7 +49378,7 @@
         <v>41754</v>
       </c>
     </row>
-    <row r="126" spans="2:22" s="167" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:22" s="167" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B126" s="165"/>
       <c r="C126" s="106">
         <v>41280.219444444447</v>
@@ -44981,7 +49413,7 @@
         <v>41754</v>
       </c>
     </row>
-    <row r="127" spans="2:22" s="167" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:22" s="167" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B127" s="165"/>
       <c r="C127" s="106">
         <v>41280.224305555559</v>
@@ -45016,7 +49448,7 @@
         <v>41754</v>
       </c>
     </row>
-    <row r="128" spans="2:22" s="167" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:22" s="167" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="B128" s="165"/>
       <c r="C128" s="106">
         <v>41280.256944444445</v>
@@ -45051,7 +49483,7 @@
         <v>41754</v>
       </c>
     </row>
-    <row r="129" spans="2:22" s="167" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:22" s="167" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="B129" s="165"/>
       <c r="C129" s="106">
         <v>41280.265277777777</v>
@@ -45086,7 +49518,7 @@
         <v>41754</v>
       </c>
     </row>
-    <row r="130" spans="2:22" s="167" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:22" s="167" customFormat="1" ht="50" x14ac:dyDescent="0.25">
       <c r="B130" s="165"/>
       <c r="C130" s="106">
         <v>41280.27847222222</v>
@@ -45121,7 +49553,7 @@
         <v>41754</v>
       </c>
     </row>
-    <row r="131" spans="2:22" s="167" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:22" s="167" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B131" s="165"/>
       <c r="C131" s="106">
         <v>41283.161805555559</v>
@@ -45156,7 +49588,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="132" spans="2:22" s="167" customFormat="1" ht="87.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:22" s="167" customFormat="1" ht="87.5" x14ac:dyDescent="0.25">
       <c r="B132" s="165"/>
       <c r="C132" s="106">
         <v>41291.172222222223</v>
@@ -45204,7 +49636,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="133" spans="2:22" s="167" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:22" s="167" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B133" s="165"/>
       <c r="C133" s="106">
         <v>41292.190972222219</v>
@@ -45253,7 +49685,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="134" spans="2:22" s="167" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:22" s="167" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="B134" s="165"/>
       <c r="C134" s="106">
         <v>41621.201388888891</v>
@@ -45288,7 +49720,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="135" spans="2:22" s="167" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:22" s="167" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="B135" s="165"/>
       <c r="C135" s="106">
         <v>41621.208333333336</v>
@@ -45323,7 +49755,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="136" spans="2:22" s="167" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:22" s="167" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="B136" s="165"/>
       <c r="C136" s="106">
         <v>41621.28125</v>
@@ -45358,7 +49790,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="137" spans="2:22" s="167" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:22" s="167" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B137" s="165"/>
       <c r="C137" s="106">
         <v>41625.256944444445</v>
@@ -45679,14 +50111,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X144" xr:uid="{00000000-0009-0000-0000-000006000000}">
-    <filterColumn colId="2">
-      <filters>
-        <dateGroupItem year="2014" dateTimeGrouping="year"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="A2:W130">
+  <autoFilter ref="A1:X144" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W130">
     <sortCondition ref="C2:C130"/>
   </sortState>
   <printOptions gridLines="1"/>
@@ -45707,10 +50133,10 @@
   <dimension ref="A1:T75"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D9" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A105" sqref="A105"/>
-      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -49160,7 +53586,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:R24" xr:uid="{00000000-0009-0000-0000-000008000000}">
-    <sortState ref="A2:R22">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R22">
       <sortCondition ref="B1:B22"/>
     </sortState>
   </autoFilter>

--- a/SS-OBS-DB.xlsx
+++ b/SS-OBS-DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Astronomy\Projects\GeneralDocumentation\ObservingReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1907E34B-E3A4-4CA6-8B03-9AA284C82325}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABCA939-2075-4146-8E09-1E253ED40C50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14860" yWindow="4320" windowWidth="19110" windowHeight="4370" tabRatio="700" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" tabRatio="700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="8" r:id="rId1"/>
@@ -132,13 +132,14 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="10">Uranus!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">Venus!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -146,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="834">
   <si>
     <r>
       <t>Imaging</t>
@@ -8057,6 +8058,28 @@
         <family val="2"/>
       </rPr>
       <t>: I took eleven spectra of Jupiter using the ST2000 and 135mm f/2.5 camera lens.  The Star Analyzer 100 grating was placed in front of the 135mm lens objective giving much higher dispersion than on 1/9/2013. Filters were used to isolate spectral regions and provide better focus.  IRGBU images were taken.</t>
+    </r>
+  </si>
+  <si>
+    <t>Visual - same evening as imaging below?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Imaging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Took series of 685NIR, 656HIA, and 380NUV images with C8 and ST2000. Need details.</t>
     </r>
   </si>
 </sst>
@@ -20772,10 +20795,10 @@
   <dimension ref="A1:S147"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E47" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A105" sqref="A105"/>
-      <selection pane="bottomRight" activeCell="P148" sqref="P148"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -20930,7 +20953,7 @@
       <c r="R3" s="30"/>
       <c r="S3" s="31"/>
     </row>
-    <row r="4" spans="1:19" s="61" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" s="61" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B4" s="65"/>
       <c r="C4" s="54" t="s">
         <v>193</v>
@@ -20964,7 +20987,7 @@
       <c r="R4" s="67"/>
       <c r="S4" s="68"/>
     </row>
-    <row r="5" spans="1:19" s="12" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" s="12" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
       <c r="B5" s="63"/>
       <c r="C5" s="36" t="s">
         <v>297</v>
@@ -20998,7 +21021,7 @@
       <c r="R5" s="30"/>
       <c r="S5" s="31"/>
     </row>
-    <row r="6" spans="1:19" s="12" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="B6" s="63"/>
       <c r="C6" s="36" t="s">
         <v>298</v>
@@ -21032,7 +21055,7 @@
       <c r="R6" s="30"/>
       <c r="S6" s="31"/>
     </row>
-    <row r="7" spans="1:19" s="12" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="12" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B7" s="63"/>
       <c r="C7" s="36" t="s">
         <v>300</v>
@@ -21066,7 +21089,7 @@
       <c r="R7" s="30"/>
       <c r="S7" s="31"/>
     </row>
-    <row r="8" spans="1:19" s="12" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="12" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B8" s="63"/>
       <c r="C8" s="36" t="s">
         <v>304</v>
@@ -21100,7 +21123,7 @@
       <c r="R8" s="30"/>
       <c r="S8" s="31"/>
     </row>
-    <row r="9" spans="1:19" s="12" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="12" customFormat="1" ht="50" x14ac:dyDescent="0.3">
       <c r="B9" s="63"/>
       <c r="C9" s="36" t="s">
         <v>266</v>
@@ -21143,7 +21166,7 @@
       <c r="R9" s="30"/>
       <c r="S9" s="31"/>
     </row>
-    <row r="10" spans="1:19" s="12" customFormat="1" ht="87.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="12" customFormat="1" ht="87.5" x14ac:dyDescent="0.3">
       <c r="B10" s="63"/>
       <c r="C10" s="36" t="s">
         <v>266</v>
@@ -21186,7 +21209,7 @@
       <c r="R10" s="30"/>
       <c r="S10" s="31"/>
     </row>
-    <row r="11" spans="1:19" s="12" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="12" customFormat="1" ht="150" x14ac:dyDescent="0.3">
       <c r="B11" s="63"/>
       <c r="C11" s="36" t="s">
         <v>266</v>
@@ -21229,7 +21252,7 @@
       <c r="R11" s="30"/>
       <c r="S11" s="31"/>
     </row>
-    <row r="12" spans="1:19" s="12" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="12" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
       <c r="B12" s="63"/>
       <c r="C12" s="36" t="s">
         <v>295</v>
@@ -21263,7 +21286,7 @@
       <c r="R12" s="30"/>
       <c r="S12" s="31"/>
     </row>
-    <row r="13" spans="1:19" s="12" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="12" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B13" s="63"/>
       <c r="C13" s="36" t="s">
         <v>311</v>
@@ -21297,7 +21320,7 @@
       <c r="R13" s="30"/>
       <c r="S13" s="31"/>
     </row>
-    <row r="14" spans="1:19" s="12" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="B14" s="63"/>
       <c r="C14" s="36" t="s">
         <v>327</v>
@@ -21331,7 +21354,7 @@
       <c r="R14" s="30"/>
       <c r="S14" s="31"/>
     </row>
-    <row r="15" spans="1:19" s="12" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="B15" s="63"/>
       <c r="C15" s="36" t="s">
         <v>327</v>
@@ -21365,7 +21388,7 @@
       <c r="R15" s="30"/>
       <c r="S15" s="31"/>
     </row>
-    <row r="16" spans="1:19" s="12" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="12" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B16" s="63"/>
       <c r="C16" s="36" t="s">
         <v>324</v>
@@ -21399,7 +21422,7 @@
       <c r="R16" s="30"/>
       <c r="S16" s="31"/>
     </row>
-    <row r="17" spans="2:19" s="12" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="B17" s="63"/>
       <c r="C17" s="36" t="s">
         <v>326</v>
@@ -21433,7 +21456,7 @@
       <c r="R17" s="30"/>
       <c r="S17" s="31"/>
     </row>
-    <row r="18" spans="2:19" s="12" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" s="12" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B18" s="63"/>
       <c r="C18" s="36" t="s">
         <v>352</v>
@@ -21463,7 +21486,7 @@
       <c r="R18" s="30"/>
       <c r="S18" s="31"/>
     </row>
-    <row r="19" spans="2:19" s="12" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" s="12" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B19" s="63"/>
       <c r="C19" s="36" t="s">
         <v>353</v>
@@ -21493,7 +21516,7 @@
       <c r="R19" s="30"/>
       <c r="S19" s="31"/>
     </row>
-    <row r="20" spans="2:19" s="12" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="B20" s="63"/>
       <c r="C20" s="36" t="s">
         <v>345</v>
@@ -21527,7 +21550,7 @@
       <c r="R20" s="30"/>
       <c r="S20" s="31"/>
     </row>
-    <row r="21" spans="2:19" s="12" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" s="12" customFormat="1" ht="150" x14ac:dyDescent="0.3">
       <c r="B21" s="63"/>
       <c r="C21" s="36" t="s">
         <v>346</v>
@@ -21561,7 +21584,7 @@
       <c r="R21" s="30"/>
       <c r="S21" s="31"/>
     </row>
-    <row r="22" spans="2:19" s="12" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" s="12" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
       <c r="B22" s="63"/>
       <c r="C22" s="36" t="s">
         <v>346</v>
@@ -21595,7 +21618,7 @@
       <c r="R22" s="30"/>
       <c r="S22" s="31"/>
     </row>
-    <row r="23" spans="2:19" s="12" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="B23" s="63"/>
       <c r="C23" s="36" t="s">
         <v>344</v>
@@ -21629,7 +21652,7 @@
       <c r="R23" s="30"/>
       <c r="S23" s="31"/>
     </row>
-    <row r="24" spans="2:19" s="12" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19" s="12" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B24" s="63"/>
       <c r="C24" s="36" t="s">
         <v>347</v>
@@ -21663,7 +21686,7 @@
       <c r="R24" s="30"/>
       <c r="S24" s="31"/>
     </row>
-    <row r="25" spans="2:19" s="12" customFormat="1" ht="125" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" s="12" customFormat="1" ht="125" x14ac:dyDescent="0.3">
       <c r="B25" s="63"/>
       <c r="C25" s="36" t="s">
         <v>348</v>
@@ -21697,7 +21720,7 @@
       <c r="R25" s="30"/>
       <c r="S25" s="31"/>
     </row>
-    <row r="26" spans="2:19" s="12" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" s="12" customFormat="1" ht="150" x14ac:dyDescent="0.3">
       <c r="B26" s="63"/>
       <c r="C26" s="36" t="s">
         <v>348</v>
@@ -21731,7 +21754,7 @@
       <c r="R26" s="30"/>
       <c r="S26" s="31"/>
     </row>
-    <row r="27" spans="2:19" s="12" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" s="12" customFormat="1" ht="50" x14ac:dyDescent="0.3">
       <c r="B27" s="63"/>
       <c r="C27" s="36" t="s">
         <v>349</v>
@@ -21765,7 +21788,7 @@
       <c r="R27" s="30"/>
       <c r="S27" s="31"/>
     </row>
-    <row r="28" spans="2:19" s="12" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" s="12" customFormat="1" ht="150" x14ac:dyDescent="0.3">
       <c r="B28" s="63"/>
       <c r="C28" s="36" t="s">
         <v>350</v>
@@ -21799,7 +21822,7 @@
       <c r="R28" s="30"/>
       <c r="S28" s="31"/>
     </row>
-    <row r="29" spans="2:19" s="12" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" s="12" customFormat="1" ht="150" x14ac:dyDescent="0.3">
       <c r="B29" s="63"/>
       <c r="C29" s="36" t="s">
         <v>350</v>
@@ -21833,7 +21856,7 @@
       <c r="R29" s="30"/>
       <c r="S29" s="31"/>
     </row>
-    <row r="30" spans="2:19" s="12" customFormat="1" ht="100" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19" s="12" customFormat="1" ht="100" x14ac:dyDescent="0.3">
       <c r="B30" s="63"/>
       <c r="C30" s="36" t="s">
         <v>351</v>
@@ -21863,7 +21886,7 @@
       <c r="R30" s="30"/>
       <c r="S30" s="31"/>
     </row>
-    <row r="31" spans="2:19" s="12" customFormat="1" ht="200" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:19" s="12" customFormat="1" ht="200" x14ac:dyDescent="0.3">
       <c r="B31" s="63"/>
       <c r="C31" s="36" t="s">
         <v>317</v>
@@ -21897,7 +21920,7 @@
       <c r="R31" s="30"/>
       <c r="S31" s="31"/>
     </row>
-    <row r="32" spans="2:19" s="12" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:19" s="12" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
       <c r="B32" s="63"/>
       <c r="C32" s="36" t="s">
         <v>319</v>
@@ -21931,7 +21954,7 @@
       <c r="R32" s="30"/>
       <c r="S32" s="31"/>
     </row>
-    <row r="33" spans="2:19" s="12" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:19" s="12" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B33" s="63"/>
       <c r="C33" s="36" t="s">
         <v>320</v>
@@ -21965,7 +21988,7 @@
       <c r="R33" s="30"/>
       <c r="S33" s="31"/>
     </row>
-    <row r="34" spans="2:19" s="12" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:19" s="12" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
       <c r="B34" s="63"/>
       <c r="C34" s="36" t="s">
         <v>320</v>
@@ -21999,7 +22022,7 @@
       <c r="R34" s="30"/>
       <c r="S34" s="31"/>
     </row>
-    <row r="35" spans="2:19" s="12" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:19" s="12" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
       <c r="B35" s="63"/>
       <c r="C35" s="36" t="s">
         <v>321</v>
@@ -22033,7 +22056,7 @@
       <c r="R35" s="30"/>
       <c r="S35" s="31"/>
     </row>
-    <row r="36" spans="2:19" s="12" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:19" s="12" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B36" s="63"/>
       <c r="C36" s="36" t="s">
         <v>322</v>
@@ -22067,7 +22090,7 @@
       <c r="R36" s="30"/>
       <c r="S36" s="31"/>
     </row>
-    <row r="37" spans="2:19" s="12" customFormat="1" ht="112.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:19" s="12" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="B37" s="63"/>
       <c r="C37" s="36" t="s">
         <v>323</v>
@@ -22097,7 +22120,7 @@
       <c r="R37" s="30"/>
       <c r="S37" s="31"/>
     </row>
-    <row r="38" spans="2:19" s="12" customFormat="1" ht="125" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:19" s="12" customFormat="1" ht="125" x14ac:dyDescent="0.3">
       <c r="B38" s="63"/>
       <c r="C38" s="36" t="s">
         <v>323</v>
@@ -22127,7 +22150,7 @@
       <c r="R38" s="30"/>
       <c r="S38" s="31"/>
     </row>
-    <row r="39" spans="2:19" s="12" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:19" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="B39" s="63"/>
       <c r="C39" s="36" t="s">
         <v>316</v>
@@ -22161,7 +22184,7 @@
       <c r="R39" s="30"/>
       <c r="S39" s="31"/>
     </row>
-    <row r="40" spans="2:19" s="12" customFormat="1" ht="100" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:19" s="12" customFormat="1" ht="100" x14ac:dyDescent="0.3">
       <c r="B40" s="63"/>
       <c r="C40" s="36" t="s">
         <v>316</v>
@@ -22195,7 +22218,7 @@
       <c r="R40" s="30"/>
       <c r="S40" s="31"/>
     </row>
-    <row r="41" spans="2:19" s="12" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:19" s="12" customFormat="1" ht="50" x14ac:dyDescent="0.3">
       <c r="B41" s="63"/>
       <c r="C41" s="36" t="s">
         <v>313</v>
@@ -22229,7 +22252,7 @@
       <c r="R41" s="30"/>
       <c r="S41" s="31"/>
     </row>
-    <row r="42" spans="2:19" s="12" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:19" s="12" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B42" s="63"/>
       <c r="C42" s="36" t="s">
         <v>313</v>
@@ -22263,7 +22286,7 @@
       <c r="R42" s="30"/>
       <c r="S42" s="31"/>
     </row>
-    <row r="43" spans="2:19" s="12" customFormat="1" ht="137.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:19" s="12" customFormat="1" ht="137.5" x14ac:dyDescent="0.3">
       <c r="B43" s="63"/>
       <c r="C43" s="36" t="s">
         <v>315</v>
@@ -22299,7 +22322,7 @@
       <c r="R43" s="30"/>
       <c r="S43" s="31"/>
     </row>
-    <row r="44" spans="2:19" s="12" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:19" s="12" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
       <c r="B44" s="63"/>
       <c r="C44" s="36" t="s">
         <v>315</v>
@@ -22335,7 +22358,7 @@
       <c r="R44" s="30"/>
       <c r="S44" s="31"/>
     </row>
-    <row r="45" spans="2:19" s="12" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:19" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="B45" s="63"/>
       <c r="C45" s="36">
         <v>38353</v>
@@ -22369,7 +22392,7 @@
       <c r="R45" s="30"/>
       <c r="S45" s="31"/>
     </row>
-    <row r="46" spans="2:19" s="12" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:19" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="B46" s="63"/>
       <c r="C46" s="36">
         <v>38359</v>
@@ -22403,7 +22426,7 @@
       <c r="R46" s="30"/>
       <c r="S46" s="31"/>
     </row>
-    <row r="47" spans="2:19" s="12" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:19" s="12" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B47" s="63"/>
       <c r="C47" s="36" t="s">
         <v>324</v>
@@ -22437,7 +22460,7 @@
       <c r="R47" s="30"/>
       <c r="S47" s="31"/>
     </row>
-    <row r="48" spans="2:19" s="12" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:19" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="B48" s="63"/>
       <c r="C48" s="36" t="s">
         <v>134</v>
@@ -22469,7 +22492,7 @@
         <v>38644</v>
       </c>
     </row>
-    <row r="49" spans="1:19" s="12" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" s="12" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B49" s="63"/>
       <c r="C49" s="36" t="s">
         <v>306</v>
@@ -22559,7 +22582,7 @@
       <c r="R51" s="30"/>
       <c r="S51" s="31"/>
     </row>
-    <row r="52" spans="1:19" s="61" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" s="61" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="B52" s="65"/>
       <c r="C52" s="54" t="s">
         <v>193</v>
@@ -22595,7 +22618,7 @@
       <c r="R52" s="67"/>
       <c r="S52" s="68"/>
     </row>
-    <row r="53" spans="1:19" s="12" customFormat="1" ht="88" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" s="12" customFormat="1" ht="88" x14ac:dyDescent="0.3">
       <c r="B53" s="69"/>
       <c r="C53" s="36" t="s">
         <v>431</v>
@@ -22629,7 +22652,7 @@
       <c r="R53" s="30"/>
       <c r="S53" s="31"/>
     </row>
-    <row r="54" spans="1:19" s="12" customFormat="1" ht="200.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" s="12" customFormat="1" ht="200.5" x14ac:dyDescent="0.3">
       <c r="B54" s="69"/>
       <c r="C54" s="36" t="s">
         <v>431</v>
@@ -22663,7 +22686,7 @@
       <c r="R54" s="30"/>
       <c r="S54" s="31"/>
     </row>
-    <row r="55" spans="1:19" s="12" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" s="12" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B55" s="69"/>
       <c r="C55" s="36" t="s">
         <v>456</v>
@@ -22697,7 +22720,7 @@
       <c r="R55" s="30"/>
       <c r="S55" s="31"/>
     </row>
-    <row r="56" spans="1:19" s="52" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" s="52" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="B56" s="63"/>
       <c r="C56" s="36">
         <v>38499</v>
@@ -22731,7 +22754,7 @@
       <c r="R56" s="30"/>
       <c r="S56" s="31"/>
     </row>
-    <row r="57" spans="1:19" s="52" customFormat="1" ht="125" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" s="52" customFormat="1" ht="125" x14ac:dyDescent="0.3">
       <c r="A57" s="12"/>
       <c r="B57" s="63"/>
       <c r="C57" s="36">
@@ -25406,9 +25429,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:S116" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="3">
+    <filterColumn colId="4">
       <filters>
-        <filter val="8P/Tuttle"/>
+        <filter val="Comet"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -32489,16 +32512,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A105" sqref="A105"/>
-      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -32566,7 +32589,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="109" customFormat="1" ht="125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="109" customFormat="1" ht="125" x14ac:dyDescent="0.25">
       <c r="A2" s="105"/>
       <c r="B2" s="106">
         <v>28138.010416666668</v>
@@ -32605,7 +32628,7 @@
         <v>40042</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="12" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
       <c r="B3" s="36">
         <v>28148.045138888891</v>
@@ -32646,7 +32669,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:15" s="12" customFormat="1" ht="100" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="12" customFormat="1" ht="100" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
       <c r="B4" s="36">
         <v>28195.069444444445</v>
@@ -32687,7 +32710,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:15" s="12" customFormat="1" ht="100" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="12" customFormat="1" ht="100" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="B5" s="36">
         <v>28207.02986111111</v>
@@ -32728,7 +32751,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="22"/>
       <c r="B6" s="36">
         <v>30137.385416666668</v>
@@ -32747,7 +32770,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="22"/>
       <c r="B7" s="36">
         <v>34022.043749999997</v>
@@ -32766,7 +32789,7 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="36">
         <v>34530.097222222219</v>
@@ -32785,7 +32808,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="22"/>
       <c r="B9" s="36">
         <v>34534.097222222219</v>
@@ -32804,7 +32827,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
       <c r="B10" s="36">
         <v>35246.541666666664</v>
@@ -32823,7 +32846,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:15" s="12" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="12" customFormat="1" ht="50" x14ac:dyDescent="0.3">
       <c r="A11" s="22"/>
       <c r="B11" s="36" t="s">
         <v>428</v>
@@ -32866,7 +32889,7 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:15" s="12" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="12" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A12" s="22"/>
       <c r="B12" s="36" t="s">
         <v>209</v>
@@ -32909,7 +32932,7 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:15" s="12" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="12" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
       <c r="B13" s="36">
         <v>39192.020833333336</v>
@@ -32950,7 +32973,7 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:15" s="12" customFormat="1" ht="125" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" s="12" customFormat="1" ht="125" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
       <c r="B14" s="36">
         <v>39257</v>
@@ -32991,7 +33014,7 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="1:15" s="12" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" s="12" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A15" s="22"/>
       <c r="B15" s="36">
         <v>39843.9375</v>
@@ -33034,7 +33057,7 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="1:15" s="12" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" s="12" customFormat="1" ht="50" x14ac:dyDescent="0.3">
       <c r="A16" s="22"/>
       <c r="B16" s="36">
         <v>39859.944444444445</v>
@@ -33077,7 +33100,7 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="1:15" s="12" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" s="12" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
       <c r="A17" s="22"/>
       <c r="B17" s="36">
         <v>39883.916666666664</v>
@@ -33120,7 +33143,7 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:15" s="12" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" s="12" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
       <c r="A18" s="22"/>
       <c r="B18" s="36">
         <v>40376.125</v>
@@ -33163,7 +33186,7 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="1:15" s="12" customFormat="1" ht="87.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="12" customFormat="1" ht="87.5" x14ac:dyDescent="0.3">
       <c r="A19" s="22"/>
       <c r="B19" s="36">
         <v>40410.98541666667</v>
@@ -33206,7 +33229,7 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="1:15" s="12" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
       <c r="B20" s="36">
         <v>40414.953472222223</v>
@@ -33249,7 +33272,7 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="1:15" s="12" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A21" s="22"/>
       <c r="B21" s="36">
         <v>40415.973611111112</v>
@@ -33292,7 +33315,7 @@
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="1:15" s="12" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" s="12" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
       <c r="A22" s="22"/>
       <c r="B22" s="185">
         <v>40416.984027777777</v>
@@ -33335,10 +33358,10 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" s="22"/>
       <c r="B23" s="36">
-        <v>40974.041666666664</v>
+        <v>40974.958333333336</v>
       </c>
       <c r="C23" s="114"/>
       <c r="D23" s="13"/>
@@ -33354,15 +33377,15 @@
         <v>0</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>12</v>
+        <v>832</v>
       </c>
       <c r="M23" s="19">
-        <v>41201</v>
+        <v>43859</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" s="12" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="36">
         <v>40975.041666666664</v>
@@ -33380,16 +33403,16 @@
       <c r="K24" s="5">
         <v>1</v>
       </c>
-      <c r="L24" s="22" t="s">
-        <v>749</v>
+      <c r="L24" s="23" t="s">
+        <v>833</v>
       </c>
       <c r="M24" s="19">
-        <v>41201</v>
+        <v>43859</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A25" s="22"/>
       <c r="B25" s="36">
         <v>40977.041666666664</v>
@@ -33416,7 +33439,7 @@
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="1:15" s="12" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" s="12" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
       <c r="A26" s="22"/>
       <c r="B26" s="36">
         <v>40998.011111111111</v>
@@ -33458,7 +33481,7 @@
       </c>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="1:15" s="12" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" s="12" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
       <c r="A27" s="22"/>
       <c r="B27" s="36">
         <v>41016.006944444445</v>
@@ -33500,7 +33523,7 @@
       </c>
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="22"/>
       <c r="B28" s="36">
         <v>41021.006944444445</v>
@@ -33523,7 +33546,7 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="1:15" s="12" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" s="12" customFormat="1" ht="50" x14ac:dyDescent="0.3">
       <c r="A29" s="22"/>
       <c r="B29" s="36">
         <v>41039.074305555558</v>
@@ -33564,7 +33587,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="1:15" s="12" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" s="12" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
       <c r="A30" s="22"/>
       <c r="B30" s="36">
         <v>41065.927083333336</v>
@@ -33606,7 +33629,7 @@
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="1:15" s="12" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" s="12" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
       <c r="A31" s="22"/>
       <c r="B31" s="36">
         <v>41065.986111111109</v>
@@ -33648,7 +33671,7 @@
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
     </row>
-    <row r="32" spans="1:15" s="12" customFormat="1" ht="137.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" s="12" customFormat="1" ht="137.5" x14ac:dyDescent="0.3">
       <c r="A32" s="22"/>
       <c r="B32" s="36">
         <v>41065.999305555553</v>
@@ -33889,7 +33912,7 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
       <c r="B38" s="36"/>
       <c r="C38" s="114"/>
@@ -33906,7 +33929,7 @@
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
     </row>
-    <row r="39" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A39" s="22"/>
       <c r="B39" s="36"/>
       <c r="C39" s="114"/>
@@ -33923,7 +33946,7 @@
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
     </row>
-    <row r="40" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A40" s="22"/>
       <c r="B40" s="36"/>
       <c r="C40" s="114"/>
@@ -33940,7 +33963,7 @@
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
     </row>
-    <row r="41" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A41" s="22"/>
       <c r="B41" s="36"/>
       <c r="C41" s="114"/>
@@ -33957,7 +33980,7 @@
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
     </row>
-    <row r="42" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A42" s="22"/>
       <c r="B42" s="36"/>
       <c r="C42" s="114"/>
@@ -33974,7 +33997,7 @@
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
     </row>
-    <row r="43" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A43" s="22"/>
       <c r="B43" s="36"/>
       <c r="C43" s="114"/>
@@ -33991,7 +34014,7 @@
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
     </row>
-    <row r="44" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A44" s="22"/>
       <c r="B44" s="36"/>
       <c r="C44" s="114"/>
@@ -34008,7 +34031,7 @@
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
     </row>
-    <row r="45" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A45" s="22"/>
       <c r="B45" s="36"/>
       <c r="C45" s="114"/>
@@ -34025,7 +34048,7 @@
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
     </row>
-    <row r="46" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A46" s="22"/>
       <c r="B46" s="36"/>
       <c r="C46" s="114"/>
@@ -34042,7 +34065,7 @@
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
     </row>
-    <row r="47" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A47" s="22"/>
       <c r="B47" s="36"/>
       <c r="C47" s="114"/>
@@ -34059,7 +34082,7 @@
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
     </row>
-    <row r="48" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A48" s="22"/>
       <c r="B48" s="36"/>
       <c r="C48" s="114"/>
@@ -34076,7 +34099,7 @@
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
     </row>
-    <row r="49" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A49" s="22"/>
       <c r="B49" s="36"/>
       <c r="C49" s="114"/>
@@ -34093,7 +34116,7 @@
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
     </row>
-    <row r="50" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A50" s="22"/>
       <c r="B50" s="36"/>
       <c r="C50" s="114"/>
@@ -34110,7 +34133,7 @@
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
     </row>
-    <row r="51" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A51" s="22"/>
       <c r="B51" s="36"/>
       <c r="C51" s="114"/>
@@ -34127,7 +34150,7 @@
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
     </row>
-    <row r="52" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A52" s="22"/>
       <c r="B52" s="36"/>
       <c r="C52" s="114"/>
@@ -34144,7 +34167,7 @@
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A53" s="22"/>
       <c r="B53" s="36"/>
       <c r="C53" s="114"/>
@@ -34161,7 +34184,7 @@
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="54" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A54" s="22"/>
       <c r="B54" s="36"/>
       <c r="C54" s="114"/>
@@ -34178,7 +34201,7 @@
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
     </row>
-    <row r="55" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="22"/>
       <c r="B55" s="36"/>
       <c r="C55" s="114"/>
@@ -34195,7 +34218,7 @@
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
     </row>
-    <row r="56" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A56" s="22"/>
       <c r="B56" s="36"/>
       <c r="C56" s="114"/>
@@ -34212,7 +34235,7 @@
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
     </row>
-    <row r="57" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A57" s="22"/>
       <c r="B57" s="36"/>
       <c r="C57" s="114"/>
@@ -34229,7 +34252,7 @@
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
     </row>
-    <row r="58" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A58" s="84"/>
       <c r="B58" s="71"/>
       <c r="C58" s="115"/>
@@ -34246,7 +34269,7 @@
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
     </row>
-    <row r="59" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A59" s="84"/>
       <c r="B59" s="71"/>
       <c r="C59" s="115"/>
@@ -34263,7 +34286,7 @@
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
     </row>
-    <row r="60" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A60" s="84"/>
       <c r="B60" s="71"/>
       <c r="C60" s="115"/>
@@ -34280,7 +34303,7 @@
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
     </row>
-    <row r="61" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A61" s="84"/>
       <c r="B61" s="71"/>
       <c r="C61" s="115"/>
@@ -34297,7 +34320,7 @@
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
     </row>
-    <row r="62" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A62" s="22"/>
       <c r="B62" s="36"/>
       <c r="C62" s="114"/>
@@ -34314,7 +34337,7 @@
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
     </row>
-    <row r="63" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A63" s="70"/>
       <c r="B63" s="71"/>
       <c r="C63" s="115"/>
@@ -34331,7 +34354,7 @@
       <c r="N63" s="30"/>
       <c r="O63" s="31"/>
     </row>
-    <row r="64" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A64" s="70"/>
       <c r="B64" s="71"/>
       <c r="C64" s="115"/>
@@ -34348,7 +34371,7 @@
       <c r="N64" s="30"/>
       <c r="O64" s="31"/>
     </row>
-    <row r="65" spans="1:15" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A65" s="70"/>
       <c r="B65" s="71"/>
       <c r="C65" s="115"/>
@@ -34365,7 +34388,7 @@
       <c r="N65" s="30"/>
       <c r="O65" s="31"/>
     </row>
-    <row r="66" spans="1:15" s="16" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A66" s="70"/>
       <c r="B66" s="71"/>
       <c r="C66" s="115"/>
@@ -34382,7 +34405,7 @@
       <c r="N66" s="30"/>
       <c r="O66" s="31"/>
     </row>
-    <row r="67" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="72"/>
       <c r="B67" s="71"/>
       <c r="C67" s="115"/>
@@ -34399,7 +34422,7 @@
       <c r="N67" s="17"/>
       <c r="O67" s="17"/>
     </row>
-    <row r="68" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="72"/>
       <c r="B68" s="71"/>
       <c r="C68" s="115"/>
@@ -34416,7 +34439,7 @@
       <c r="N68" s="17"/>
       <c r="O68" s="17"/>
     </row>
-    <row r="69" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="72"/>
       <c r="B69" s="71"/>
       <c r="C69" s="115"/>
@@ -34433,7 +34456,7 @@
       <c r="N69" s="17"/>
       <c r="O69" s="17"/>
     </row>
-    <row r="70" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="72"/>
       <c r="B70" s="71"/>
       <c r="C70" s="115"/>
@@ -34450,7 +34473,7 @@
       <c r="N70" s="17"/>
       <c r="O70" s="17"/>
     </row>
-    <row r="71" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="72"/>
       <c r="B71" s="71"/>
       <c r="C71" s="115"/>
@@ -34467,7 +34490,7 @@
       <c r="N71" s="17"/>
       <c r="O71" s="17"/>
     </row>
-    <row r="72" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="72"/>
       <c r="B72" s="71"/>
       <c r="C72" s="115"/>
@@ -34484,7 +34507,7 @@
       <c r="N72" s="17"/>
       <c r="O72" s="17"/>
     </row>
-    <row r="73" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="72"/>
       <c r="B73" s="71"/>
       <c r="C73" s="115"/>
@@ -34501,7 +34524,7 @@
       <c r="N73" s="17"/>
       <c r="O73" s="17"/>
     </row>
-    <row r="74" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="72"/>
       <c r="B74" s="71"/>
       <c r="C74" s="115"/>
@@ -34518,7 +34541,7 @@
       <c r="N74" s="17"/>
       <c r="O74" s="17"/>
     </row>
-    <row r="75" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="72"/>
       <c r="B75" s="71"/>
       <c r="C75" s="115"/>
@@ -34535,7 +34558,7 @@
       <c r="N75" s="17"/>
       <c r="O75" s="17"/>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="72"/>
       <c r="D76" s="75"/>
       <c r="E76" s="75"/>
@@ -34550,7 +34573,7 @@
       <c r="N76" s="17"/>
       <c r="O76" s="17"/>
     </row>
-    <row r="77" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="72"/>
       <c r="B77" s="71"/>
       <c r="C77" s="115"/>
@@ -34567,7 +34590,7 @@
       <c r="N77" s="17"/>
       <c r="O77" s="17"/>
     </row>
-    <row r="78" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="72"/>
       <c r="B78" s="71"/>
       <c r="C78" s="115"/>
@@ -34584,7 +34607,7 @@
       <c r="N78" s="17"/>
       <c r="O78" s="17"/>
     </row>
-    <row r="79" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="72"/>
       <c r="B79" s="71"/>
       <c r="C79" s="115"/>
@@ -34601,7 +34624,7 @@
       <c r="N79" s="17"/>
       <c r="O79" s="17"/>
     </row>
-    <row r="80" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="72"/>
       <c r="B80" s="71"/>
       <c r="C80" s="115"/>
@@ -34618,7 +34641,7 @@
       <c r="N80" s="17"/>
       <c r="O80" s="17"/>
     </row>
-    <row r="81" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="22"/>
       <c r="B81" s="36"/>
       <c r="C81" s="114"/>
@@ -34635,7 +34658,7 @@
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
     </row>
-    <row r="82" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="22"/>
       <c r="B82" s="36"/>
       <c r="C82" s="114"/>
@@ -35389,11 +35412,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O82" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <filterColumn colId="1">
-      <filters>
-        <dateGroupItem year="2015" dateTimeGrouping="year"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q72">
       <sortCondition ref="B1:B72"/>
     </sortState>
@@ -35415,7 +35433,7 @@
   </sheetPr>
   <dimension ref="A1:AA125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D108" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A105" sqref="A105"/>

--- a/SS-OBS-DB.xlsx
+++ b/SS-OBS-DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Astronomy\Projects\GeneralDocumentation\ObservingReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABCA939-2075-4146-8E09-1E253ED40C50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B2A0A5-BAAD-4B2F-B2BA-7C03CC519D05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" tabRatio="700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34665" yWindow="2055" windowWidth="17970" windowHeight="11880" tabRatio="700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'All Planets'!$A$1:$S$116</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Jupiter!$A$1:$X$144</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Mars!$A$1:$AA$92</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Moon!$A$1:$AB$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Moon!$A$1:$AB$129</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Neptune!$A$1:$S$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Saturn!$A$1:$T$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Uranus!$A$1:$R$24</definedName>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="835">
   <si>
     <r>
       <t>Imaging</t>
@@ -8080,6 +8080,19 @@
         <family val="2"/>
       </rPr>
       <t>: Took series of 685NIR, 656HIA, and 380NUV images with C8 and ST2000. Need details.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Imaging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: Two videos of Plato with the C11 at 2800mm fl, the ASI120MM camera, and the 685NIR filter. Individual frame exposures were 30ms. 300 frames stacked for a total exposure of 9 sec. </t>
     </r>
   </si>
 </sst>
@@ -8312,7 +8325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="266">
+  <cellXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -9065,6 +9078,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16138,7 +16154,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8654143" cy="6277429"/>
+    <xdr:ext cx="12981214" cy="9416143"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -17136,7 +17152,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8654143" cy="6277429"/>
+    <xdr:ext cx="12981214" cy="9416143"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -25448,16 +25464,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB166"/>
+  <dimension ref="A1:AB167"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A105" sqref="A105"/>
-      <selection pane="bottomRight" activeCell="G129" sqref="G129"/>
+      <selection pane="bottomRight" activeCell="C83" sqref="C83:C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -25566,8 +25582,8 @@
         <v>#REF!</v>
       </c>
       <c r="AB1" s="7">
-        <f>SUM(X2:X121)</f>
-        <v>119</v>
+        <f>SUM(X2:X122)</f>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="61" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -25670,7 +25686,7 @@
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
     </row>
-    <row r="4" spans="1:28" s="12" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" s="12" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A4" s="204"/>
       <c r="B4" s="22"/>
       <c r="C4" s="36">
@@ -25710,7 +25726,7 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
     </row>
-    <row r="5" spans="1:28" s="61" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" s="61" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
       <c r="A5" s="221"/>
       <c r="B5" s="64"/>
       <c r="C5" s="54" t="s">
@@ -25764,7 +25780,7 @@
       <c r="AA5" s="59"/>
       <c r="AB5" s="59"/>
     </row>
-    <row r="6" spans="1:28" s="12" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="A6" s="204"/>
       <c r="B6" s="22"/>
       <c r="C6" s="36">
@@ -25814,7 +25830,7 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
     </row>
-    <row r="7" spans="1:28" s="12" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="A7" s="204"/>
       <c r="B7" s="22"/>
       <c r="C7" s="36">
@@ -25866,7 +25882,7 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
     </row>
-    <row r="8" spans="1:28" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="204" t="s">
         <v>446</v>
       </c>
@@ -26324,7 +26340,7 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
     </row>
-    <row r="17" spans="1:28" s="61" customFormat="1" ht="100" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" s="61" customFormat="1" ht="100" x14ac:dyDescent="0.3">
       <c r="A17" s="221"/>
       <c r="B17" s="64"/>
       <c r="C17" s="54" t="s">
@@ -26822,7 +26838,7 @@
       <c r="AA27" s="17"/>
       <c r="AB27" s="17"/>
     </row>
-    <row r="28" spans="1:28" s="12" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="A28" s="221"/>
       <c r="B28" s="64"/>
       <c r="C28" s="54" t="s">
@@ -26866,7 +26882,7 @@
       <c r="AA28" s="59"/>
       <c r="AB28" s="59"/>
     </row>
-    <row r="29" spans="1:28" s="12" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="A29" s="204" t="s">
         <v>645</v>
       </c>
@@ -26912,7 +26928,7 @@
       <c r="AA29" s="17"/>
       <c r="AB29" s="17"/>
     </row>
-    <row r="30" spans="1:28" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="204"/>
       <c r="B30" s="23"/>
       <c r="C30" s="36">
@@ -27253,7 +27269,7 @@
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
     </row>
-    <row r="38" spans="1:28" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A38" s="204"/>
       <c r="B38" s="23"/>
       <c r="C38" s="36">
@@ -27568,7 +27584,7 @@
       <c r="AA43" s="17"/>
       <c r="AB43" s="17"/>
     </row>
-    <row r="44" spans="1:28" s="61" customFormat="1" ht="112.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" s="61" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A44" s="204"/>
       <c r="B44" s="22"/>
       <c r="C44" s="36">
@@ -27612,7 +27628,7 @@
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
     </row>
-    <row r="45" spans="1:28" s="61" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" s="61" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A45" s="221"/>
       <c r="B45" s="64"/>
       <c r="C45" s="54" t="s">
@@ -27666,7 +27682,7 @@
       <c r="AA45" s="59"/>
       <c r="AB45" s="59"/>
     </row>
-    <row r="46" spans="1:28" s="61" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" s="61" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="A46" s="204" t="s">
         <v>446</v>
       </c>
@@ -27954,7 +27970,7 @@
       <c r="AA51" s="17"/>
       <c r="AB51" s="17"/>
     </row>
-    <row r="52" spans="1:28" s="12" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" s="12" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
       <c r="A52" s="221"/>
       <c r="B52" s="55"/>
       <c r="C52" s="54" t="s">
@@ -27998,7 +28014,7 @@
       <c r="AA52" s="59"/>
       <c r="AB52" s="59"/>
     </row>
-    <row r="53" spans="1:28" s="12" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="A53" s="204"/>
       <c r="B53" s="22"/>
       <c r="C53" s="36">
@@ -28084,7 +28100,7 @@
       <c r="AA54" s="17"/>
       <c r="AB54" s="17"/>
     </row>
-    <row r="55" spans="1:28" s="12" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" s="12" customFormat="1" ht="50" x14ac:dyDescent="0.3">
       <c r="A55" s="204" t="s">
         <v>446</v>
       </c>
@@ -28130,7 +28146,7 @@
       <c r="AA55" s="17"/>
       <c r="AB55" s="17"/>
     </row>
-    <row r="56" spans="1:28" s="12" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="A56" s="204"/>
       <c r="B56" s="23"/>
       <c r="C56" s="36">
@@ -28166,7 +28182,7 @@
       <c r="AA56" s="17"/>
       <c r="AB56" s="17"/>
     </row>
-    <row r="57" spans="1:28" s="12" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="A57" s="204"/>
       <c r="B57" s="23"/>
       <c r="C57" s="36">
@@ -28202,7 +28218,7 @@
       <c r="AA57" s="17"/>
       <c r="AB57" s="17"/>
     </row>
-    <row r="58" spans="1:28" s="12" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="A58" s="204"/>
       <c r="B58" s="63"/>
       <c r="C58" s="36">
@@ -28242,7 +28258,7 @@
         <v>38644</v>
       </c>
     </row>
-    <row r="59" spans="1:28" s="12" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="A59" s="204"/>
       <c r="B59" s="63"/>
       <c r="C59" s="36">
@@ -28282,7 +28298,7 @@
         <v>38644</v>
       </c>
     </row>
-    <row r="60" spans="1:28" s="12" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" s="12" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A60" s="204"/>
       <c r="B60" s="63"/>
       <c r="C60" s="36">
@@ -28322,7 +28338,7 @@
         <v>38644</v>
       </c>
     </row>
-    <row r="61" spans="1:28" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A61" s="204"/>
       <c r="B61" s="2"/>
       <c r="C61" s="36">
@@ -28372,7 +28388,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A62" s="204"/>
       <c r="B62" s="23"/>
       <c r="C62" s="36">
@@ -28414,7 +28430,7 @@
       <c r="AA62" s="17"/>
       <c r="AB62" s="17"/>
     </row>
-    <row r="63" spans="1:28" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A63" s="204"/>
       <c r="B63" s="2"/>
       <c r="C63" s="36">
@@ -28660,7 +28676,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" s="61" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:28" s="61" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A68" s="221"/>
       <c r="B68" s="64"/>
       <c r="C68" s="54" t="s">
@@ -28694,7 +28710,7 @@
       <c r="AA68" s="59"/>
       <c r="AB68" s="59"/>
     </row>
-    <row r="69" spans="1:28" s="12" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="A69" s="204"/>
       <c r="B69" s="22"/>
       <c r="C69" s="36">
@@ -28734,7 +28750,7 @@
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
     </row>
-    <row r="70" spans="1:28" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A70" s="204"/>
       <c r="B70" s="22"/>
       <c r="C70" s="36">
@@ -28774,7 +28790,7 @@
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
     </row>
-    <row r="71" spans="1:28" s="12" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:28" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="A71" s="204"/>
       <c r="B71" s="22"/>
       <c r="C71" s="36">
@@ -28814,7 +28830,7 @@
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
     </row>
-    <row r="72" spans="1:28" s="12" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28" s="12" customFormat="1" ht="50" x14ac:dyDescent="0.3">
       <c r="A72" s="204"/>
       <c r="B72" s="22"/>
       <c r="C72" s="36">
@@ -28856,7 +28872,7 @@
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
     </row>
-    <row r="73" spans="1:28" s="12" customFormat="1" ht="67.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:28" s="12" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="204"/>
       <c r="B73" s="22"/>
       <c r="C73" s="36">
@@ -28898,7 +28914,7 @@
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
     </row>
-    <row r="74" spans="1:28" s="61" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:28" s="61" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A74" s="221"/>
       <c r="B74" s="64"/>
       <c r="C74" s="54" t="s">
@@ -28956,7 +28972,7 @@
       <c r="AA74" s="59"/>
       <c r="AB74" s="59"/>
     </row>
-    <row r="75" spans="1:28" s="12" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:28" s="12" customFormat="1" ht="50" x14ac:dyDescent="0.3">
       <c r="A75" s="204"/>
       <c r="B75" s="22"/>
       <c r="C75" s="36">
@@ -29015,7 +29031,7 @@
       <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
     </row>
-    <row r="76" spans="1:28" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:28" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A76" s="204"/>
       <c r="B76" s="22"/>
       <c r="C76" s="36">
@@ -29071,7 +29087,7 @@
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
     </row>
-    <row r="77" spans="1:28" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:28" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A77" s="204"/>
       <c r="B77" s="23"/>
       <c r="C77" s="36">
@@ -29133,7 +29149,7 @@
       <c r="AA77" s="17"/>
       <c r="AB77" s="17"/>
     </row>
-    <row r="78" spans="1:28" s="12" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:28" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="A78" s="204"/>
       <c r="B78" s="22"/>
       <c r="C78" s="36">
@@ -29189,7 +29205,7 @@
       <c r="AA78" s="5"/>
       <c r="AB78" s="5"/>
     </row>
-    <row r="79" spans="1:28" s="39" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:28" s="39" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A79" s="204"/>
       <c r="B79" s="22"/>
       <c r="C79" s="36">
@@ -29246,7 +29262,7 @@
       <c r="AA79" s="5"/>
       <c r="AB79" s="5"/>
     </row>
-    <row r="80" spans="1:28" s="12" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:28" s="12" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A80" s="204"/>
       <c r="B80" s="23"/>
       <c r="C80" s="36">
@@ -29308,7 +29324,7 @@
       <c r="AA80" s="17"/>
       <c r="AB80" s="17"/>
     </row>
-    <row r="81" spans="1:28" s="12" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" s="12" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A81" s="204" t="s">
         <v>446</v>
       </c>
@@ -29372,111 +29388,115 @@
       <c r="AA81" s="17"/>
       <c r="AB81" s="17"/>
     </row>
-    <row r="82" spans="1:28" s="12" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="221"/>
-      <c r="B82" s="64"/>
-      <c r="C82" s="54" t="s">
+    <row r="82" spans="1:28" s="12" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
+      <c r="A82" s="204" t="s">
+        <v>446</v>
+      </c>
+      <c r="B82" s="23"/>
+      <c r="C82" s="36">
+        <v>43893.10229166667</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="F82" s="23" t="s">
+        <v>658</v>
+      </c>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="217"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="18"/>
+      <c r="P82" s="18"/>
+      <c r="Q82" s="130"/>
+      <c r="R82" s="18"/>
+      <c r="S82" s="18"/>
+      <c r="T82" s="18"/>
+      <c r="U82" s="18"/>
+      <c r="V82" s="140" t="s">
+        <v>509</v>
+      </c>
+      <c r="W82" s="17">
+        <v>0</v>
+      </c>
+      <c r="X82" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y82" s="14" t="s">
+        <v>834</v>
+      </c>
+      <c r="Z82" s="19">
+        <v>43923</v>
+      </c>
+      <c r="AA82" s="17"/>
+      <c r="AB82" s="17"/>
+    </row>
+    <row r="83" spans="1:28" s="12" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="221"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="D82" s="55" t="s">
+      <c r="D83" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="E82" s="55" t="s">
+      <c r="E83" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="F82" s="55" t="s">
+      <c r="F83" s="55" t="s">
         <v>657</v>
       </c>
-      <c r="G82" s="60">
+      <c r="G83" s="60">
         <v>99</v>
       </c>
-      <c r="H82" s="60">
+      <c r="H83" s="60">
         <v>99</v>
       </c>
-      <c r="I82" s="215">
-        <v>0</v>
-      </c>
-      <c r="J82" s="60"/>
-      <c r="K82" s="60"/>
-      <c r="L82" s="60"/>
-      <c r="M82" s="60"/>
-      <c r="N82" s="60"/>
-      <c r="O82" s="60"/>
-      <c r="P82" s="60"/>
-      <c r="Q82" s="60"/>
-      <c r="R82" s="60"/>
-      <c r="S82" s="60"/>
-      <c r="T82" s="60"/>
-      <c r="U82" s="60"/>
-      <c r="V82" s="206"/>
-      <c r="W82" s="59">
-        <f>SUM(W83:W85)</f>
-        <v>0</v>
-      </c>
-      <c r="X82" s="59">
-        <f>SUM(X83:X85)</f>
+      <c r="I83" s="215">
+        <v>0</v>
+      </c>
+      <c r="J83" s="60"/>
+      <c r="K83" s="60"/>
+      <c r="L83" s="60"/>
+      <c r="M83" s="60"/>
+      <c r="N83" s="60"/>
+      <c r="O83" s="60"/>
+      <c r="P83" s="60"/>
+      <c r="Q83" s="60"/>
+      <c r="R83" s="60"/>
+      <c r="S83" s="60"/>
+      <c r="T83" s="60"/>
+      <c r="U83" s="60"/>
+      <c r="V83" s="206"/>
+      <c r="W83" s="59">
+        <f>SUM(W84:W86)</f>
+        <v>0</v>
+      </c>
+      <c r="X83" s="59">
+        <f>SUM(X84:X86)</f>
         <v>4</v>
       </c>
-      <c r="Y82" s="55" t="s">
+      <c r="Y83" s="55" t="s">
         <v>423</v>
       </c>
-      <c r="Z82" s="58">
+      <c r="Z83" s="58">
         <v>39848</v>
       </c>
-      <c r="AA82" s="59"/>
-      <c r="AB82" s="59"/>
-    </row>
-    <row r="83" spans="1:28" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A83" s="204"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="36">
-        <v>38810</v>
-      </c>
-      <c r="D83" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="E83" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F83" s="23" t="s">
-        <v>657</v>
-      </c>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="216"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="13"/>
-      <c r="N83" s="13"/>
-      <c r="O83" s="13"/>
-      <c r="P83" s="13"/>
-      <c r="Q83" s="13"/>
-      <c r="R83" s="13"/>
-      <c r="S83" s="13"/>
-      <c r="T83" s="13"/>
-      <c r="U83" s="13"/>
-      <c r="V83" s="143"/>
-      <c r="W83" s="5">
-        <v>0</v>
-      </c>
-      <c r="X83" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y83" s="23" t="s">
-        <v>659</v>
-      </c>
-      <c r="Z83" s="19">
-        <v>40506</v>
-      </c>
-      <c r="AA83" s="5"/>
-      <c r="AB83" s="5"/>
-    </row>
-    <row r="84" spans="1:28" s="12" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="AA83" s="59"/>
+      <c r="AB83" s="59"/>
+    </row>
+    <row r="84" spans="1:28" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A84" s="204"/>
       <c r="B84" s="22"/>
-      <c r="C84" s="36">
-        <v>39460.083333333336</v>
+      <c r="C84" s="266">
+        <v>38810</v>
       </c>
       <c r="D84" s="23" t="s">
         <v>285</v>
@@ -29509,22 +29529,20 @@
       <c r="X84" s="5">
         <v>1</v>
       </c>
-      <c r="Y84" s="41" t="s">
-        <v>557</v>
+      <c r="Y84" s="23" t="s">
+        <v>659</v>
       </c>
       <c r="Z84" s="19">
-        <v>40323</v>
+        <v>40506</v>
       </c>
       <c r="AA84" s="5"/>
       <c r="AB84" s="5"/>
     </row>
-    <row r="85" spans="1:28" s="12" customFormat="1" ht="50" x14ac:dyDescent="0.3">
-      <c r="A85" s="204" t="s">
-        <v>595</v>
-      </c>
+    <row r="85" spans="1:28" s="12" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A85" s="204"/>
       <c r="B85" s="22"/>
-      <c r="C85" s="36">
-        <v>40466.134027777778</v>
+      <c r="C85" s="266">
+        <v>39460.083333333336</v>
       </c>
       <c r="D85" s="23" t="s">
         <v>285</v>
@@ -29550,37 +29568,39 @@
       <c r="S85" s="13"/>
       <c r="T85" s="13"/>
       <c r="U85" s="13"/>
-      <c r="V85" s="143">
-        <v>0.6</v>
-      </c>
+      <c r="V85" s="143"/>
       <c r="W85" s="5">
         <v>0</v>
       </c>
       <c r="X85" s="5">
-        <v>2</v>
-      </c>
-      <c r="Y85" s="23" t="s">
-        <v>694</v>
+        <v>1</v>
+      </c>
+      <c r="Y85" s="41" t="s">
+        <v>557</v>
       </c>
       <c r="Z85" s="19">
-        <v>40546</v>
+        <v>40323</v>
       </c>
       <c r="AA85" s="5"/>
       <c r="AB85" s="5"/>
     </row>
-    <row r="86" spans="1:28" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
-      <c r="A86" s="204"/>
+    <row r="86" spans="1:28" s="12" customFormat="1" ht="50" x14ac:dyDescent="0.3">
+      <c r="A86" s="204" t="s">
+        <v>595</v>
+      </c>
       <c r="B86" s="22"/>
-      <c r="C86" s="36">
-        <v>39552</v>
+      <c r="C86" s="266">
+        <v>40466.134027777778</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>165</v>
+        <v>285</v>
       </c>
       <c r="E86" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="F86" s="23"/>
+      <c r="F86" s="23" t="s">
+        <v>657</v>
+      </c>
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
       <c r="I86" s="216"/>
@@ -29596,127 +29616,119 @@
       <c r="S86" s="13"/>
       <c r="T86" s="13"/>
       <c r="U86" s="13"/>
-      <c r="V86" s="143"/>
-      <c r="W86" s="5"/>
-      <c r="X86" s="5"/>
+      <c r="V86" s="143">
+        <v>0.6</v>
+      </c>
+      <c r="W86" s="5">
+        <v>0</v>
+      </c>
+      <c r="X86" s="5">
+        <v>2</v>
+      </c>
       <c r="Y86" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z86" s="19"/>
+        <v>694</v>
+      </c>
+      <c r="Z86" s="19">
+        <v>40546</v>
+      </c>
       <c r="AA86" s="5"/>
       <c r="AB86" s="5"/>
     </row>
-    <row r="87" spans="1:28" s="61" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="221"/>
-      <c r="B87" s="64"/>
-      <c r="C87" s="54" t="s">
+    <row r="87" spans="1:28" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
+      <c r="A87" s="204"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="266">
+        <v>39552</v>
+      </c>
+      <c r="D87" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="F87" s="23"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="216"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
+      <c r="O87" s="13"/>
+      <c r="P87" s="13"/>
+      <c r="Q87" s="13"/>
+      <c r="R87" s="13"/>
+      <c r="S87" s="13"/>
+      <c r="T87" s="13"/>
+      <c r="U87" s="13"/>
+      <c r="V87" s="143"/>
+      <c r="W87" s="5"/>
+      <c r="X87" s="5"/>
+      <c r="Y87" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z87" s="19"/>
+      <c r="AA87" s="5"/>
+      <c r="AB87" s="5"/>
+    </row>
+    <row r="88" spans="1:28" s="61" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
+      <c r="A88" s="221"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="D87" s="55" t="s">
+      <c r="D88" s="55" t="s">
         <v>637</v>
       </c>
-      <c r="E87" s="55" t="s">
+      <c r="E88" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="F87" s="55"/>
-      <c r="G87" s="60">
+      <c r="F88" s="55"/>
+      <c r="G88" s="60">
         <v>226</v>
       </c>
-      <c r="H87" s="60">
+      <c r="H88" s="60">
         <v>6</v>
       </c>
-      <c r="I87" s="215">
+      <c r="I88" s="215">
         <v>0.48</v>
       </c>
-      <c r="J87" s="60"/>
-      <c r="K87" s="60"/>
-      <c r="L87" s="60"/>
-      <c r="M87" s="60"/>
-      <c r="N87" s="60"/>
-      <c r="O87" s="60"/>
-      <c r="P87" s="60"/>
-      <c r="Q87" s="60"/>
-      <c r="R87" s="60"/>
-      <c r="S87" s="60"/>
-      <c r="T87" s="60"/>
-      <c r="U87" s="60"/>
-      <c r="V87" s="206"/>
-      <c r="W87" s="59">
-        <f>SUM(W88:W90)</f>
-        <v>0</v>
-      </c>
-      <c r="X87" s="59">
-        <f>SUM(X88:X90)</f>
+      <c r="J88" s="60"/>
+      <c r="K88" s="60"/>
+      <c r="L88" s="60"/>
+      <c r="M88" s="60"/>
+      <c r="N88" s="60"/>
+      <c r="O88" s="60"/>
+      <c r="P88" s="60"/>
+      <c r="Q88" s="60"/>
+      <c r="R88" s="60"/>
+      <c r="S88" s="60"/>
+      <c r="T88" s="60"/>
+      <c r="U88" s="60"/>
+      <c r="V88" s="206"/>
+      <c r="W88" s="59">
+        <f>SUM(W89:W91)</f>
+        <v>0</v>
+      </c>
+      <c r="X88" s="59">
+        <f>SUM(X89:X91)</f>
         <v>3</v>
       </c>
-      <c r="Y87" s="55" t="s">
+      <c r="Y88" s="55" t="s">
         <v>676</v>
       </c>
-      <c r="Z87" s="58">
+      <c r="Z88" s="58">
         <v>40514</v>
       </c>
-      <c r="AA87" s="59"/>
-      <c r="AB87" s="59"/>
-    </row>
-    <row r="88" spans="1:28" s="61" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="204"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="36">
+      <c r="AA88" s="59"/>
+      <c r="AB88" s="59"/>
+    </row>
+    <row r="89" spans="1:28" s="61" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A89" s="204"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="266">
         <v>38812</v>
-      </c>
-      <c r="D88" s="23" t="s">
-        <v>637</v>
-      </c>
-      <c r="E88" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="F88" s="23"/>
-      <c r="G88" s="13">
-        <v>226</v>
-      </c>
-      <c r="H88" s="13">
-        <v>6</v>
-      </c>
-      <c r="I88" s="216">
-        <v>0.48</v>
-      </c>
-      <c r="J88" s="18"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="18"/>
-      <c r="O88" s="18"/>
-      <c r="P88" s="18"/>
-      <c r="Q88" s="18"/>
-      <c r="R88" s="18"/>
-      <c r="S88" s="18"/>
-      <c r="T88" s="18"/>
-      <c r="U88" s="18"/>
-      <c r="V88" s="140">
-        <v>0.4</v>
-      </c>
-      <c r="W88" s="17">
-        <v>0</v>
-      </c>
-      <c r="X88" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y88" s="14" t="s">
-        <v>674</v>
-      </c>
-      <c r="Z88" s="19">
-        <v>40514</v>
-      </c>
-      <c r="AA88" s="17"/>
-      <c r="AB88" s="17"/>
-    </row>
-    <row r="89" spans="1:28" s="61" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="204" t="s">
-        <v>595</v>
-      </c>
-      <c r="B89" s="23"/>
-      <c r="C89" s="36">
-        <v>40466.10833333333</v>
       </c>
       <c r="D89" s="23" t="s">
         <v>637</v>
@@ -29747,7 +29759,7 @@
       <c r="T89" s="18"/>
       <c r="U89" s="18"/>
       <c r="V89" s="140">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="W89" s="17">
         <v>0</v>
@@ -29756,21 +29768,21 @@
         <v>1</v>
       </c>
       <c r="Y89" s="14" t="s">
-        <v>648</v>
+        <v>674</v>
       </c>
       <c r="Z89" s="19">
-        <v>40475</v>
+        <v>40514</v>
       </c>
       <c r="AA89" s="17"/>
       <c r="AB89" s="17"/>
     </row>
-    <row r="90" spans="1:28" s="61" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:28" s="61" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
       <c r="A90" s="204" t="s">
-        <v>446</v>
+        <v>595</v>
       </c>
       <c r="B90" s="23"/>
-      <c r="C90" s="36">
-        <v>40468.181250000001</v>
+      <c r="C90" s="266">
+        <v>40466.10833333333</v>
       </c>
       <c r="D90" s="23" t="s">
         <v>637</v>
@@ -29801,7 +29813,7 @@
       <c r="T90" s="18"/>
       <c r="U90" s="18"/>
       <c r="V90" s="140">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="W90" s="17">
         <v>0</v>
@@ -29810,121 +29822,123 @@
         <v>1</v>
       </c>
       <c r="Y90" s="14" t="s">
-        <v>675</v>
+        <v>648</v>
       </c>
       <c r="Z90" s="19">
-        <v>40472</v>
+        <v>40475</v>
       </c>
       <c r="AA90" s="17"/>
       <c r="AB90" s="17"/>
     </row>
-    <row r="91" spans="1:28" s="61" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="221"/>
-      <c r="B91" s="64"/>
-      <c r="C91" s="54" t="s">
+    <row r="91" spans="1:28" s="61" customFormat="1" ht="50" x14ac:dyDescent="0.3">
+      <c r="A91" s="204" t="s">
+        <v>446</v>
+      </c>
+      <c r="B91" s="23"/>
+      <c r="C91" s="266">
+        <v>40468.181250000001</v>
+      </c>
+      <c r="D91" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="E91" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="F91" s="23"/>
+      <c r="G91" s="13">
+        <v>226</v>
+      </c>
+      <c r="H91" s="13">
+        <v>6</v>
+      </c>
+      <c r="I91" s="216">
+        <v>0.48</v>
+      </c>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="18"/>
+      <c r="O91" s="18"/>
+      <c r="P91" s="18"/>
+      <c r="Q91" s="18"/>
+      <c r="R91" s="18"/>
+      <c r="S91" s="18"/>
+      <c r="T91" s="18"/>
+      <c r="U91" s="18"/>
+      <c r="V91" s="140">
+        <v>0.8</v>
+      </c>
+      <c r="W91" s="17">
+        <v>0</v>
+      </c>
+      <c r="X91" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y91" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="Z91" s="19">
+        <v>40472</v>
+      </c>
+      <c r="AA91" s="17"/>
+      <c r="AB91" s="17"/>
+    </row>
+    <row r="92" spans="1:28" s="61" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+      <c r="A92" s="221"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="D91" s="55" t="s">
+      <c r="D92" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="E91" s="55" t="s">
+      <c r="E92" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="F91" s="55"/>
-      <c r="G91" s="60">
+      <c r="F92" s="55"/>
+      <c r="G92" s="60">
         <v>226</v>
       </c>
-      <c r="H91" s="60">
+      <c r="H92" s="60">
         <v>3</v>
       </c>
-      <c r="I91" s="215"/>
-      <c r="J91" s="60"/>
-      <c r="K91" s="60"/>
-      <c r="L91" s="60"/>
-      <c r="M91" s="60"/>
-      <c r="N91" s="60"/>
-      <c r="O91" s="60"/>
-      <c r="P91" s="60"/>
-      <c r="Q91" s="60"/>
-      <c r="R91" s="60"/>
-      <c r="S91" s="60"/>
-      <c r="T91" s="60"/>
-      <c r="U91" s="60"/>
-      <c r="V91" s="206"/>
-      <c r="W91" s="59">
-        <f>SUM(W92:W94)</f>
-        <v>0</v>
-      </c>
-      <c r="X91" s="59">
-        <f>SUM(X92:X94)</f>
+      <c r="I92" s="215"/>
+      <c r="J92" s="60"/>
+      <c r="K92" s="60"/>
+      <c r="L92" s="60"/>
+      <c r="M92" s="60"/>
+      <c r="N92" s="60"/>
+      <c r="O92" s="60"/>
+      <c r="P92" s="60"/>
+      <c r="Q92" s="60"/>
+      <c r="R92" s="60"/>
+      <c r="S92" s="60"/>
+      <c r="T92" s="60"/>
+      <c r="U92" s="60"/>
+      <c r="V92" s="206"/>
+      <c r="W92" s="59">
+        <f>SUM(W93:W95)</f>
+        <v>0</v>
+      </c>
+      <c r="X92" s="59">
+        <f>SUM(X93:X95)</f>
         <v>3</v>
       </c>
-      <c r="Y91" s="55" t="s">
+      <c r="Y92" s="55" t="s">
         <v>673</v>
       </c>
-      <c r="Z91" s="58">
+      <c r="Z92" s="58">
         <v>40514</v>
       </c>
-      <c r="AA91" s="59"/>
-      <c r="AB91" s="59"/>
-    </row>
-    <row r="92" spans="1:28" s="61" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="204"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="36">
+      <c r="AA92" s="59"/>
+      <c r="AB92" s="59"/>
+    </row>
+    <row r="93" spans="1:28" s="61" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A93" s="204"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="266">
         <v>38812</v>
-      </c>
-      <c r="D92" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="E92" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="F92" s="23"/>
-      <c r="G92" s="13">
-        <v>226</v>
-      </c>
-      <c r="H92" s="13">
-        <v>3</v>
-      </c>
-      <c r="I92" s="217"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="18"/>
-      <c r="O92" s="18"/>
-      <c r="P92" s="18"/>
-      <c r="Q92" s="18"/>
-      <c r="R92" s="18"/>
-      <c r="S92" s="18"/>
-      <c r="T92" s="18"/>
-      <c r="U92" s="18"/>
-      <c r="V92" s="140">
-        <v>0.4</v>
-      </c>
-      <c r="W92" s="17">
-        <v>0</v>
-      </c>
-      <c r="X92" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y92" s="14" t="s">
-        <v>674</v>
-      </c>
-      <c r="Z92" s="19">
-        <v>40514</v>
-      </c>
-      <c r="AA92" s="17"/>
-      <c r="AB92" s="17"/>
-    </row>
-    <row r="93" spans="1:28" s="61" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="204" t="s">
-        <v>595</v>
-      </c>
-      <c r="B93" s="23"/>
-      <c r="C93" s="36">
-        <v>40466.10833333333</v>
       </c>
       <c r="D93" s="23" t="s">
         <v>220</v>
@@ -29953,7 +29967,7 @@
       <c r="T93" s="18"/>
       <c r="U93" s="18"/>
       <c r="V93" s="140">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="W93" s="17">
         <v>0</v>
@@ -29962,21 +29976,21 @@
         <v>1</v>
       </c>
       <c r="Y93" s="14" t="s">
-        <v>648</v>
+        <v>674</v>
       </c>
       <c r="Z93" s="19">
-        <v>40475</v>
+        <v>40514</v>
       </c>
       <c r="AA93" s="17"/>
       <c r="AB93" s="17"/>
     </row>
-    <row r="94" spans="1:28" s="61" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:28" s="61" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
       <c r="A94" s="204" t="s">
-        <v>446</v>
+        <v>595</v>
       </c>
       <c r="B94" s="23"/>
-      <c r="C94" s="36">
-        <v>40468.181250000001</v>
+      <c r="C94" s="266">
+        <v>40466.10833333333</v>
       </c>
       <c r="D94" s="23" t="s">
         <v>220</v>
@@ -30005,7 +30019,7 @@
       <c r="T94" s="18"/>
       <c r="U94" s="18"/>
       <c r="V94" s="140">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="W94" s="17">
         <v>0</v>
@@ -30014,123 +30028,123 @@
         <v>1</v>
       </c>
       <c r="Y94" s="14" t="s">
-        <v>675</v>
+        <v>648</v>
       </c>
       <c r="Z94" s="19">
-        <v>40472</v>
+        <v>40475</v>
       </c>
       <c r="AA94" s="17"/>
       <c r="AB94" s="17"/>
     </row>
-    <row r="95" spans="1:28" s="61" customFormat="1" ht="87.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="221"/>
-      <c r="B95" s="55"/>
-      <c r="C95" s="54" t="s">
+    <row r="95" spans="1:28" s="61" customFormat="1" ht="50" x14ac:dyDescent="0.3">
+      <c r="A95" s="204" t="s">
+        <v>446</v>
+      </c>
+      <c r="B95" s="23"/>
+      <c r="C95" s="266">
+        <v>40468.181250000001</v>
+      </c>
+      <c r="D95" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="E95" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="F95" s="23"/>
+      <c r="G95" s="13">
+        <v>226</v>
+      </c>
+      <c r="H95" s="13">
+        <v>3</v>
+      </c>
+      <c r="I95" s="217"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="18"/>
+      <c r="M95" s="18"/>
+      <c r="N95" s="18"/>
+      <c r="O95" s="18"/>
+      <c r="P95" s="18"/>
+      <c r="Q95" s="18"/>
+      <c r="R95" s="18"/>
+      <c r="S95" s="18"/>
+      <c r="T95" s="18"/>
+      <c r="U95" s="18"/>
+      <c r="V95" s="140">
+        <v>0.8</v>
+      </c>
+      <c r="W95" s="17">
+        <v>0</v>
+      </c>
+      <c r="X95" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y95" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="Z95" s="19">
+        <v>40472</v>
+      </c>
+      <c r="AA95" s="17"/>
+      <c r="AB95" s="17"/>
+    </row>
+    <row r="96" spans="1:28" s="61" customFormat="1" ht="87.5" x14ac:dyDescent="0.3">
+      <c r="A96" s="221"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="D95" s="55" t="s">
+      <c r="D96" s="55" t="s">
         <v>677</v>
       </c>
-      <c r="E95" s="55" t="s">
+      <c r="E96" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="F95" s="55"/>
-      <c r="G95" s="56">
+      <c r="F96" s="55"/>
+      <c r="G96" s="56">
         <v>206</v>
       </c>
-      <c r="H95" s="56">
+      <c r="H96" s="56">
         <v>2</v>
       </c>
-      <c r="I95" s="218"/>
-      <c r="J95" s="56"/>
-      <c r="K95" s="56"/>
-      <c r="L95" s="56"/>
-      <c r="M95" s="56"/>
-      <c r="N95" s="56"/>
-      <c r="O95" s="56"/>
-      <c r="P95" s="56"/>
-      <c r="Q95" s="56"/>
-      <c r="R95" s="56"/>
-      <c r="S95" s="56"/>
-      <c r="T95" s="56"/>
-      <c r="U95" s="56"/>
-      <c r="V95" s="213"/>
-      <c r="W95" s="53">
-        <f>SUM(W96:W99)</f>
-        <v>0</v>
-      </c>
-      <c r="X95" s="53">
-        <f>SUM(X96:X99)</f>
+      <c r="I96" s="218"/>
+      <c r="J96" s="56"/>
+      <c r="K96" s="56"/>
+      <c r="L96" s="56"/>
+      <c r="M96" s="56"/>
+      <c r="N96" s="56"/>
+      <c r="O96" s="56"/>
+      <c r="P96" s="56"/>
+      <c r="Q96" s="56"/>
+      <c r="R96" s="56"/>
+      <c r="S96" s="56"/>
+      <c r="T96" s="56"/>
+      <c r="U96" s="56"/>
+      <c r="V96" s="213"/>
+      <c r="W96" s="53">
+        <f>SUM(W97:W100)</f>
+        <v>0</v>
+      </c>
+      <c r="X96" s="53">
+        <f>SUM(X97:X100)</f>
         <v>2</v>
       </c>
-      <c r="Y95" s="57" t="s">
+      <c r="Y96" s="57" t="s">
         <v>678</v>
       </c>
-      <c r="Z95" s="58">
+      <c r="Z96" s="58">
         <v>40514</v>
       </c>
-      <c r="AA95" s="53"/>
-      <c r="AB95" s="53"/>
-    </row>
-    <row r="96" spans="1:28" s="61" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="204" t="s">
+      <c r="AA96" s="53"/>
+      <c r="AB96" s="53"/>
+    </row>
+    <row r="97" spans="1:28" s="61" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
+      <c r="A97" s="204" t="s">
         <v>595</v>
       </c>
-      <c r="B96" s="23"/>
-      <c r="C96" s="36">
+      <c r="B97" s="23"/>
+      <c r="C97" s="266">
         <v>40466.10833333333</v>
-      </c>
-      <c r="D96" s="23" t="s">
-        <v>677</v>
-      </c>
-      <c r="E96" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="F96" s="23"/>
-      <c r="G96" s="18">
-        <v>206</v>
-      </c>
-      <c r="H96" s="18">
-        <v>2</v>
-      </c>
-      <c r="I96" s="217"/>
-      <c r="J96" s="18"/>
-      <c r="K96" s="18"/>
-      <c r="L96" s="18"/>
-      <c r="M96" s="18"/>
-      <c r="N96" s="18"/>
-      <c r="O96" s="18"/>
-      <c r="P96" s="18"/>
-      <c r="Q96" s="18"/>
-      <c r="R96" s="18"/>
-      <c r="S96" s="18"/>
-      <c r="T96" s="18"/>
-      <c r="U96" s="18"/>
-      <c r="V96" s="140">
-        <v>0.6</v>
-      </c>
-      <c r="W96" s="17">
-        <v>0</v>
-      </c>
-      <c r="X96" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y96" s="14" t="s">
-        <v>648</v>
-      </c>
-      <c r="Z96" s="19">
-        <v>40475</v>
-      </c>
-      <c r="AA96" s="17"/>
-      <c r="AB96" s="17"/>
-    </row>
-    <row r="97" spans="1:28" s="61" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="204" t="s">
-        <v>446</v>
-      </c>
-      <c r="B97" s="23"/>
-      <c r="C97" s="36">
-        <v>40468.181250000001</v>
       </c>
       <c r="D97" s="23" t="s">
         <v>677</v>
@@ -30159,7 +30173,7 @@
       <c r="T97" s="18"/>
       <c r="U97" s="18"/>
       <c r="V97" s="140">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="W97" s="17">
         <v>0</v>
@@ -30168,105 +30182,117 @@
         <v>1</v>
       </c>
       <c r="Y97" s="14" t="s">
-        <v>675</v>
+        <v>648</v>
       </c>
       <c r="Z97" s="19">
-        <v>40472</v>
+        <v>40475</v>
       </c>
       <c r="AA97" s="17"/>
       <c r="AB97" s="17"/>
     </row>
-    <row r="98" spans="1:28" s="61" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="221"/>
-      <c r="B98" s="55"/>
-      <c r="C98" s="54" t="s">
+    <row r="98" spans="1:28" s="61" customFormat="1" ht="50" x14ac:dyDescent="0.3">
+      <c r="A98" s="204" t="s">
+        <v>446</v>
+      </c>
+      <c r="B98" s="23"/>
+      <c r="C98" s="266">
+        <v>40468.181250000001</v>
+      </c>
+      <c r="D98" s="23" t="s">
+        <v>677</v>
+      </c>
+      <c r="E98" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="F98" s="23"/>
+      <c r="G98" s="18">
+        <v>206</v>
+      </c>
+      <c r="H98" s="18">
+        <v>2</v>
+      </c>
+      <c r="I98" s="217"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="18"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="18"/>
+      <c r="O98" s="18"/>
+      <c r="P98" s="18"/>
+      <c r="Q98" s="18"/>
+      <c r="R98" s="18"/>
+      <c r="S98" s="18"/>
+      <c r="T98" s="18"/>
+      <c r="U98" s="18"/>
+      <c r="V98" s="140">
+        <v>0.8</v>
+      </c>
+      <c r="W98" s="17">
+        <v>0</v>
+      </c>
+      <c r="X98" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y98" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="Z98" s="19">
+        <v>40472</v>
+      </c>
+      <c r="AA98" s="17"/>
+      <c r="AB98" s="17"/>
+    </row>
+    <row r="99" spans="1:28" s="61" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A99" s="221"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="D98" s="55" t="s">
+      <c r="D99" s="55" t="s">
         <v>808</v>
       </c>
-      <c r="E98" s="55" t="s">
+      <c r="E99" s="55" t="s">
         <v>601</v>
       </c>
-      <c r="F98" s="55"/>
-      <c r="G98" s="56"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="218"/>
-      <c r="J98" s="56"/>
-      <c r="K98" s="56"/>
-      <c r="L98" s="56"/>
-      <c r="M98" s="56"/>
-      <c r="N98" s="56"/>
-      <c r="O98" s="56"/>
-      <c r="P98" s="56"/>
-      <c r="Q98" s="56"/>
-      <c r="R98" s="56"/>
-      <c r="S98" s="56"/>
-      <c r="T98" s="56"/>
-      <c r="U98" s="56"/>
-      <c r="V98" s="213"/>
-      <c r="W98" s="53"/>
-      <c r="X98" s="53"/>
-      <c r="Y98" s="57" t="s">
+      <c r="F99" s="55"/>
+      <c r="G99" s="56"/>
+      <c r="H99" s="56"/>
+      <c r="I99" s="218"/>
+      <c r="J99" s="56"/>
+      <c r="K99" s="56"/>
+      <c r="L99" s="56"/>
+      <c r="M99" s="56"/>
+      <c r="N99" s="56"/>
+      <c r="O99" s="56"/>
+      <c r="P99" s="56"/>
+      <c r="Q99" s="56"/>
+      <c r="R99" s="56"/>
+      <c r="S99" s="56"/>
+      <c r="T99" s="56"/>
+      <c r="U99" s="56"/>
+      <c r="V99" s="213"/>
+      <c r="W99" s="53"/>
+      <c r="X99" s="53"/>
+      <c r="Y99" s="57" t="s">
         <v>809</v>
       </c>
-      <c r="Z98" s="58"/>
-      <c r="AA98" s="53"/>
-      <c r="AB98" s="53"/>
-    </row>
-    <row r="99" spans="1:28" s="61" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="204" t="s">
+      <c r="Z99" s="58"/>
+      <c r="AA99" s="53"/>
+      <c r="AB99" s="53"/>
+    </row>
+    <row r="100" spans="1:28" s="61" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A100" s="204" t="s">
         <v>446</v>
       </c>
-      <c r="B99" s="23"/>
-      <c r="C99" s="36">
+      <c r="B100" s="23"/>
+      <c r="C100" s="266">
         <v>40083.155555555553</v>
       </c>
-      <c r="D99" s="23" t="s">
+      <c r="D100" s="23" t="s">
         <v>808</v>
       </c>
-      <c r="E99" s="23" t="s">
+      <c r="E100" s="23" t="s">
         <v>601</v>
-      </c>
-      <c r="F99" s="23"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="217"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="18"/>
-      <c r="L99" s="18"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="18"/>
-      <c r="O99" s="18"/>
-      <c r="P99" s="18"/>
-      <c r="Q99" s="18"/>
-      <c r="R99" s="18"/>
-      <c r="S99" s="18"/>
-      <c r="T99" s="18"/>
-      <c r="U99" s="18"/>
-      <c r="V99" s="140"/>
-      <c r="W99" s="17"/>
-      <c r="X99" s="17"/>
-      <c r="Y99" s="14" t="s">
-        <v>810</v>
-      </c>
-      <c r="Z99" s="19">
-        <v>42128</v>
-      </c>
-      <c r="AA99" s="17"/>
-      <c r="AB99" s="17"/>
-    </row>
-    <row r="100" spans="1:28" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A100" s="204"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="36">
-        <v>38847</v>
-      </c>
-      <c r="D100" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="E100" s="23" t="s">
-        <v>196</v>
       </c>
       <c r="F100" s="23"/>
       <c r="G100" s="18"/>
@@ -30284,31 +30310,29 @@
       <c r="S100" s="18"/>
       <c r="T100" s="18"/>
       <c r="U100" s="18"/>
-      <c r="V100" s="207"/>
-      <c r="W100" s="17">
-        <v>0</v>
-      </c>
-      <c r="X100" s="17">
-        <v>1</v>
-      </c>
+      <c r="V100" s="140"/>
+      <c r="W100" s="17"/>
+      <c r="X100" s="17"/>
       <c r="Y100" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="Z100" s="19"/>
+        <v>810</v>
+      </c>
+      <c r="Z100" s="19">
+        <v>42128</v>
+      </c>
       <c r="AA100" s="17"/>
       <c r="AB100" s="17"/>
     </row>
-    <row r="101" spans="1:28" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="221"/>
+    <row r="101" spans="1:28" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A101" s="204"/>
       <c r="B101" s="23"/>
-      <c r="C101" s="36">
-        <v>38904</v>
+      <c r="C101" s="266">
+        <v>38847</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E101" s="23" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="F101" s="23"/>
       <c r="G101" s="18"/>
@@ -30327,66 +30351,68 @@
       <c r="T101" s="18"/>
       <c r="U101" s="18"/>
       <c r="V101" s="207"/>
-      <c r="W101" s="17"/>
-      <c r="X101" s="17"/>
-      <c r="Y101" s="14"/>
+      <c r="W101" s="17">
+        <v>0</v>
+      </c>
+      <c r="X101" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y101" s="14" t="s">
+        <v>229</v>
+      </c>
       <c r="Z101" s="19"/>
       <c r="AA101" s="17"/>
       <c r="AB101" s="17"/>
     </row>
-    <row r="102" spans="1:28" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
-      <c r="A102" s="204"/>
-      <c r="B102" s="22"/>
-      <c r="C102" s="36">
-        <v>39490</v>
+    <row r="102" spans="1:28" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A102" s="221"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="266">
+        <v>38904</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="E102" s="23" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="F102" s="23"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="216"/>
-      <c r="J102" s="13"/>
-      <c r="K102" s="13"/>
-      <c r="L102" s="13"/>
-      <c r="M102" s="13"/>
-      <c r="N102" s="13"/>
-      <c r="O102" s="13"/>
-      <c r="P102" s="13"/>
-      <c r="Q102" s="13"/>
-      <c r="R102" s="13"/>
-      <c r="S102" s="13"/>
-      <c r="T102" s="13"/>
-      <c r="U102" s="13"/>
-      <c r="V102" s="143"/>
-      <c r="W102" s="5"/>
-      <c r="X102" s="5"/>
-      <c r="Y102" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="Z102" s="19">
-        <v>39498</v>
-      </c>
-      <c r="AA102" s="5"/>
-      <c r="AB102" s="5"/>
-    </row>
-    <row r="103" spans="1:28" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="217"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="18"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="18"/>
+      <c r="O102" s="18"/>
+      <c r="P102" s="18"/>
+      <c r="Q102" s="18"/>
+      <c r="R102" s="18"/>
+      <c r="S102" s="18"/>
+      <c r="T102" s="18"/>
+      <c r="U102" s="18"/>
+      <c r="V102" s="207"/>
+      <c r="W102" s="17"/>
+      <c r="X102" s="17"/>
+      <c r="Y102" s="14"/>
+      <c r="Z102" s="19"/>
+      <c r="AA102" s="17"/>
+      <c r="AB102" s="17"/>
+    </row>
+    <row r="103" spans="1:28" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="A103" s="204"/>
       <c r="B103" s="22"/>
-      <c r="C103" s="36">
-        <v>39256</v>
-      </c>
-      <c r="D103" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="E103" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="F103" s="22"/>
+      <c r="C103" s="266">
+        <v>39490</v>
+      </c>
+      <c r="D103" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="E103" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="F103" s="23"/>
       <c r="G103" s="13"/>
       <c r="H103" s="13"/>
       <c r="I103" s="216"/>
@@ -30405,26 +30431,28 @@
       <c r="V103" s="143"/>
       <c r="W103" s="5"/>
       <c r="X103" s="5"/>
-      <c r="Y103" s="23"/>
+      <c r="Y103" s="23" t="s">
+        <v>278</v>
+      </c>
       <c r="Z103" s="19">
-        <v>39258</v>
+        <v>39498</v>
       </c>
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" spans="1:28" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:28" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A104" s="204"/>
       <c r="B104" s="22"/>
-      <c r="C104" s="36">
-        <v>39843.979861111111</v>
-      </c>
-      <c r="D104" s="23" t="s">
-        <v>603</v>
-      </c>
-      <c r="E104" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F104" s="23"/>
+      <c r="C104" s="266">
+        <v>39256</v>
+      </c>
+      <c r="D104" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E104" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="F104" s="22"/>
       <c r="G104" s="13"/>
       <c r="H104" s="13"/>
       <c r="I104" s="216"/>
@@ -30441,17 +30469,11 @@
       <c r="T104" s="13"/>
       <c r="U104" s="13"/>
       <c r="V104" s="143"/>
-      <c r="W104" s="17">
-        <v>0</v>
-      </c>
-      <c r="X104" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y104" s="14" t="s">
-        <v>598</v>
-      </c>
+      <c r="W104" s="5"/>
+      <c r="X104" s="5"/>
+      <c r="Y104" s="23"/>
       <c r="Z104" s="19">
-        <v>40415</v>
+        <v>39258</v>
       </c>
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
@@ -30459,14 +30481,14 @@
     <row r="105" spans="1:28" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="A105" s="204"/>
       <c r="B105" s="22"/>
-      <c r="C105" s="36">
-        <v>39460</v>
+      <c r="C105" s="266">
+        <v>39843.979861111111</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>286</v>
+        <v>603</v>
       </c>
       <c r="E105" s="23" t="s">
-        <v>273</v>
+        <v>196</v>
       </c>
       <c r="F105" s="23"/>
       <c r="G105" s="13"/>
@@ -30485,167 +30507,165 @@
       <c r="T105" s="13"/>
       <c r="U105" s="13"/>
       <c r="V105" s="143"/>
-      <c r="W105" s="5"/>
-      <c r="X105" s="5"/>
-      <c r="Y105" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z105" s="38">
-        <v>39498</v>
+      <c r="W105" s="17">
+        <v>0</v>
+      </c>
+      <c r="X105" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y105" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="Z105" s="19">
+        <v>40415</v>
       </c>
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" spans="1:28" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:28" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="A106" s="204"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="36">
+      <c r="B106" s="22"/>
+      <c r="C106" s="266">
+        <v>39460</v>
+      </c>
+      <c r="D106" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="E106" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="F106" s="23"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="216"/>
+      <c r="J106" s="13"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="13"/>
+      <c r="M106" s="13"/>
+      <c r="N106" s="13"/>
+      <c r="O106" s="13"/>
+      <c r="P106" s="13"/>
+      <c r="Q106" s="13"/>
+      <c r="R106" s="13"/>
+      <c r="S106" s="13"/>
+      <c r="T106" s="13"/>
+      <c r="U106" s="13"/>
+      <c r="V106" s="143"/>
+      <c r="W106" s="5"/>
+      <c r="X106" s="5"/>
+      <c r="Y106" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z106" s="38">
+        <v>39498</v>
+      </c>
+      <c r="AA106" s="5"/>
+      <c r="AB106" s="5"/>
+    </row>
+    <row r="107" spans="1:28" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A107" s="204"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="266">
         <v>38810</v>
       </c>
-      <c r="D106" s="23" t="s">
+      <c r="D107" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="E106" s="23" t="s">
+      <c r="E107" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="F106" s="23"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="18"/>
-      <c r="I106" s="217"/>
-      <c r="J106" s="18"/>
-      <c r="K106" s="18"/>
-      <c r="L106" s="18"/>
-      <c r="M106" s="18"/>
-      <c r="N106" s="18"/>
-      <c r="O106" s="18"/>
-      <c r="P106" s="18"/>
-      <c r="Q106" s="18"/>
-      <c r="R106" s="18"/>
-      <c r="S106" s="18"/>
-      <c r="T106" s="18"/>
-      <c r="U106" s="18"/>
-      <c r="V106" s="140" t="s">
+      <c r="F107" s="23"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="217"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="18"/>
+      <c r="L107" s="18"/>
+      <c r="M107" s="18"/>
+      <c r="N107" s="18"/>
+      <c r="O107" s="18"/>
+      <c r="P107" s="18"/>
+      <c r="Q107" s="18"/>
+      <c r="R107" s="18"/>
+      <c r="S107" s="18"/>
+      <c r="T107" s="18"/>
+      <c r="U107" s="18"/>
+      <c r="V107" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="W106" s="17">
-        <v>0</v>
-      </c>
-      <c r="X106" s="17">
+      <c r="W107" s="17">
+        <v>0</v>
+      </c>
+      <c r="X107" s="17">
         <v>1</v>
       </c>
-      <c r="Y106" s="14"/>
-      <c r="Z106" s="19">
+      <c r="Y107" s="14"/>
+      <c r="Z107" s="19">
         <v>38817</v>
       </c>
-      <c r="AA106" s="17"/>
-      <c r="AB106" s="17"/>
-    </row>
-    <row r="107" spans="1:28" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
-      <c r="A107" s="204"/>
-      <c r="B107" s="22"/>
-      <c r="C107" s="36">
+      <c r="AA107" s="17"/>
+      <c r="AB107" s="17"/>
+    </row>
+    <row r="108" spans="1:28" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
+      <c r="A108" s="204"/>
+      <c r="B108" s="22"/>
+      <c r="C108" s="266">
         <v>39490</v>
       </c>
-      <c r="D107" s="23" t="s">
+      <c r="D108" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="E107" s="23" t="s">
+      <c r="E108" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="F107" s="23"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="216"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="143"/>
-      <c r="W107" s="5"/>
-      <c r="X107" s="5"/>
-      <c r="Y107" s="23" t="s">
+      <c r="F108" s="23"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="216"/>
+      <c r="J108" s="13"/>
+      <c r="K108" s="13"/>
+      <c r="L108" s="13"/>
+      <c r="M108" s="13"/>
+      <c r="N108" s="13"/>
+      <c r="O108" s="13"/>
+      <c r="P108" s="13"/>
+      <c r="Q108" s="13"/>
+      <c r="R108" s="13"/>
+      <c r="S108" s="13"/>
+      <c r="T108" s="13"/>
+      <c r="U108" s="13"/>
+      <c r="V108" s="143"/>
+      <c r="W108" s="5"/>
+      <c r="X108" s="5"/>
+      <c r="Y108" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="Z107" s="19">
+      <c r="Z108" s="19">
         <v>39498</v>
       </c>
-      <c r="AA107" s="5"/>
-      <c r="AB107" s="5"/>
-    </row>
-    <row r="108" spans="1:28" s="61" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A108" s="204"/>
-      <c r="B108" s="23"/>
-      <c r="C108" s="36">
+      <c r="AA108" s="5"/>
+      <c r="AB108" s="5"/>
+    </row>
+    <row r="109" spans="1:28" s="61" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A109" s="204"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="266">
         <v>38696</v>
       </c>
-      <c r="D108" s="23" t="s">
+      <c r="D109" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E108" s="23" t="s">
+      <c r="E109" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="F108" s="23"/>
-      <c r="G108" s="18">
+      <c r="F109" s="23"/>
+      <c r="G109" s="18">
         <v>41</v>
       </c>
-      <c r="H108" s="18">
+      <c r="H109" s="18">
         <v>33</v>
       </c>
-      <c r="I108" s="217"/>
-      <c r="J108" s="18"/>
-      <c r="K108" s="18"/>
-      <c r="L108" s="18"/>
-      <c r="M108" s="18"/>
-      <c r="N108" s="18"/>
-      <c r="O108" s="18"/>
-      <c r="P108" s="18"/>
-      <c r="Q108" s="18"/>
-      <c r="R108" s="18"/>
-      <c r="S108" s="18"/>
-      <c r="T108" s="18"/>
-      <c r="U108" s="18"/>
-      <c r="V108" s="140" t="s">
-        <v>197</v>
-      </c>
-      <c r="W108" s="17">
-        <v>0</v>
-      </c>
-      <c r="X108" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y108" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z108" s="25">
-        <v>38707</v>
-      </c>
-      <c r="AA108" s="17"/>
-      <c r="AB108" s="17"/>
-    </row>
-    <row r="109" spans="1:28" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
-      <c r="A109" s="204"/>
-      <c r="B109" s="22"/>
-      <c r="C109" s="36">
-        <v>39081</v>
-      </c>
-      <c r="D109" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="E109" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F109" s="22"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="216"/>
+      <c r="I109" s="217"/>
       <c r="J109" s="18"/>
       <c r="K109" s="18"/>
       <c r="L109" s="18"/>
@@ -30657,120 +30677,121 @@
       <c r="R109" s="18"/>
       <c r="S109" s="18"/>
       <c r="T109" s="18"/>
-      <c r="U109" s="13"/>
-      <c r="V109" s="143"/>
-      <c r="W109" s="5"/>
-      <c r="X109" s="5"/>
-      <c r="Y109" s="14" t="s">
-        <v>660</v>
-      </c>
-      <c r="Z109" s="19">
-        <v>40506</v>
+      <c r="U109" s="18"/>
+      <c r="V109" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="W109" s="17">
+        <v>0</v>
+      </c>
+      <c r="X109" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y109" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z109" s="25">
+        <v>38707</v>
       </c>
       <c r="AA109" s="17"/>
       <c r="AB109" s="17"/>
     </row>
-    <row r="110" spans="1:28" s="12" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="221"/>
+    <row r="110" spans="1:28" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
+      <c r="A110" s="204"/>
       <c r="B110" s="22"/>
-      <c r="C110" s="36">
-        <v>39490</v>
-      </c>
-      <c r="D110" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="E110" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="F110" s="23"/>
+      <c r="C110" s="266">
+        <v>39081</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="E110" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F110" s="22"/>
       <c r="G110" s="13"/>
       <c r="H110" s="13"/>
       <c r="I110" s="216"/>
-      <c r="J110" s="13"/>
-      <c r="K110" s="13"/>
-      <c r="L110" s="13"/>
-      <c r="M110" s="13"/>
-      <c r="N110" s="13"/>
-      <c r="O110" s="13"/>
-      <c r="P110" s="13"/>
-      <c r="Q110" s="13"/>
-      <c r="R110" s="13"/>
-      <c r="S110" s="13"/>
-      <c r="T110" s="13"/>
+      <c r="J110" s="18"/>
+      <c r="K110" s="18"/>
+      <c r="L110" s="18"/>
+      <c r="M110" s="18"/>
+      <c r="N110" s="18"/>
+      <c r="O110" s="18"/>
+      <c r="P110" s="18"/>
+      <c r="Q110" s="18"/>
+      <c r="R110" s="18"/>
+      <c r="S110" s="18"/>
+      <c r="T110" s="18"/>
       <c r="U110" s="13"/>
       <c r="V110" s="143"/>
       <c r="W110" s="5"/>
       <c r="X110" s="5"/>
-      <c r="Y110" s="41" t="s">
+      <c r="Y110" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z110" s="19">
+        <v>40506</v>
+      </c>
+      <c r="AA110" s="17"/>
+      <c r="AB110" s="17"/>
+    </row>
+    <row r="111" spans="1:28" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
+      <c r="A111" s="221"/>
+      <c r="B111" s="22"/>
+      <c r="C111" s="266">
+        <v>39490</v>
+      </c>
+      <c r="D111" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="E111" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="F111" s="23"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="216"/>
+      <c r="J111" s="13"/>
+      <c r="K111" s="13"/>
+      <c r="L111" s="13"/>
+      <c r="M111" s="13"/>
+      <c r="N111" s="13"/>
+      <c r="O111" s="13"/>
+      <c r="P111" s="13"/>
+      <c r="Q111" s="13"/>
+      <c r="R111" s="13"/>
+      <c r="S111" s="13"/>
+      <c r="T111" s="13"/>
+      <c r="U111" s="13"/>
+      <c r="V111" s="143"/>
+      <c r="W111" s="5"/>
+      <c r="X111" s="5"/>
+      <c r="Y111" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="Z110" s="19">
+      <c r="Z111" s="19">
         <v>39498</v>
       </c>
-      <c r="AA110" s="5"/>
-      <c r="AB110" s="5"/>
-    </row>
-    <row r="111" spans="1:28" s="12" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="204"/>
-      <c r="B111" s="23"/>
-      <c r="C111" s="36">
+      <c r="AA111" s="5"/>
+      <c r="AB111" s="5"/>
+    </row>
+    <row r="112" spans="1:28" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A112" s="204"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="266">
         <v>38847</v>
       </c>
-      <c r="D111" s="23" t="s">
+      <c r="D112" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="E111" s="23" t="s">
+      <c r="E112" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="F111" s="23"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
-      <c r="I111" s="217"/>
-      <c r="J111" s="18"/>
-      <c r="K111" s="18"/>
-      <c r="L111" s="18"/>
-      <c r="M111" s="18"/>
-      <c r="N111" s="18"/>
-      <c r="O111" s="18"/>
-      <c r="P111" s="18"/>
-      <c r="Q111" s="18"/>
-      <c r="R111" s="18"/>
-      <c r="S111" s="18"/>
-      <c r="T111" s="18"/>
-      <c r="U111" s="18"/>
-      <c r="V111" s="140"/>
-      <c r="W111" s="17">
-        <v>0</v>
-      </c>
-      <c r="X111" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y111" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="Z111" s="19"/>
-      <c r="AA111" s="17"/>
-      <c r="AB111" s="17"/>
-    </row>
-    <row r="112" spans="1:28" s="12" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="204"/>
-      <c r="B112" s="63"/>
-      <c r="C112" s="36">
-        <v>38224</v>
-      </c>
-      <c r="D112" s="17"/>
-      <c r="E112" s="23"/>
       <c r="F112" s="23"/>
-      <c r="G112" s="18">
-        <f>32.8*60</f>
-        <v>1967.9999999999998</v>
-      </c>
-      <c r="H112" s="18">
-        <v>1200</v>
-      </c>
-      <c r="I112" s="217">
-        <v>-11.12</v>
-      </c>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="217"/>
       <c r="J112" s="18"/>
       <c r="K112" s="18"/>
       <c r="L112" s="18"/>
@@ -30782,10 +30803,8 @@
       <c r="R112" s="18"/>
       <c r="S112" s="18"/>
       <c r="T112" s="18"/>
-      <c r="U112" s="18">
-        <v>21</v>
-      </c>
-      <c r="V112" s="210"/>
+      <c r="U112" s="18"/>
+      <c r="V112" s="140"/>
       <c r="W112" s="17">
         <v>0</v>
       </c>
@@ -30793,18 +30812,16 @@
         <v>1</v>
       </c>
       <c r="Y112" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="Z112" s="25">
-        <v>38644</v>
-      </c>
-      <c r="AA112" s="30"/>
-      <c r="AB112" s="31"/>
-    </row>
-    <row r="113" spans="1:28" s="12" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="Z112" s="19"/>
+      <c r="AA112" s="17"/>
+      <c r="AB112" s="17"/>
+    </row>
+    <row r="113" spans="1:28" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="A113" s="204"/>
       <c r="B113" s="63"/>
-      <c r="C113" s="36">
+      <c r="C113" s="266">
         <v>38224</v>
       </c>
       <c r="D113" s="17"/>
@@ -30842,7 +30859,7 @@
         <v>1</v>
       </c>
       <c r="Y113" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Z113" s="25">
         <v>38644</v>
@@ -30850,10 +30867,10 @@
       <c r="AA113" s="30"/>
       <c r="AB113" s="31"/>
     </row>
-    <row r="114" spans="1:28" s="12" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:28" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="A114" s="204"/>
       <c r="B114" s="63"/>
-      <c r="C114" s="36">
+      <c r="C114" s="266">
         <v>38224</v>
       </c>
       <c r="D114" s="17"/>
@@ -30891,7 +30908,7 @@
         <v>1</v>
       </c>
       <c r="Y114" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Z114" s="25">
         <v>38644</v>
@@ -30899,10 +30916,10 @@
       <c r="AA114" s="30"/>
       <c r="AB114" s="31"/>
     </row>
-    <row r="115" spans="1:28" s="12" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:28" s="12" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="A115" s="204"/>
       <c r="B115" s="63"/>
-      <c r="C115" s="36">
+      <c r="C115" s="266">
         <v>38224</v>
       </c>
       <c r="D115" s="17"/>
@@ -30940,7 +30957,7 @@
         <v>1</v>
       </c>
       <c r="Y115" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z115" s="25">
         <v>38644</v>
@@ -30948,23 +30965,24 @@
       <c r="AA115" s="30"/>
       <c r="AB115" s="31"/>
     </row>
-    <row r="116" spans="1:28" s="12" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:28" s="12" customFormat="1" ht="50" x14ac:dyDescent="0.3">
       <c r="A116" s="204"/>
       <c r="B116" s="63"/>
-      <c r="C116" s="36">
-        <v>38369</v>
-      </c>
-      <c r="D116" s="23"/>
+      <c r="C116" s="266">
+        <v>38224</v>
+      </c>
+      <c r="D116" s="17"/>
       <c r="E116" s="23"/>
       <c r="F116" s="23"/>
       <c r="G116" s="18">
-        <v>1842</v>
+        <f>32.8*60</f>
+        <v>1967.9999999999998</v>
       </c>
       <c r="H116" s="18">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="I116" s="217">
-        <v>-10.4</v>
+        <v>-11.12</v>
       </c>
       <c r="J116" s="18"/>
       <c r="K116" s="18"/>
@@ -30977,8 +30995,10 @@
       <c r="R116" s="18"/>
       <c r="S116" s="18"/>
       <c r="T116" s="18"/>
-      <c r="U116" s="18"/>
-      <c r="V116" s="211"/>
+      <c r="U116" s="18">
+        <v>21</v>
+      </c>
+      <c r="V116" s="210"/>
       <c r="W116" s="17">
         <v>0</v>
       </c>
@@ -30986,7 +31006,7 @@
         <v>1</v>
       </c>
       <c r="Y116" s="14" t="s">
-        <v>148</v>
+        <v>409</v>
       </c>
       <c r="Z116" s="25">
         <v>38644</v>
@@ -30994,24 +31014,24 @@
       <c r="AA116" s="30"/>
       <c r="AB116" s="31"/>
     </row>
-    <row r="117" spans="1:28" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:28" s="12" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A117" s="204"/>
-      <c r="B117" s="23"/>
-      <c r="C117" s="36">
-        <v>38696</v>
+      <c r="B117" s="63"/>
+      <c r="C117" s="266">
+        <v>38369</v>
       </c>
       <c r="D117" s="23"/>
-      <c r="E117" s="23" t="s">
-        <v>196</v>
-      </c>
+      <c r="E117" s="23"/>
       <c r="F117" s="23"/>
       <c r="G117" s="18">
-        <v>104</v>
+        <v>1842</v>
       </c>
       <c r="H117" s="18">
-        <v>104</v>
-      </c>
-      <c r="I117" s="217"/>
+        <v>900</v>
+      </c>
+      <c r="I117" s="217">
+        <v>-10.4</v>
+      </c>
       <c r="J117" s="18"/>
       <c r="K117" s="18"/>
       <c r="L117" s="18"/>
@@ -31024,26 +31044,26 @@
       <c r="S117" s="18"/>
       <c r="T117" s="18"/>
       <c r="U117" s="18"/>
-      <c r="V117" s="140" t="s">
-        <v>197</v>
-      </c>
+      <c r="V117" s="211"/>
       <c r="W117" s="17">
         <v>0</v>
       </c>
       <c r="X117" s="17">
         <v>1</v>
       </c>
-      <c r="Y117" s="14"/>
-      <c r="Z117" s="19">
-        <v>38729</v>
-      </c>
-      <c r="AA117" s="17"/>
-      <c r="AB117" s="17"/>
+      <c r="Y117" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z117" s="25">
+        <v>38644</v>
+      </c>
+      <c r="AA117" s="30"/>
+      <c r="AB117" s="31"/>
     </row>
     <row r="118" spans="1:28" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A118" s="204"/>
       <c r="B118" s="23"/>
-      <c r="C118" s="36">
+      <c r="C118" s="266">
         <v>38696</v>
       </c>
       <c r="D118" s="23"/>
@@ -31089,7 +31109,7 @@
     <row r="119" spans="1:28" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A119" s="204"/>
       <c r="B119" s="23"/>
-      <c r="C119" s="36">
+      <c r="C119" s="266">
         <v>38696</v>
       </c>
       <c r="D119" s="23"/>
@@ -31135,7 +31155,7 @@
     <row r="120" spans="1:28" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A120" s="204"/>
       <c r="B120" s="23"/>
-      <c r="C120" s="36">
+      <c r="C120" s="266">
         <v>38696</v>
       </c>
       <c r="D120" s="23"/>
@@ -31181,7 +31201,7 @@
     <row r="121" spans="1:28" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A121" s="204"/>
       <c r="B121" s="23"/>
-      <c r="C121" s="36">
+      <c r="C121" s="266">
         <v>38696</v>
       </c>
       <c r="D121" s="23"/>
@@ -31224,101 +31244,103 @@
       <c r="AA121" s="17"/>
       <c r="AB121" s="17"/>
     </row>
-    <row r="122" spans="1:28" s="5" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="17"/>
-      <c r="B122" s="24"/>
-      <c r="C122" s="36">
+    <row r="122" spans="1:28" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A122" s="204"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="266">
+        <v>38696</v>
+      </c>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="F122" s="23"/>
+      <c r="G122" s="18">
+        <v>104</v>
+      </c>
+      <c r="H122" s="18">
+        <v>104</v>
+      </c>
+      <c r="I122" s="217"/>
+      <c r="J122" s="18"/>
+      <c r="K122" s="18"/>
+      <c r="L122" s="18"/>
+      <c r="M122" s="18"/>
+      <c r="N122" s="18"/>
+      <c r="O122" s="18"/>
+      <c r="P122" s="18"/>
+      <c r="Q122" s="18"/>
+      <c r="R122" s="18"/>
+      <c r="S122" s="18"/>
+      <c r="T122" s="18"/>
+      <c r="U122" s="18"/>
+      <c r="V122" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="W122" s="17">
+        <v>0</v>
+      </c>
+      <c r="X122" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y122" s="14"/>
+      <c r="Z122" s="19">
+        <v>38729</v>
+      </c>
+      <c r="AA122" s="17"/>
+      <c r="AB122" s="17"/>
+    </row>
+    <row r="123" spans="1:28" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A123" s="17"/>
+      <c r="B123" s="24"/>
+      <c r="C123" s="266">
         <v>40376.125</v>
       </c>
-      <c r="D122" s="24"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="24"/>
-      <c r="G122" s="20"/>
-      <c r="H122" s="20"/>
-      <c r="I122" s="219"/>
-      <c r="J122" s="20"/>
-      <c r="K122" s="20"/>
-      <c r="L122" s="20"/>
-      <c r="M122" s="20"/>
-      <c r="N122" s="20"/>
-      <c r="O122" s="20"/>
-      <c r="P122" s="20"/>
-      <c r="Q122" s="20"/>
-      <c r="R122" s="20"/>
-      <c r="S122" s="20"/>
-      <c r="T122" s="20"/>
-      <c r="U122" s="20"/>
-      <c r="V122" s="212"/>
-      <c r="W122" s="17">
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="20"/>
+      <c r="H123" s="20"/>
+      <c r="I123" s="219"/>
+      <c r="J123" s="20"/>
+      <c r="K123" s="20"/>
+      <c r="L123" s="20"/>
+      <c r="M123" s="20"/>
+      <c r="N123" s="20"/>
+      <c r="O123" s="20"/>
+      <c r="P123" s="20"/>
+      <c r="Q123" s="20"/>
+      <c r="R123" s="20"/>
+      <c r="S123" s="20"/>
+      <c r="T123" s="20"/>
+      <c r="U123" s="20"/>
+      <c r="V123" s="212"/>
+      <c r="W123" s="17">
         <v>1</v>
       </c>
-      <c r="X122" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y122" s="14" t="s">
+      <c r="X123" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y123" s="14" t="s">
         <v>596</v>
       </c>
-      <c r="Z122" s="21">
+      <c r="Z123" s="21">
         <v>40415</v>
       </c>
     </row>
-    <row r="123" spans="1:28" s="5" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="204" t="s">
+    <row r="124" spans="1:28" s="5" customFormat="1" ht="50" x14ac:dyDescent="0.25">
+      <c r="A124" s="204" t="s">
         <v>595</v>
       </c>
-      <c r="B123" s="23"/>
-      <c r="C123" s="36">
+      <c r="B124" s="23"/>
+      <c r="C124" s="266">
         <v>40466.122916666667</v>
       </c>
-      <c r="D123" s="23" t="s">
+      <c r="D124" s="23" t="s">
         <v>647</v>
       </c>
-      <c r="E123" s="23" t="s">
+      <c r="E124" s="23" t="s">
         <v>224</v>
-      </c>
-      <c r="F123" s="23"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="13"/>
-      <c r="I123" s="216"/>
-      <c r="J123" s="13"/>
-      <c r="K123" s="13"/>
-      <c r="L123" s="13"/>
-      <c r="M123" s="13"/>
-      <c r="N123" s="13"/>
-      <c r="O123" s="13"/>
-      <c r="P123" s="13"/>
-      <c r="Q123" s="13"/>
-      <c r="R123" s="13"/>
-      <c r="S123" s="13"/>
-      <c r="T123" s="13"/>
-      <c r="U123" s="13"/>
-      <c r="V123" s="143">
-        <v>0.6</v>
-      </c>
-      <c r="W123" s="5">
-        <v>0</v>
-      </c>
-      <c r="X123" s="5">
-        <v>2</v>
-      </c>
-      <c r="Y123" s="23" t="s">
-        <v>695</v>
-      </c>
-      <c r="Z123" s="6">
-        <v>40551</v>
-      </c>
-    </row>
-    <row r="124" spans="1:28" s="5" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="204"/>
-      <c r="B124" s="23"/>
-      <c r="C124" s="36">
-        <v>40763</v>
-      </c>
-      <c r="D124" s="23" t="s">
-        <v>601</v>
-      </c>
-      <c r="E124" s="23" t="s">
-        <v>601</v>
       </c>
       <c r="F124" s="23"/>
       <c r="G124" s="13"/>
@@ -31336,31 +31358,33 @@
       <c r="S124" s="13"/>
       <c r="T124" s="13"/>
       <c r="U124" s="13"/>
-      <c r="V124" s="143"/>
+      <c r="V124" s="143">
+        <v>0.6</v>
+      </c>
       <c r="W124" s="5">
         <v>0</v>
       </c>
       <c r="X124" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y124" s="23" t="s">
-        <v>730</v>
+        <v>695</v>
       </c>
       <c r="Z124" s="6">
-        <v>40764</v>
-      </c>
-    </row>
-    <row r="125" spans="1:28" s="5" customFormat="1" ht="50" x14ac:dyDescent="0.25">
+        <v>40551</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28" s="5" customFormat="1" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A125" s="204"/>
       <c r="B125" s="23"/>
-      <c r="C125" s="36">
+      <c r="C125" s="266">
         <v>40763</v>
       </c>
       <c r="D125" s="23" t="s">
-        <v>205</v>
+        <v>601</v>
       </c>
       <c r="E125" s="23" t="s">
-        <v>196</v>
+        <v>601</v>
       </c>
       <c r="F125" s="23"/>
       <c r="G125" s="13"/>
@@ -31386,23 +31410,25 @@
         <v>1</v>
       </c>
       <c r="Y125" s="23" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="Z125" s="6">
         <v>40764</v>
       </c>
     </row>
-    <row r="126" spans="1:28" s="5" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="17"/>
-      <c r="B126" s="205" t="s">
-        <v>630</v>
-      </c>
-      <c r="C126" s="36"/>
+    <row r="126" spans="1:28" s="5" customFormat="1" ht="50" x14ac:dyDescent="0.25">
+      <c r="A126" s="204"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="266">
+        <v>40763</v>
+      </c>
       <c r="D126" s="23" t="s">
-        <v>631</v>
-      </c>
-      <c r="E126" s="22"/>
-      <c r="F126" s="22"/>
+        <v>205</v>
+      </c>
+      <c r="E126" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="F126" s="23"/>
       <c r="G126" s="13"/>
       <c r="H126" s="13"/>
       <c r="I126" s="216"/>
@@ -31419,22 +31445,30 @@
       <c r="T126" s="13"/>
       <c r="U126" s="13"/>
       <c r="V126" s="143"/>
-      <c r="Y126" s="22"/>
-      <c r="Z126" s="6"/>
-    </row>
-    <row r="127" spans="1:28" s="5" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W126" s="5">
+        <v>0</v>
+      </c>
+      <c r="X126" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y126" s="23" t="s">
+        <v>729</v>
+      </c>
+      <c r="Z126" s="6">
+        <v>40764</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28" s="5" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A127" s="17"/>
       <c r="B127" s="205" t="s">
         <v>630</v>
       </c>
       <c r="C127" s="36"/>
       <c r="D127" s="23" t="s">
-        <v>633</v>
-      </c>
-      <c r="E127" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="F127" s="23"/>
+        <v>631</v>
+      </c>
+      <c r="E127" s="22"/>
+      <c r="F127" s="22"/>
       <c r="G127" s="13"/>
       <c r="H127" s="13"/>
       <c r="I127" s="216"/>
@@ -31454,17 +31488,17 @@
       <c r="Y127" s="22"/>
       <c r="Z127" s="6"/>
     </row>
-    <row r="128" spans="1:28" s="5" customFormat="1" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" s="5" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A128" s="17"/>
       <c r="B128" s="205" t="s">
         <v>630</v>
       </c>
       <c r="C128" s="36"/>
       <c r="D128" s="23" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E128" s="23" t="s">
-        <v>635</v>
+        <v>198</v>
       </c>
       <c r="F128" s="23"/>
       <c r="G128" s="13"/>
@@ -31486,12 +31520,18 @@
       <c r="Y128" s="22"/>
       <c r="Z128" s="6"/>
     </row>
-    <row r="129" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" s="5" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A129" s="17"/>
-      <c r="B129" s="205"/>
+      <c r="B129" s="205" t="s">
+        <v>630</v>
+      </c>
       <c r="C129" s="36"/>
-      <c r="D129" s="23"/>
-      <c r="E129" s="23"/>
+      <c r="D129" s="23" t="s">
+        <v>634</v>
+      </c>
+      <c r="E129" s="23" t="s">
+        <v>635</v>
+      </c>
       <c r="F129" s="23"/>
       <c r="G129" s="13"/>
       <c r="H129" s="13"/>
@@ -31512,18 +31552,12 @@
       <c r="Y129" s="22"/>
       <c r="Z129" s="6"/>
     </row>
-    <row r="130" spans="1:26" s="5" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="17"/>
-      <c r="B130" s="205" t="s">
-        <v>630</v>
-      </c>
+      <c r="B130" s="205"/>
       <c r="C130" s="36"/>
-      <c r="D130" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="E130" s="23" t="s">
-        <v>222</v>
-      </c>
+      <c r="D130" s="23"/>
+      <c r="E130" s="23"/>
       <c r="F130" s="23"/>
       <c r="G130" s="13"/>
       <c r="H130" s="13"/>
@@ -31551,7 +31585,7 @@
       </c>
       <c r="C131" s="36"/>
       <c r="D131" s="23" t="s">
-        <v>636</v>
+        <v>181</v>
       </c>
       <c r="E131" s="23" t="s">
         <v>222</v>
@@ -31576,13 +31610,19 @@
       <c r="Y131" s="22"/>
       <c r="Z131" s="6"/>
     </row>
-    <row r="132" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" s="5" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A132" s="17"/>
-      <c r="B132" s="22"/>
+      <c r="B132" s="205" t="s">
+        <v>630</v>
+      </c>
       <c r="C132" s="36"/>
-      <c r="D132" s="22"/>
-      <c r="E132" s="22"/>
-      <c r="F132" s="22"/>
+      <c r="D132" s="23" t="s">
+        <v>636</v>
+      </c>
+      <c r="E132" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="F132" s="23"/>
       <c r="G132" s="13"/>
       <c r="H132" s="13"/>
       <c r="I132" s="216"/>
@@ -32486,20 +32526,34 @@
       <c r="Y166" s="22"/>
       <c r="Z166" s="6"/>
     </row>
+    <row r="167" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="17"/>
+      <c r="B167" s="22"/>
+      <c r="C167" s="36"/>
+      <c r="D167" s="22"/>
+      <c r="E167" s="22"/>
+      <c r="F167" s="22"/>
+      <c r="G167" s="13"/>
+      <c r="H167" s="13"/>
+      <c r="I167" s="216"/>
+      <c r="J167" s="13"/>
+      <c r="K167" s="13"/>
+      <c r="L167" s="13"/>
+      <c r="M167" s="13"/>
+      <c r="N167" s="13"/>
+      <c r="O167" s="13"/>
+      <c r="P167" s="13"/>
+      <c r="Q167" s="13"/>
+      <c r="R167" s="13"/>
+      <c r="S167" s="13"/>
+      <c r="T167" s="13"/>
+      <c r="U167" s="13"/>
+      <c r="V167" s="143"/>
+      <c r="Y167" s="22"/>
+      <c r="Z167" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AB128" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Crater"/>
-        <filter val="Craters"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="FFC"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AB129" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="19" orientation="landscape" r:id="rId1"/>
@@ -32517,7 +32571,7 @@
   </sheetPr>
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A105" sqref="A105"/>

--- a/SS-OBS-DB.xlsx
+++ b/SS-OBS-DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Astronomy\Projects\GeneralDocumentation\ObservingReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B525063-7C6A-4FC8-99EF-5311A4D36180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517F584E-2CE7-4B42-B566-2E41353A4844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" tabRatio="700" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29910" yWindow="1395" windowWidth="16575" windowHeight="13500" tabRatio="700" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="8" r:id="rId1"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="835">
   <si>
     <r>
       <t>Imaging</t>
@@ -8325,7 +8325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="268">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -9081,6 +9081,9 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="12" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13571,9 +13574,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
+              <a:schemeClr val="accent1">
+                <a:alpha val="25000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -13585,10 +13587,10 @@
           <c:invertIfNegative val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Mars!$F$114:$F$117</c:f>
+              <c:f>Mars!$F$114:$F$147</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>237</c:v>
                 </c:pt>
@@ -13600,16 +13602,64 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Mars!$G$114:$G$117</c:f>
+              <c:f>Mars!$G$114:$G$147</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>12.5</c:v>
                 </c:pt>
@@ -13621,16 +13671,64 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>Mars!$Y$114:$Y$117</c:f>
+              <c:f>Mars!$Y$114:$Y$147</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0.85741203863731208</c:v>
                 </c:pt>
@@ -13642,6 +13740,54 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.2106205692696455</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82940573544883622</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.330703483965108</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9413174399786064</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0680499733415203</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1495119171773631</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4144257057082155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1335007433937638</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6160954714877225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3823441762017117</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4099838977082526</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4797541315657996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4346854778125266</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2844566319682831</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2694337473838584</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1632764504911628</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.086996406755921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14839,9 +14985,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
+              <a:schemeClr val="accent1">
+                <a:alpha val="25000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -14853,10 +14998,10 @@
           <c:invertIfNegative val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Mars!$F$114:$F$117</c:f>
+              <c:f>Mars!$F$114:$F$147</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>237</c:v>
                 </c:pt>
@@ -14868,16 +15013,64 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Mars!$E$114:$E$117</c:f>
+              <c:f>Mars!$E$114:$E$147</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>117.8</c:v>
                 </c:pt>
@@ -14889,16 +15082,64 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>275.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>344.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>238.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>324.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>128.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>271.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>156.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>92.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>Mars!$Y$114:$Y$117</c:f>
+              <c:f>Mars!$Y$114:$Y$147</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0.85741203863731208</c:v>
                 </c:pt>
@@ -14910,6 +15151,54 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.2106205692696455</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82940573544883622</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.330703483965108</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9413174399786064</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0680499733415203</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1495119171773631</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4144257057082155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1335007433937638</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6160954714877225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3823441762017117</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4099838977082526</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4797541315657996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4346854778125266</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2844566319682831</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2694337473838584</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1632764504911628</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.086996406755921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16258,7 +16547,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16334,7 +16623,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8654143" cy="6277429"/>
+    <xdr:ext cx="12981214" cy="9416143"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -35665,13 +35954,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA125"/>
+  <dimension ref="A1:AA133"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D102" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A105" sqref="A105"/>
-      <selection pane="bottomRight" activeCell="F113" sqref="F113"/>
+      <selection pane="bottomRight" activeCell="M133" sqref="M133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -44142,195 +44431,1155 @@
     </row>
     <row r="118" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B118" s="22"/>
-      <c r="C118" s="36"/>
-      <c r="D118" s="123"/>
-      <c r="E118" s="126"/>
-      <c r="F118" s="114"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="13"/>
-      <c r="I118" s="13"/>
-      <c r="J118" s="121"/>
+      <c r="C118" s="36">
+        <v>44076.25</v>
+      </c>
+      <c r="D118" s="123">
+        <v>0.08</v>
+      </c>
+      <c r="E118" s="126">
+        <v>275.39999999999998</v>
+      </c>
+      <c r="F118" s="114">
+        <v>270</v>
+      </c>
+      <c r="G118" s="13">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="H118" s="13">
+        <v>-1.8</v>
+      </c>
+      <c r="I118" s="13">
+        <f t="shared" ref="I118" si="154">-LOG((1/(G118^2))*(2.511^(-H118)))/LOG(2.511)</f>
+        <v>4.6076223538567387</v>
+      </c>
+      <c r="J118" s="121" t="s">
+        <v>435</v>
+      </c>
       <c r="K118" s="121"/>
       <c r="L118" s="121"/>
-      <c r="M118" s="13"/>
-      <c r="N118" s="143"/>
+      <c r="M118" s="13">
+        <v>27</v>
+      </c>
+      <c r="N118" s="267">
+        <v>0.8</v>
+      </c>
+      <c r="O118" s="5">
+        <v>0</v>
+      </c>
+      <c r="P118" s="5">
+        <v>1</v>
+      </c>
       <c r="Q118" s="22"/>
-      <c r="R118" s="6"/>
-      <c r="S118" s="62"/>
-      <c r="T118" s="6"/>
-      <c r="U118" s="114"/>
-      <c r="V118" s="114"/>
-      <c r="W118" s="26"/>
-      <c r="X118" s="26"/>
-      <c r="Y118" s="26"/>
+      <c r="R118" s="6">
+        <v>44053</v>
+      </c>
+      <c r="S118" s="62">
+        <v>0.42</v>
+      </c>
+      <c r="T118" s="256">
+        <f t="shared" ref="T118" si="155">1/SIN(RADIANS(M118+244/(165+47*M118^1.1)))</f>
+        <v>2.1931939234339084</v>
+      </c>
+      <c r="U118" s="114">
+        <f t="shared" ref="U118" si="156">DEGREES(ASIN(SIN(RADIANS(F118))*SIN(RADIANS(25.19))))</f>
+        <v>-25.19</v>
+      </c>
+      <c r="V118" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W118" s="26">
+        <f t="shared" ref="W118" si="157">668.5921*MOD((C118-Z$1),686.9726)/686.9726</f>
+        <v>514.57779508928706</v>
+      </c>
+      <c r="X118" s="26">
+        <f t="shared" ref="X118" si="158">(S118/(G118/2))*T118/(IF(ISBLANK(N118),0.5,N118))</f>
+        <v>0.12056825233537191</v>
+      </c>
+      <c r="Y118" s="26">
+        <f t="shared" ref="Y118" si="159">0.1/X118</f>
+        <v>0.82940573544883622</v>
+      </c>
     </row>
     <row r="119" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B119" s="22"/>
-      <c r="C119" s="36"/>
-      <c r="D119" s="123"/>
-      <c r="E119" s="126"/>
-      <c r="F119" s="114"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="13"/>
-      <c r="I119" s="13"/>
-      <c r="J119" s="121"/>
+      <c r="C119" s="36">
+        <v>44078.5</v>
+      </c>
+      <c r="D119" s="123">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E119" s="126">
+        <v>344.7</v>
+      </c>
+      <c r="F119" s="114">
+        <v>272</v>
+      </c>
+      <c r="G119" s="13">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="H119" s="13">
+        <v>-1.9</v>
+      </c>
+      <c r="I119" s="13">
+        <f t="shared" ref="I119" si="160">-LOG((1/(G119^2))*(2.511^(-H119)))/LOG(2.511)</f>
+        <v>4.5414771410404358</v>
+      </c>
+      <c r="J119" s="121" t="s">
+        <v>435</v>
+      </c>
       <c r="K119" s="121"/>
       <c r="L119" s="121"/>
-      <c r="M119" s="13"/>
-      <c r="N119" s="143"/>
+      <c r="M119" s="13">
+        <v>46</v>
+      </c>
+      <c r="N119" s="267">
+        <v>0.8</v>
+      </c>
+      <c r="O119" s="5">
+        <v>0</v>
+      </c>
+      <c r="P119" s="5">
+        <v>1</v>
+      </c>
       <c r="Q119" s="22"/>
-      <c r="R119" s="6"/>
-      <c r="S119" s="62"/>
-      <c r="T119" s="6"/>
-      <c r="U119" s="114"/>
-      <c r="V119" s="114"/>
-      <c r="W119" s="26"/>
-      <c r="X119" s="26"/>
-      <c r="Y119" s="26"/>
+      <c r="R119" s="6">
+        <v>44053</v>
+      </c>
+      <c r="S119" s="62">
+        <v>0.42</v>
+      </c>
+      <c r="T119" s="256">
+        <f t="shared" ref="T119" si="161">1/SIN(RADIANS(M119+244/(165+47*M119^1.1)))</f>
+        <v>1.3884528521062274</v>
+      </c>
+      <c r="U119" s="114">
+        <f t="shared" ref="U119" si="162">DEGREES(ASIN(SIN(RADIANS(F119))*SIN(RADIANS(25.19))))</f>
+        <v>-25.173584421552981</v>
+      </c>
+      <c r="V119" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W119" s="26">
+        <f t="shared" ref="W119" si="163">668.5921*MOD((C119-Z$1),686.9726)/686.9726</f>
+        <v>516.76759454417061</v>
+      </c>
+      <c r="X119" s="26">
+        <f t="shared" ref="X119" si="164">(S119/(G119/2))*T119/(IF(ISBLANK(N119),0.5,N119))</f>
+        <v>7.5148221376883442E-2</v>
+      </c>
+      <c r="Y119" s="26">
+        <f t="shared" ref="Y119" si="165">0.1/X119</f>
+        <v>1.330703483965108</v>
+      </c>
     </row>
     <row r="120" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B120" s="22"/>
-      <c r="C120" s="36"/>
-      <c r="D120" s="123"/>
-      <c r="E120" s="126"/>
-      <c r="F120" s="114"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="13"/>
-      <c r="J120" s="121"/>
+      <c r="C120" s="36">
+        <v>44080.25</v>
+      </c>
+      <c r="D120" s="123">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E120" s="126">
+        <v>238.7</v>
+      </c>
+      <c r="F120" s="114">
+        <v>273</v>
+      </c>
+      <c r="G120" s="13">
+        <v>19.7</v>
+      </c>
+      <c r="H120" s="13">
+        <v>-1.9</v>
+      </c>
+      <c r="I120" s="13">
+        <f t="shared" ref="I120" si="166">-LOG((1/(G120^2))*(2.511^(-H120)))/LOG(2.511)</f>
+        <v>4.5748123968745968</v>
+      </c>
+      <c r="J120" s="121" t="s">
+        <v>435</v>
+      </c>
       <c r="K120" s="121"/>
       <c r="L120" s="121"/>
-      <c r="M120" s="13"/>
-      <c r="N120" s="143"/>
+      <c r="M120" s="13">
+        <v>30</v>
+      </c>
+      <c r="N120" s="267">
+        <v>0.8</v>
+      </c>
+      <c r="O120" s="5">
+        <v>0</v>
+      </c>
+      <c r="P120" s="5">
+        <v>1</v>
+      </c>
       <c r="Q120" s="22"/>
-      <c r="R120" s="6"/>
-      <c r="S120" s="62"/>
-      <c r="T120" s="6"/>
-      <c r="U120" s="114"/>
-      <c r="V120" s="114"/>
-      <c r="W120" s="26"/>
-      <c r="X120" s="26"/>
-      <c r="Y120" s="26"/>
+      <c r="R120" s="6">
+        <v>44053</v>
+      </c>
+      <c r="S120" s="62">
+        <v>0.42</v>
+      </c>
+      <c r="T120" s="256">
+        <f t="shared" ref="T120" si="167">1/SIN(RADIANS(M120+244/(165+47*M120^1.1)))</f>
+        <v>1.9931538464145713</v>
+      </c>
+      <c r="U120" s="114">
+        <f t="shared" ref="U120" si="168">DEGREES(ASIN(SIN(RADIANS(F120))*SIN(RADIANS(25.19))))</f>
+        <v>-25.15307274301146</v>
+      </c>
+      <c r="V120" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W120" s="26">
+        <f t="shared" ref="W120" si="169">668.5921*MOD((C120-Z$1),686.9726)/686.9726</f>
+        <v>518.47077189796903</v>
+      </c>
+      <c r="X120" s="26">
+        <f t="shared" ref="X120" si="170">(S120/(G120/2))*T120/(IF(ISBLANK(N120),0.5,N120))</f>
+        <v>0.1062340882606751</v>
+      </c>
+      <c r="Y120" s="26">
+        <f t="shared" ref="Y120" si="171">0.1/X120</f>
+        <v>0.9413174399786064</v>
+      </c>
     </row>
     <row r="121" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B121" s="22"/>
-      <c r="C121" s="36"/>
-      <c r="D121" s="123"/>
-      <c r="E121" s="126"/>
-      <c r="F121" s="114"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="13"/>
-      <c r="J121" s="121"/>
+      <c r="C121" s="36">
+        <v>44090.229166666664</v>
+      </c>
+      <c r="D121" s="123">
+        <v>0.04</v>
+      </c>
+      <c r="E121" s="126">
+        <v>140.5</v>
+      </c>
+      <c r="F121" s="114">
+        <v>279</v>
+      </c>
+      <c r="G121" s="13">
+        <v>21.1</v>
+      </c>
+      <c r="H121" s="13">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="I121" s="13">
+        <f t="shared" ref="I121" si="172">-LOG((1/(G121^2))*(2.511^(-H121)))/LOG(2.511)</f>
+        <v>4.4239506950679193</v>
+      </c>
+      <c r="J121" s="121" t="s">
+        <v>435</v>
+      </c>
       <c r="K121" s="121"/>
       <c r="L121" s="121"/>
-      <c r="M121" s="13"/>
-      <c r="N121" s="143"/>
+      <c r="M121" s="13">
+        <v>32</v>
+      </c>
+      <c r="N121" s="267">
+        <v>0.8</v>
+      </c>
+      <c r="O121" s="5">
+        <v>0</v>
+      </c>
+      <c r="P121" s="5">
+        <v>1</v>
+      </c>
       <c r="Q121" s="22"/>
-      <c r="R121" s="6"/>
-      <c r="S121" s="62"/>
-      <c r="T121" s="6"/>
-      <c r="U121" s="114"/>
-      <c r="V121" s="114"/>
-      <c r="W121" s="26"/>
-      <c r="X121" s="26"/>
-      <c r="Y121" s="26"/>
+      <c r="R121" s="6">
+        <v>44053</v>
+      </c>
+      <c r="S121" s="62">
+        <v>0.42</v>
+      </c>
+      <c r="T121" s="256">
+        <f t="shared" ref="T121" si="173">1/SIN(RADIANS(M121+244/(165+47*M121^1.1)))</f>
+        <v>1.8814885629712417</v>
+      </c>
+      <c r="U121" s="114">
+        <f t="shared" ref="U121" si="174">DEGREES(ASIN(SIN(RADIANS(F121))*SIN(RADIANS(25.19))))</f>
+        <v>-24.858660219368051</v>
+      </c>
+      <c r="V121" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W121" s="26">
+        <f t="shared" ref="W121" si="175">668.5921*MOD((C121-Z$1),686.9726)/686.9726</f>
+        <v>528.18293799879325</v>
+      </c>
+      <c r="X121" s="26">
+        <f t="shared" ref="X121" si="176">(S121/(G121/2))*T121/(IF(ISBLANK(N121),0.5,N121))</f>
+        <v>9.3628577778189739E-2</v>
+      </c>
+      <c r="Y121" s="26">
+        <f t="shared" ref="Y121" si="177">0.1/X121</f>
+        <v>1.0680499733415203</v>
+      </c>
     </row>
     <row r="122" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="22"/>
-      <c r="C122" s="36"/>
-      <c r="D122" s="123"/>
-      <c r="E122" s="126"/>
-      <c r="F122" s="114"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="13"/>
-      <c r="I122" s="13"/>
-      <c r="J122" s="121"/>
+      <c r="C122" s="36">
+        <v>44099.208333333336</v>
+      </c>
+      <c r="D122" s="123">
+        <v>0.02</v>
+      </c>
+      <c r="E122" s="126">
+        <v>52.6</v>
+      </c>
+      <c r="F122" s="114">
+        <v>284</v>
+      </c>
+      <c r="G122" s="13">
+        <v>22.1</v>
+      </c>
+      <c r="H122" s="13">
+        <v>-2.4</v>
+      </c>
+      <c r="I122" s="13">
+        <f t="shared" ref="I122" si="178">-LOG((1/(G122^2))*(2.511^(-H122)))/LOG(2.511)</f>
+        <v>4.3245383340207315</v>
+      </c>
+      <c r="J122" s="121" t="s">
+        <v>435</v>
+      </c>
       <c r="K122" s="121"/>
       <c r="L122" s="121"/>
-      <c r="M122" s="13"/>
-      <c r="N122" s="143"/>
+      <c r="M122" s="13">
+        <v>33</v>
+      </c>
+      <c r="N122" s="267">
+        <v>0.8</v>
+      </c>
+      <c r="O122" s="5">
+        <v>0</v>
+      </c>
+      <c r="P122" s="5">
+        <v>1</v>
+      </c>
       <c r="Q122" s="22"/>
-      <c r="R122" s="6"/>
-      <c r="S122" s="62"/>
-      <c r="T122" s="6"/>
-      <c r="U122" s="114"/>
-      <c r="V122" s="114"/>
-      <c r="W122" s="26"/>
-      <c r="X122" s="26"/>
-      <c r="Y122" s="26"/>
+      <c r="R122" s="6">
+        <v>44053</v>
+      </c>
+      <c r="S122" s="62">
+        <v>0.42</v>
+      </c>
+      <c r="T122" s="256">
+        <f t="shared" ref="T122" si="179">1/SIN(RADIANS(M122+244/(165+47*M122^1.1)))</f>
+        <v>1.8310048580706904</v>
+      </c>
+      <c r="U122" s="114">
+        <f t="shared" ref="U122" si="180">DEGREES(ASIN(SIN(RADIANS(F122))*SIN(RADIANS(25.19))))</f>
+        <v>-24.392082987923679</v>
+      </c>
+      <c r="V122" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W122" s="26">
+        <f t="shared" ref="W122" si="181">668.5921*MOD((C122-Z$1),686.9726)/686.9726</f>
+        <v>536.92185989745394</v>
+      </c>
+      <c r="X122" s="26">
+        <f t="shared" ref="X122" si="182">(S122/(G122/2))*T122/(IF(ISBLANK(N122),0.5,N122))</f>
+        <v>8.6993443482996591E-2</v>
+      </c>
+      <c r="Y122" s="26">
+        <f t="shared" ref="Y122" si="183">0.1/X122</f>
+        <v>1.1495119171773631</v>
+      </c>
     </row>
     <row r="123" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="22"/>
-      <c r="C123" s="36"/>
-      <c r="D123" s="123"/>
-      <c r="E123" s="126"/>
-      <c r="F123" s="114"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="13"/>
-      <c r="I123" s="13"/>
-      <c r="J123" s="121"/>
+      <c r="C123" s="36">
+        <v>44109.208333333336</v>
+      </c>
+      <c r="D123" s="123">
+        <v>0.01</v>
+      </c>
+      <c r="E123" s="126">
+        <v>324.10000000000002</v>
+      </c>
+      <c r="F123" s="114">
+        <v>291</v>
+      </c>
+      <c r="G123" s="13">
+        <v>22.6</v>
+      </c>
+      <c r="H123" s="13">
+        <v>-2.4</v>
+      </c>
+      <c r="I123" s="13">
+        <f t="shared" ref="I123" si="184">-LOG((1/(G123^2))*(2.511^(-H123)))/LOG(2.511)</f>
+        <v>4.3731377855273701</v>
+      </c>
+      <c r="J123" s="121" t="s">
+        <v>435</v>
+      </c>
       <c r="K123" s="121"/>
       <c r="L123" s="121"/>
-      <c r="M123" s="13"/>
-      <c r="N123" s="143"/>
+      <c r="M123" s="13">
+        <v>41</v>
+      </c>
+      <c r="N123" s="267">
+        <v>0.8</v>
+      </c>
+      <c r="O123" s="5">
+        <v>0</v>
+      </c>
+      <c r="P123" s="5">
+        <v>1</v>
+      </c>
       <c r="Q123" s="22"/>
-      <c r="R123" s="6"/>
-      <c r="S123" s="62"/>
-      <c r="T123" s="6"/>
-      <c r="U123" s="114"/>
-      <c r="V123" s="114"/>
-      <c r="W123" s="26"/>
-      <c r="X123" s="26"/>
-      <c r="Y123" s="26"/>
+      <c r="R123" s="6">
+        <v>44053</v>
+      </c>
+      <c r="S123" s="62">
+        <v>0.42</v>
+      </c>
+      <c r="T123" s="256">
+        <f t="shared" ref="T123" si="185">1/SIN(RADIANS(M123+244/(165+47*M123^1.1)))</f>
+        <v>1.5217348947311704</v>
+      </c>
+      <c r="U123" s="114">
+        <f t="shared" ref="U123" si="186">DEGREES(ASIN(SIN(RADIANS(F123))*SIN(RADIANS(25.19))))</f>
+        <v>-23.41272910300189</v>
+      </c>
+      <c r="V123" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W123" s="26">
+        <f t="shared" ref="W123" si="187">668.5921*MOD((C123-Z$1),686.9726)/686.9726</f>
+        <v>546.65430191915914</v>
+      </c>
+      <c r="X123" s="26">
+        <f t="shared" ref="X123" si="188">(S123/(G123/2))*T123/(IF(ISBLANK(N123),0.5,N123))</f>
+        <v>7.0700072542819861E-2</v>
+      </c>
+      <c r="Y123" s="26">
+        <f t="shared" ref="Y123" si="189">0.1/X123</f>
+        <v>1.4144257057082155</v>
+      </c>
     </row>
     <row r="124" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="22"/>
-      <c r="C124" s="36"/>
-      <c r="D124" s="123"/>
-      <c r="E124" s="126"/>
-      <c r="F124" s="114"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="13"/>
-      <c r="I124" s="13"/>
-      <c r="J124" s="121"/>
+      <c r="C124" s="36">
+        <v>44132.104166666664</v>
+      </c>
+      <c r="D124" s="123">
+        <v>0.01</v>
+      </c>
+      <c r="E124" s="126">
+        <v>84.7</v>
+      </c>
+      <c r="F124" s="114">
+        <v>304</v>
+      </c>
+      <c r="G124" s="13">
+        <v>20.7</v>
+      </c>
+      <c r="H124" s="13">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="I124" s="13">
+        <f t="shared" ref="I124" si="190">-LOG((1/(G124^2))*(2.511^(-H124)))/LOG(2.511)</f>
+        <v>4.2823742129986879</v>
+      </c>
+      <c r="J124" s="121" t="s">
+        <v>435</v>
+      </c>
       <c r="K124" s="121"/>
       <c r="L124" s="121"/>
-      <c r="M124" s="13"/>
-      <c r="N124" s="143"/>
+      <c r="M124" s="13">
+        <v>35</v>
+      </c>
+      <c r="N124" s="267">
+        <v>0.8</v>
+      </c>
+      <c r="O124" s="5">
+        <v>0</v>
+      </c>
+      <c r="P124" s="5">
+        <v>1</v>
+      </c>
       <c r="Q124" s="22"/>
-      <c r="R124" s="6"/>
-      <c r="S124" s="62"/>
-      <c r="T124" s="6"/>
-      <c r="U124" s="114"/>
-      <c r="V124" s="114"/>
-      <c r="W124" s="26"/>
-      <c r="X124" s="26"/>
-      <c r="Y124" s="26"/>
+      <c r="R124" s="6">
+        <v>44053</v>
+      </c>
+      <c r="S124" s="62">
+        <v>0.42</v>
+      </c>
+      <c r="T124" s="256">
+        <f t="shared" ref="T124" si="191">1/SIN(RADIANS(M124+244/(165+47*M124^1.1)))</f>
+        <v>1.7392388870659281</v>
+      </c>
+      <c r="U124" s="114">
+        <f t="shared" ref="U124" si="192">DEGREES(ASIN(SIN(RADIANS(F124))*SIN(RADIANS(25.19))))</f>
+        <v>-20.662106883307455</v>
+      </c>
+      <c r="V124" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W124" s="26">
+        <f t="shared" ref="W124" si="193">668.5921*MOD((C124-Z$1),686.9726)/686.9726</f>
+        <v>568.93753896468331</v>
+      </c>
+      <c r="X124" s="26">
+        <f t="shared" ref="X124" si="194">(S124/(G124/2))*T124/(IF(ISBLANK(N124),0.5,N124))</f>
+        <v>8.8222262387402134E-2</v>
+      </c>
+      <c r="Y124" s="26">
+        <f t="shared" ref="Y124" si="195">0.1/X124</f>
+        <v>1.1335007433937638</v>
+      </c>
     </row>
     <row r="125" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="22"/>
-      <c r="C125" s="36"/>
-      <c r="D125" s="123"/>
-      <c r="E125" s="126"/>
-      <c r="F125" s="114"/>
-      <c r="G125" s="13"/>
-      <c r="H125" s="13"/>
-      <c r="I125" s="13"/>
-      <c r="J125" s="121"/>
+      <c r="C125" s="36">
+        <v>44132.229166666664</v>
+      </c>
+      <c r="D125" s="123">
+        <v>0.01</v>
+      </c>
+      <c r="E125" s="126">
+        <v>128.5</v>
+      </c>
+      <c r="F125" s="114">
+        <v>304</v>
+      </c>
+      <c r="G125" s="13">
+        <v>20.7</v>
+      </c>
+      <c r="H125" s="13">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="I125" s="13">
+        <f t="shared" ref="I125" si="196">-LOG((1/(G125^2))*(2.511^(-H125)))/LOG(2.511)</f>
+        <v>4.2823742129986879</v>
+      </c>
+      <c r="J125" s="121" t="s">
+        <v>435</v>
+      </c>
       <c r="K125" s="121"/>
       <c r="L125" s="121"/>
-      <c r="M125" s="13"/>
-      <c r="N125" s="143"/>
+      <c r="M125" s="13">
+        <v>55</v>
+      </c>
+      <c r="N125" s="267">
+        <v>0.8</v>
+      </c>
+      <c r="O125" s="5">
+        <v>0</v>
+      </c>
+      <c r="P125" s="5">
+        <v>1</v>
+      </c>
       <c r="Q125" s="22"/>
-      <c r="R125" s="6"/>
-      <c r="S125" s="62"/>
-      <c r="T125" s="6"/>
-      <c r="U125" s="114"/>
-      <c r="V125" s="114"/>
-      <c r="W125" s="26"/>
-      <c r="X125" s="26"/>
-      <c r="Y125" s="26"/>
+      <c r="R125" s="6">
+        <v>44053</v>
+      </c>
+      <c r="S125" s="62">
+        <v>0.42</v>
+      </c>
+      <c r="T125" s="256">
+        <f t="shared" ref="T125" si="197">1/SIN(RADIANS(M125+244/(165+47*M125^1.1)))</f>
+        <v>1.2198713542670481</v>
+      </c>
+      <c r="U125" s="114">
+        <f t="shared" ref="U125" si="198">DEGREES(ASIN(SIN(RADIANS(F125))*SIN(RADIANS(25.19))))</f>
+        <v>-20.662106883307455</v>
+      </c>
+      <c r="V125" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W125" s="26">
+        <f t="shared" ref="W125" si="199">668.5921*MOD((C125-Z$1),686.9726)/686.9726</f>
+        <v>569.05919448995462</v>
+      </c>
+      <c r="X125" s="26">
+        <f t="shared" ref="X125" si="200">(S125/(G125/2))*T125/(IF(ISBLANK(N125),0.5,N125))</f>
+        <v>6.1877532462821273E-2</v>
+      </c>
+      <c r="Y125" s="26">
+        <f t="shared" ref="Y125" si="201">0.1/X125</f>
+        <v>1.6160954714877225</v>
+      </c>
+    </row>
+    <row r="126" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="22"/>
+      <c r="C126" s="36">
+        <v>44133.145833333336</v>
+      </c>
+      <c r="D126" s="123">
+        <v>0.01</v>
+      </c>
+      <c r="E126" s="126">
+        <v>90.4</v>
+      </c>
+      <c r="F126" s="114">
+        <v>305</v>
+      </c>
+      <c r="G126" s="13">
+        <v>20.5</v>
+      </c>
+      <c r="H126" s="13">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="I126" s="13">
+        <f t="shared" ref="I126" si="202">-LOG((1/(G126^2))*(2.511^(-H126)))/LOG(2.511)</f>
+        <v>4.3612837087274139</v>
+      </c>
+      <c r="J126" s="121" t="s">
+        <v>435</v>
+      </c>
+      <c r="K126" s="121"/>
+      <c r="L126" s="121"/>
+      <c r="M126" s="13">
+        <v>45</v>
+      </c>
+      <c r="N126" s="267">
+        <v>0.8</v>
+      </c>
+      <c r="O126" s="5">
+        <v>0</v>
+      </c>
+      <c r="P126" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q126" s="22"/>
+      <c r="R126" s="6">
+        <v>44053</v>
+      </c>
+      <c r="S126" s="62">
+        <v>0.42</v>
+      </c>
+      <c r="T126" s="256">
+        <f t="shared" ref="T126" si="203">1/SIN(RADIANS(M126+244/(165+47*M126^1.1)))</f>
+        <v>1.4123696442557017</v>
+      </c>
+      <c r="U126" s="114">
+        <f t="shared" ref="U126" si="204">DEGREES(ASIN(SIN(RADIANS(F126))*SIN(RADIANS(25.19))))</f>
+        <v>-20.404680299322521</v>
+      </c>
+      <c r="V126" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W126" s="26">
+        <f t="shared" ref="W126" si="205">668.5921*MOD((C126-Z$1),686.9726)/686.9726</f>
+        <v>569.95133500861562</v>
+      </c>
+      <c r="X126" s="26">
+        <f t="shared" ref="X126" si="206">(S126/(G126/2))*T126/(IF(ISBLANK(N126),0.5,N126))</f>
+        <v>7.2340884217974966E-2</v>
+      </c>
+      <c r="Y126" s="26">
+        <f t="shared" ref="Y126" si="207">0.1/X126</f>
+        <v>1.3823441762017117</v>
+      </c>
+    </row>
+    <row r="127" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="22"/>
+      <c r="C127" s="36">
+        <v>44137.145833333336</v>
+      </c>
+      <c r="D127" s="123">
+        <v>0.02</v>
+      </c>
+      <c r="E127" s="126">
+        <v>54.6</v>
+      </c>
+      <c r="F127" s="114">
+        <v>307</v>
+      </c>
+      <c r="G127" s="13">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="H127" s="13">
+        <v>-2.1</v>
+      </c>
+      <c r="I127" s="13">
+        <f t="shared" ref="I127" si="208">-LOG((1/(G127^2))*(2.511^(-H127)))/LOG(2.511)</f>
+        <v>4.396755056942248</v>
+      </c>
+      <c r="J127" s="121" t="s">
+        <v>435</v>
+      </c>
+      <c r="K127" s="121"/>
+      <c r="L127" s="121"/>
+      <c r="M127" s="13">
+        <v>48</v>
+      </c>
+      <c r="N127" s="267">
+        <v>0.8</v>
+      </c>
+      <c r="O127" s="5">
+        <v>0</v>
+      </c>
+      <c r="P127" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q127" s="22"/>
+      <c r="R127" s="6">
+        <v>44053</v>
+      </c>
+      <c r="S127" s="62">
+        <v>0.42</v>
+      </c>
+      <c r="T127" s="256">
+        <f t="shared" ref="T127" si="209">1/SIN(RADIANS(M127+244/(165+47*M127^1.1)))</f>
+        <v>1.3441558434238583</v>
+      </c>
+      <c r="U127" s="114">
+        <f t="shared" ref="U127" si="210">DEGREES(ASIN(SIN(RADIANS(F127))*SIN(RADIANS(25.19))))</f>
+        <v>-19.871776787349532</v>
+      </c>
+      <c r="V127" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W127" s="26">
+        <f t="shared" ref="W127" si="211">668.5921*MOD((C127-Z$1),686.9726)/686.9726</f>
+        <v>573.84431181729769</v>
+      </c>
+      <c r="X127" s="26">
+        <f t="shared" ref="X127" si="212">(S127/(G127/2))*T127/(IF(ISBLANK(N127),0.5,N127))</f>
+        <v>7.0922795758545279E-2</v>
+      </c>
+      <c r="Y127" s="26">
+        <f t="shared" ref="Y127" si="213">0.1/X127</f>
+        <v>1.4099838977082526</v>
+      </c>
+    </row>
+    <row r="128" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="22"/>
+      <c r="C128" s="36">
+        <v>44138.166666666664</v>
+      </c>
+      <c r="D128" s="123">
+        <v>0.02</v>
+      </c>
+      <c r="E128" s="126">
+        <v>53</v>
+      </c>
+      <c r="F128" s="114">
+        <v>308</v>
+      </c>
+      <c r="G128" s="13">
+        <v>19.7</v>
+      </c>
+      <c r="H128" s="13">
+        <v>-2.1</v>
+      </c>
+      <c r="I128" s="13">
+        <f t="shared" ref="I128" si="214">-LOG((1/(G128^2))*(2.511^(-H128)))/LOG(2.511)</f>
+        <v>4.3748123968745976</v>
+      </c>
+      <c r="J128" s="121" t="s">
+        <v>435</v>
+      </c>
+      <c r="K128" s="121"/>
+      <c r="L128" s="121"/>
+      <c r="M128" s="13">
+        <v>52</v>
+      </c>
+      <c r="N128" s="267">
+        <v>0.8</v>
+      </c>
+      <c r="O128" s="5">
+        <v>0</v>
+      </c>
+      <c r="P128" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q128" s="22"/>
+      <c r="R128" s="6">
+        <v>44053</v>
+      </c>
+      <c r="S128" s="62">
+        <v>0.42</v>
+      </c>
+      <c r="T128" s="256">
+        <f t="shared" ref="T128" si="215">1/SIN(RADIANS(M128+244/(165+47*M128^1.1)))</f>
+        <v>1.2679069016723665</v>
+      </c>
+      <c r="U128" s="114">
+        <f t="shared" ref="U128" si="216">DEGREES(ASIN(SIN(RADIANS(F128))*SIN(RADIANS(25.19))))</f>
+        <v>-19.596511487075084</v>
+      </c>
+      <c r="V128" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W128" s="26">
+        <f t="shared" ref="W128" si="217">668.5921*MOD((C128-Z$1),686.9726)/686.9726</f>
+        <v>574.83783194034197</v>
+      </c>
+      <c r="X128" s="26">
+        <f t="shared" ref="X128" si="218">(S128/(G128/2))*T128/(IF(ISBLANK(N128),0.5,N128))</f>
+        <v>6.757879425157283E-2</v>
+      </c>
+      <c r="Y128" s="26">
+        <f t="shared" ref="Y128" si="219">0.1/X128</f>
+        <v>1.4797541315657996</v>
+      </c>
+    </row>
+    <row r="129" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="22"/>
+      <c r="C129" s="36">
+        <v>44141.15625</v>
+      </c>
+      <c r="D129" s="123">
+        <v>0.03</v>
+      </c>
+      <c r="E129" s="126">
+        <v>22.3</v>
+      </c>
+      <c r="F129" s="114">
+        <v>310</v>
+      </c>
+      <c r="G129" s="13">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="H129" s="13">
+        <v>-2</v>
+      </c>
+      <c r="I129" s="13">
+        <f t="shared" ref="I129" si="220">-LOG((1/(G129^2))*(2.511^(-H129)))/LOG(2.511)</f>
+        <v>4.4076223538567385</v>
+      </c>
+      <c r="J129" s="121" t="s">
+        <v>435</v>
+      </c>
+      <c r="K129" s="121"/>
+      <c r="L129" s="121"/>
+      <c r="M129" s="13">
+        <v>52</v>
+      </c>
+      <c r="N129" s="267">
+        <v>0.8</v>
+      </c>
+      <c r="O129" s="5">
+        <v>0</v>
+      </c>
+      <c r="P129" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q129" s="22"/>
+      <c r="R129" s="6">
+        <v>44053</v>
+      </c>
+      <c r="S129" s="62">
+        <v>0.42</v>
+      </c>
+      <c r="T129" s="256">
+        <f t="shared" ref="T129" si="221">1/SIN(RADIANS(M129+244/(165+47*M129^1.1)))</f>
+        <v>1.2679069016723665</v>
+      </c>
+      <c r="U129" s="114">
+        <f t="shared" ref="U129" si="222">DEGREES(ASIN(SIN(RADIANS(F129))*SIN(RADIANS(25.19))))</f>
+        <v>-19.028890741463773</v>
+      </c>
+      <c r="V129" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W129" s="26">
+        <f t="shared" ref="W129" si="223">668.5921*MOD((C129-Z$1),686.9726)/686.9726</f>
+        <v>577.74742658641662</v>
+      </c>
+      <c r="X129" s="26">
+        <f t="shared" ref="X129" si="224">(S129/(G129/2))*T129/(IF(ISBLANK(N129),0.5,N129))</f>
+        <v>6.9701688311831655E-2</v>
+      </c>
+      <c r="Y129" s="26">
+        <f t="shared" ref="Y129" si="225">0.1/X129</f>
+        <v>1.4346854778125266</v>
+      </c>
+    </row>
+    <row r="130" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="22"/>
+      <c r="C130" s="36">
+        <v>44152.125</v>
+      </c>
+      <c r="D130" s="123">
+        <v>0.05</v>
+      </c>
+      <c r="E130" s="126">
+        <v>271.3</v>
+      </c>
+      <c r="F130" s="114">
+        <v>316</v>
+      </c>
+      <c r="G130" s="13">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="H130" s="13">
+        <v>-1.6</v>
+      </c>
+      <c r="I130" s="13">
+        <f t="shared" ref="I130" si="226">-LOG((1/(G130^2))*(2.511^(-H130)))/LOG(2.511)</f>
+        <v>4.5673439905327262</v>
+      </c>
+      <c r="J130" s="121" t="s">
+        <v>435</v>
+      </c>
+      <c r="K130" s="121"/>
+      <c r="L130" s="121"/>
+      <c r="M130" s="13">
+        <v>52</v>
+      </c>
+      <c r="N130" s="267">
+        <v>0.8</v>
+      </c>
+      <c r="O130" s="5">
+        <v>0</v>
+      </c>
+      <c r="P130" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q130" s="22"/>
+      <c r="R130" s="6">
+        <v>44053</v>
+      </c>
+      <c r="S130" s="62">
+        <v>0.42</v>
+      </c>
+      <c r="T130" s="256">
+        <f t="shared" ref="T130" si="227">1/SIN(RADIANS(M130+244/(165+47*M130^1.1)))</f>
+        <v>1.2679069016723665</v>
+      </c>
+      <c r="U130" s="114">
+        <f t="shared" ref="U130" si="228">DEGREES(ASIN(SIN(RADIANS(F130))*SIN(RADIANS(25.19))))</f>
+        <v>-17.197204585190082</v>
+      </c>
+      <c r="V130" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W130" s="26">
+        <f t="shared" ref="W130" si="229">668.5921*MOD((C130-Z$1),686.9726)/686.9726</f>
+        <v>588.42269892897434</v>
+      </c>
+      <c r="X130" s="26">
+        <f t="shared" ref="X130" si="230">(S130/(G130/2))*T130/(IF(ISBLANK(N130),0.5,N130))</f>
+        <v>7.7853932558829511E-2</v>
+      </c>
+      <c r="Y130" s="26">
+        <f t="shared" ref="Y130" si="231">0.1/X130</f>
+        <v>1.2844566319682831</v>
+      </c>
+    </row>
+    <row r="131" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="22"/>
+      <c r="C131" s="36">
+        <v>44153.21875</v>
+      </c>
+      <c r="D131" s="123">
+        <v>0.05</v>
+      </c>
+      <c r="E131" s="126">
+        <v>295</v>
+      </c>
+      <c r="F131" s="114">
+        <v>317</v>
+      </c>
+      <c r="G131" s="13">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H131" s="13">
+        <v>-1.6</v>
+      </c>
+      <c r="I131" s="13">
+        <f t="shared" ref="I131" si="232">-LOG((1/(G131^2))*(2.511^(-H131)))/LOG(2.511)</f>
+        <v>4.5417871678002673</v>
+      </c>
+      <c r="J131" s="121" t="s">
+        <v>435</v>
+      </c>
+      <c r="K131" s="121"/>
+      <c r="L131" s="121"/>
+      <c r="M131" s="13">
+        <v>52</v>
+      </c>
+      <c r="N131" s="267">
+        <v>0.8</v>
+      </c>
+      <c r="O131" s="5">
+        <v>0</v>
+      </c>
+      <c r="P131" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q131" s="22"/>
+      <c r="R131" s="6">
+        <v>44053</v>
+      </c>
+      <c r="S131" s="62">
+        <v>0.42</v>
+      </c>
+      <c r="T131" s="256">
+        <f t="shared" ref="T131" si="233">1/SIN(RADIANS(M131+244/(165+47*M131^1.1)))</f>
+        <v>1.2679069016723665</v>
+      </c>
+      <c r="U131" s="114">
+        <f t="shared" ref="U131" si="234">DEGREES(ASIN(SIN(RADIANS(F131))*SIN(RADIANS(25.19))))</f>
+        <v>-16.874305122260981</v>
+      </c>
+      <c r="V131" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W131" s="26">
+        <f t="shared" ref="W131" si="235">668.5921*MOD((C131-Z$1),686.9726)/686.9726</f>
+        <v>589.4871847750984</v>
+      </c>
+      <c r="X131" s="26">
+        <f t="shared" ref="X131" si="236">(S131/(G131/2))*T131/(IF(ISBLANK(N131),0.5,N131))</f>
+        <v>7.8775280873135206E-2</v>
+      </c>
+      <c r="Y131" s="26">
+        <f t="shared" ref="Y131" si="237">0.1/X131</f>
+        <v>1.2694337473838584</v>
+      </c>
+    </row>
+    <row r="132" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="22"/>
+      <c r="C132" s="36">
+        <v>44164.114583333336</v>
+      </c>
+      <c r="D132" s="123">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E132" s="126">
+        <v>156.6</v>
+      </c>
+      <c r="F132" s="114">
+        <v>323</v>
+      </c>
+      <c r="G132" s="13">
+        <v>14.9</v>
+      </c>
+      <c r="H132" s="13">
+        <v>-1.2</v>
+      </c>
+      <c r="I132" s="13">
+        <f t="shared" ref="I132" si="238">-LOG((1/(G132^2))*(2.511^(-H132)))/LOG(2.511)</f>
+        <v>4.6681801355940395</v>
+      </c>
+      <c r="J132" s="121" t="s">
+        <v>435</v>
+      </c>
+      <c r="K132" s="121"/>
+      <c r="L132" s="121"/>
+      <c r="M132" s="13">
+        <v>55</v>
+      </c>
+      <c r="N132" s="267">
+        <v>0.8</v>
+      </c>
+      <c r="O132" s="5">
+        <v>0</v>
+      </c>
+      <c r="P132" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q132" s="22"/>
+      <c r="R132" s="6">
+        <v>44053</v>
+      </c>
+      <c r="S132" s="62">
+        <v>0.42</v>
+      </c>
+      <c r="T132" s="256">
+        <f t="shared" ref="T132" si="239">1/SIN(RADIANS(M132+244/(165+47*M132^1.1)))</f>
+        <v>1.2198713542670481</v>
+      </c>
+      <c r="U132" s="114">
+        <f t="shared" ref="U132" si="240">DEGREES(ASIN(SIN(RADIANS(F132))*SIN(RADIANS(25.19))))</f>
+        <v>-14.841461952952889</v>
+      </c>
+      <c r="V132" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W132" s="26">
+        <f t="shared" ref="W132" si="241">668.5921*MOD((C132-Z$1),686.9726)/686.9726</f>
+        <v>600.0914913945835</v>
+      </c>
+      <c r="X132" s="26">
+        <f t="shared" ref="X132" si="242">(S132/(G132/2))*T132/(IF(ISBLANK(N132),0.5,N132))</f>
+        <v>8.5964088723516796E-2</v>
+      </c>
+      <c r="Y132" s="26">
+        <f t="shared" ref="Y132" si="243">0.1/X132</f>
+        <v>1.1632764504911628</v>
+      </c>
+    </row>
+    <row r="133" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="22"/>
+      <c r="C133" s="36">
+        <v>44172.145833333336</v>
+      </c>
+      <c r="D133" s="123">
+        <v>0.09</v>
+      </c>
+      <c r="E133" s="126">
+        <v>92.5</v>
+      </c>
+      <c r="F133" s="114">
+        <v>327</v>
+      </c>
+      <c r="G133" s="13">
+        <v>13.6</v>
+      </c>
+      <c r="H133" s="13">
+        <v>-0.9</v>
+      </c>
+      <c r="I133" s="13">
+        <f t="shared" ref="I133" si="244">-LOG((1/(G133^2))*(2.511^(-H133)))/LOG(2.511)</f>
+        <v>4.7698673383070345</v>
+      </c>
+      <c r="J133" s="121" t="s">
+        <v>435</v>
+      </c>
+      <c r="K133" s="121"/>
+      <c r="L133" s="121"/>
+      <c r="M133" s="13">
+        <v>57</v>
+      </c>
+      <c r="N133" s="267">
+        <v>0.8</v>
+      </c>
+      <c r="O133" s="5">
+        <v>0</v>
+      </c>
+      <c r="P133" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q133" s="22"/>
+      <c r="R133" s="6">
+        <v>44053</v>
+      </c>
+      <c r="S133" s="62">
+        <v>0.42</v>
+      </c>
+      <c r="T133" s="256">
+        <f t="shared" ref="T133" si="245">1/SIN(RADIANS(M133+244/(165+47*M133^1.1)))</f>
+        <v>1.1915753236973983</v>
+      </c>
+      <c r="U133" s="114">
+        <f t="shared" ref="U133" si="246">DEGREES(ASIN(SIN(RADIANS(F133))*SIN(RADIANS(25.19))))</f>
+        <v>-13.403657961356764</v>
+      </c>
+      <c r="V133" s="114">
+        <v>22.22</v>
+      </c>
+      <c r="W133" s="26">
+        <f t="shared" ref="W133" si="247">668.5921*MOD((C133-Z$1),686.9726)/686.9726</f>
+        <v>607.90785889326548</v>
+      </c>
+      <c r="X133" s="26">
+        <f t="shared" ref="X133" si="248">(S133/(G133/2))*T133/(IF(ISBLANK(N133),0.5,N133))</f>
+        <v>9.1996624256049125E-2</v>
+      </c>
+      <c r="Y133" s="26">
+        <f t="shared" ref="Y133" si="249">0.1/X133</f>
+        <v>1.086996406755921</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AA92" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
